--- a/git.xlsx
+++ b/git.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="620">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="749">
   <si>
     <t xml:space="preserve">CÁC LỆNH GIT</t>
   </si>
@@ -277,6 +277,12 @@
   </si>
   <si>
     <t xml:space="preserve">git remote rename &lt;old_name&gt; &lt;new_name&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tự động xác thực khi thực hiện push lên Remote thông qua https</t>
+  </si>
+  <si>
+    <t xml:space="preserve">git config --global credential.helper cache</t>
   </si>
   <si>
     <t xml:space="preserve">LÀM VIỆC VỚI TAG</t>
@@ -2461,6 +2467,9 @@
     <t xml:space="preserve">Git sẽ tạo 1 Local Repo trùng tên với Remote Repo</t>
   </si>
   <si>
+    <t xml:space="preserve">Git chỉ clone về nhánh default trên Remote</t>
+  </si>
+  <si>
     <t xml:space="preserve">git clone &lt;URL_remote&gt;</t>
   </si>
   <si>
@@ -2474,6 +2483,514 @@
   </si>
   <si>
     <t xml:space="preserve">đổi tên của Remote</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PUSH DỮ LIỆU LÊN REMOTE</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">sau khi </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">git remote add</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">, để push dữ liệu Local lên Remote, cần </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">--set-upstream giữa Local và Remote để tạo tracked theo dõi kết nối</t>
+  </si>
+  <si>
+    <t xml:space="preserve">trên nhánh ở Local cần kết nối</t>
+  </si>
+  <si>
+    <t xml:space="preserve">git push --set-upstream &lt;remote_name&gt; &lt;local_branch&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">git push -u &lt;remote_Name&gt; &lt;local_branch&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">git push --upstream &lt;remote_Name&gt; &lt;local_branch&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sau khi thiết lập tracked theo dõi kết nối</t>
+  </si>
+  <si>
+    <t xml:space="preserve">có thể push tất cả các nhánh của Local lên Remote, hoặc chỉ định từng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nhánh riêng biệt, lúc này Remote sẽ có được những dữ liệu tương ứng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">như tên nhánh và nội dung commit của nhánh đó</t>
+  </si>
+  <si>
+    <t xml:space="preserve">git push &lt;remote_name&gt; --all</t>
+  </si>
+  <si>
+    <t xml:space="preserve">git push &lt;remote_name&gt; &lt;local_branch&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LÀM VIỆC VỚI NHÁNH TRÊN REMOTE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">liệt kê nhánh và tags trên Remote chỉ định</t>
+  </si>
+  <si>
+    <t xml:space="preserve">git ls-remote &lt;remote_name&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">liệt kê nhánh và tình trạng các nhánh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">liệt kê nhánh có trên Remote và Local</t>
+  </si>
+  <si>
+    <t xml:space="preserve">git branch -a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sau khi clone 1 Remote Repo, ta chỉ được 1 nhánh default ở Local, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">để lấy các nhánh trên Remote về Local, ta tiến hành checkout từng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nhánh trên Remote về Local</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xóa 1 nhánh trên Remote</t>
+  </si>
+  <si>
+    <t xml:space="preserve">git push &lt;remote_name&gt; --delete &lt;remote_branch&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ghi đè nhánh trên Remote bởi nhánh ở Local (dùng lệnh này cẩn thận)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">toàn bộ nội dung của 1 nhánh trên Remote sẽ bị xóa và thay thế bởi 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nhánh ở Local (2 nhánh này trùng tên)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">git push --force &lt;remote_name&gt; &lt;branch_name&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GIT FETCH - ĐỒNG BỘ REMOTE &amp; LOCAL</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">để đồng bộ dữ liệu giữa Remote và Local, ta dùng lệnh </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">git fetch</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">lệnh </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">git fetch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> sẽ tìm và tải về những dữ liệu mà Local chưa có vào </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">database ở Local, cập nhật lại vị trí con trỏ HEAD của nhánh thuộc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Remote từ điểm commit gần nhất Local push lên Remote (vị trí commit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Local push lên Remote, lúc này là điểm rẽ nhánh, 1 nhánh Remote/branch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">và 1 nhánh branch của Local</t>
+  </si>
+  <si>
+    <t xml:space="preserve">điểm push</t>
+  </si>
+  <si>
+    <t xml:space="preserve">remote/branch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">branch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tải về thông tin của tất cả các nhánh trên Remote mà Local chưa có</t>
+  </si>
+  <si>
+    <t xml:space="preserve">git fetch --all</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tải về thông tin của 1 nhánh cụ thể trên Remote</t>
+  </si>
+  <si>
+    <t xml:space="preserve">git fetch &lt;remote_name&gt; &lt;remote_branch&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sau khi fetch dữ liệu Remote về, kiểm tra log của nhánh trên Remote &amp;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Local để so sánh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">git log --oneline &lt;remote_name&gt;/&lt;remote_branch&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">git log --oneline &lt;local_branch&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nếu muốn cập nhật những thay đổi của nhánh trên Remote vào nhánh trên</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Local, switch đến nhánh đích, nhập lệnh merge nhánh nguồn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">git merge &lt;remote_name&gt;/&lt;remote_branch&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GIT PULL - KÉO DỮ LIỆU TỪ REMOTE VỀ LOCAL</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">lệnh </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">git pull </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">sẽ tìm những thông tin trên Remote mà Local chưa có, sau</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">đó tải về và merge tất cả vào các nhánh tương ứng ở Local</t>
+  </si>
+  <si>
+    <t xml:space="preserve">git pull &lt;remote_name&gt; &lt;local_branch&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">git pull &lt;remote_name&gt; --all</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">một trong 2 câu lệnh trên tương ứng với việc </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">fetch sau đó merge</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">GIT REBASE - VIẾT LẠI LỊCH SỬ LÀM VIỆC Ở LOCAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cập nhật toàn bộ các nhánh trên Remote là BASE của các nhánh đang làm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">việc ở Local</t>
+  </si>
+  <si>
+    <t xml:space="preserve">git pull --rebase &lt;remote_name&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TAGGING ( GẮN THẺ )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tag thường được sử dụng để đánh dấu phiên bản phát hành (release version)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 - xem danh sách các tag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xem tất cả các tag có trong Local Repo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xem tất cả các tag có trong Local Repo kèm theo miêu tả của mỗi tag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">git tag -n</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xem những tag khớp với pattern yêu cầu, pattern đặt trong cặp nháy </t>
+  </si>
+  <si>
+    <t xml:space="preserve">đôi “”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(chỉ xem những tag có phần đầu là v1.8.5)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">git tag -l “v1.8.5*” </t>
+  </si>
+  <si>
+    <t xml:space="preserve">xem tất cả các tag có trên Remote Repo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">git ls-remote --tags &lt;remote_Name&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 - tạo tag ngay khi vừa commit xong</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*  annotated tag : tên tag + message</t>
+  </si>
+  <si>
+    <t xml:space="preserve">git tag -a [tag_Name] -m “nội_dung_message”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*  lightweight tag : tên tag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">git tag [tag_Name]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 - xem thông tin chi tiết về 1 tag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">để xem thông tin về 1 tag nào đó, cũng giống như xem 1 log nào đó, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">vì tag chính là đại diện cho commit id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">git show [tag_Name]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 - tạo tag cho những commit cũ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">để gắn tag cho những commit cũ, chúng ta cần commit id của những </t>
+  </si>
+  <si>
+    <t xml:space="preserve">commit đó, git log --pretty=online lấy id, sau đó copy commit ID </t>
+  </si>
+  <si>
+    <t xml:space="preserve">cần gắn tag, paste vào câu lệnh sau:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">git tag -a [tag_Name] [commit_ID] -m “nội_dung_message”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 - đẩy tag lên Remote</t>
+  </si>
+  <si>
+    <t xml:space="preserve">đẩy từng tag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">git push [remote_Name] [tag_Name]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">đẩy nhiều tag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">git push [remote_Name] --tags</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 - checkout 1 branch từ 1 tag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">để chọn từ 1 tag nào đấy checkout thành 1 branch mới, chứa nội dung </t>
+  </si>
+  <si>
+    <t xml:space="preserve">từ tag đó trở về trước</t>
+  </si>
+  <si>
+    <t xml:space="preserve">git checkout -b [new_branch_Name] [tag_Name]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sau khi rút ra 1 branch mới, để kiểm tra các branch trong Git sử </t>
+  </si>
+  <si>
+    <t xml:space="preserve">dụng lệnh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">để switch giữa các branch dùng lệnh sau để switch đến branch_Name </t>
+  </si>
+  <si>
+    <t xml:space="preserve">cần đến</t>
+  </si>
+  <si>
+    <t xml:space="preserve">git switch [branch_Name]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">git checkout [branch_Name]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 - xóa tag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xóa tag trên Local</t>
+  </si>
+  <si>
+    <t xml:space="preserve">git tag -d [tag_Name]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xóa tag trên Remote có 2 cách:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">git push [remote_Name] --delete [tag_Name]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">git push [remote_Name] :refs/tags/[tag_Name]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X - ALIAS ( bí danh )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alias có nghĩa là bí danh, trong Git đây là 1 tip giúp tiết kiệm thời gian gõ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">lệnh, bằng cách thay các câu lệnh chính quy bằng những bí danh ngắn gọn tùy </t>
+  </si>
+  <si>
+    <t xml:space="preserve">theo cá nhân mỗi người</t>
+  </si>
+  <si>
+    <t xml:space="preserve">để tùy chỉnh alias ta tùy chỉnh cấp độ global, chứ không nằm trong 1 Repo nào </t>
+  </si>
+  <si>
+    <t xml:space="preserve">cả</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cú pháp để định nghĩa 1 alias cho 1 command tùy ý</t>
+  </si>
+  <si>
+    <t xml:space="preserve">git config --global alias.[alias_name] [lệnh.được.thay.thế]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VD: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">git config --global alias.co checkout (thay checkout = co)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">git config --global alias.st status (thay status =st)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cú pháp để định nghĩa 1 alias cho 1 chuỗi command</t>
+  </si>
+  <si>
+    <t xml:space="preserve">git config --global alias.[alias_name] ‘chuỗi.được.thay.thế’</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(thay thế reset HEAD -- = unstage)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VD: git config --global alias.unstage ‘reset HEAD’ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">git unstage fileABC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">git unstage fileCDF...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">( git log -1 HEAD để xem commit cuối)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VD: git config --global alias.last ‘log -1 HEAD’ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">git last</t>
   </si>
 </sst>
 </file>
@@ -2619,7 +3136,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="10">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -2669,6 +3186,27 @@
       <bottom style="thin"/>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top style="hair"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right/>
+      <top style="hair"/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top style="hair"/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -2695,7 +3233,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="36">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2824,6 +3362,22 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2901,15 +3455,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>2160</xdr:colOff>
-      <xdr:row>229</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>3240</xdr:colOff>
+      <xdr:row>232</xdr:row>
+      <xdr:rowOff>360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>546120</xdr:colOff>
-      <xdr:row>245</xdr:row>
-      <xdr:rowOff>72360</xdr:rowOff>
+      <xdr:row>248</xdr:row>
+      <xdr:rowOff>71640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2922,8 +3476,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="645840" y="45720000"/>
-          <a:ext cx="6338880" cy="3272760"/>
+          <a:off x="646920" y="46291680"/>
+          <a:ext cx="6337800" cy="3271680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2938,15 +3492,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1800</xdr:colOff>
-      <xdr:row>367</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>2880</xdr:colOff>
+      <xdr:row>370</xdr:row>
+      <xdr:rowOff>360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>559800</xdr:colOff>
-      <xdr:row>394</xdr:row>
-      <xdr:rowOff>49680</xdr:rowOff>
+      <xdr:row>397</xdr:row>
+      <xdr:rowOff>48600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2959,8 +3513,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="645480" y="73056600"/>
-          <a:ext cx="6352920" cy="5193000"/>
+          <a:off x="646560" y="73628280"/>
+          <a:ext cx="6351840" cy="5191920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2980,10 +3534,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L1048576"/>
+  <dimension ref="A1:L1067"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A848" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E895" activeCellId="0" sqref="E895"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1050" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H1065" activeCellId="0" sqref="H1065"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3462,29 +4016,30 @@
         <v>84</v>
       </c>
     </row>
-    <row r="127" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B127" s="11" t="s">
+    <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C127" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C127" s="11"/>
-      <c r="D127" s="12"/>
-      <c r="E127" s="11"/>
-      <c r="F127" s="11"/>
-      <c r="G127" s="11"/>
-      <c r="H127" s="11"/>
-      <c r="I127" s="11"/>
-      <c r="J127" s="11"/>
-      <c r="K127" s="13"/>
-    </row>
-    <row r="128" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C128" s="2" t="s">
+    </row>
+    <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D128" s="3" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="129" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D129" s="3" t="s">
+    <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="130" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B130" s="11" t="s">
         <v>87</v>
       </c>
+      <c r="C130" s="11"/>
+      <c r="D130" s="12"/>
+      <c r="E130" s="11"/>
+      <c r="F130" s="11"/>
+      <c r="G130" s="11"/>
+      <c r="H130" s="11"/>
+      <c r="I130" s="11"/>
+      <c r="J130" s="11"/>
+      <c r="K130" s="13"/>
     </row>
     <row r="131" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C131" s="2" t="s">
@@ -3577,28 +4132,28 @@
       </c>
     </row>
     <row r="158" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B158" s="11" t="s">
+      <c r="C158" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C158" s="11"/>
-      <c r="D158" s="12"/>
-      <c r="E158" s="11"/>
-      <c r="F158" s="11"/>
-      <c r="G158" s="11"/>
-      <c r="H158" s="11"/>
-      <c r="I158" s="11"/>
-      <c r="J158" s="11"/>
-      <c r="K158" s="13"/>
     </row>
     <row r="159" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C159" s="2" t="s">
+      <c r="D159" s="3" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="160" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D160" s="3" t="s">
+    <row r="161" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B161" s="11" t="s">
         <v>108</v>
       </c>
+      <c r="C161" s="11"/>
+      <c r="D161" s="12"/>
+      <c r="E161" s="11"/>
+      <c r="F161" s="11"/>
+      <c r="G161" s="11"/>
+      <c r="H161" s="11"/>
+      <c r="I161" s="11"/>
+      <c r="J161" s="11"/>
+      <c r="K161" s="13"/>
     </row>
     <row r="162" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C162" s="2" t="s">
@@ -3646,12 +4201,12 @@
       </c>
     </row>
     <row r="175" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C175" s="2" t="s">
+      <c r="D175" s="3" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="176" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D176" s="3" t="s">
+    <row r="177" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C177" s="2" t="s">
         <v>119</v>
       </c>
     </row>
@@ -3677,17 +4232,17 @@
     </row>
     <row r="184" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C184" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D185" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C187" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3716,33 +4271,28 @@
       </c>
     </row>
     <row r="196" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B196" s="11" t="s">
+      <c r="C196" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="C196" s="11"/>
-      <c r="D196" s="12"/>
-      <c r="E196" s="11"/>
-      <c r="F196" s="11"/>
-      <c r="G196" s="11"/>
-      <c r="H196" s="11"/>
-      <c r="I196" s="11"/>
-      <c r="J196" s="11"/>
-      <c r="K196" s="13"/>
     </row>
     <row r="197" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D197" s="3" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="198" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D198" s="3" t="s">
+    <row r="199" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B199" s="11" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="199" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D199" s="3" t="s">
-        <v>25</v>
-      </c>
+      <c r="C199" s="11"/>
+      <c r="D199" s="12"/>
+      <c r="E199" s="11"/>
+      <c r="F199" s="11"/>
+      <c r="G199" s="11"/>
+      <c r="H199" s="11"/>
+      <c r="I199" s="11"/>
+      <c r="J199" s="11"/>
+      <c r="K199" s="13"/>
     </row>
     <row r="200" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D200" s="3" t="s">
@@ -3756,167 +4306,163 @@
     </row>
     <row r="202" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D202" s="3" t="s">
-        <v>136</v>
+        <v>25</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D203" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="204" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D204" s="3" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A205" s="4" t="s">
+      <c r="D205" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="B205" s="5"/>
-      <c r="C205" s="5"/>
-      <c r="D205" s="5"/>
-      <c r="E205" s="5"/>
-      <c r="F205" s="5"/>
-      <c r="G205" s="5"/>
-      <c r="H205" s="5"/>
-      <c r="I205" s="5"/>
-      <c r="J205" s="5"/>
-      <c r="K205" s="6"/>
     </row>
     <row r="206" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B206" s="11" t="s">
+      <c r="D206" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="C206" s="11"/>
-      <c r="D206" s="12"/>
-      <c r="E206" s="11"/>
-      <c r="F206" s="11"/>
-      <c r="G206" s="11"/>
-      <c r="H206" s="11"/>
-      <c r="I206" s="11"/>
-      <c r="J206" s="11"/>
-      <c r="K206" s="13"/>
-    </row>
-    <row r="207" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C207" s="2" t="s">
+    </row>
+    <row r="208" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A208" s="4" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="208" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C208" s="2" t="s">
+      <c r="B208" s="5"/>
+      <c r="C208" s="5"/>
+      <c r="D208" s="5"/>
+      <c r="E208" s="5"/>
+      <c r="F208" s="5"/>
+      <c r="G208" s="5"/>
+      <c r="H208" s="5"/>
+      <c r="I208" s="5"/>
+      <c r="J208" s="5"/>
+      <c r="K208" s="6"/>
+    </row>
+    <row r="209" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B209" s="11" t="s">
         <v>141</v>
       </c>
+      <c r="C209" s="11"/>
+      <c r="D209" s="12"/>
+      <c r="E209" s="11"/>
+      <c r="F209" s="11"/>
+      <c r="G209" s="11"/>
+      <c r="H209" s="11"/>
+      <c r="I209" s="11"/>
+      <c r="J209" s="11"/>
+      <c r="K209" s="13"/>
     </row>
     <row r="210" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B210" s="11" t="s">
+      <c r="C210" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C210" s="11"/>
-      <c r="D210" s="12"/>
-      <c r="E210" s="11"/>
-      <c r="F210" s="11"/>
-      <c r="G210" s="11"/>
-      <c r="H210" s="11"/>
-      <c r="I210" s="11"/>
-      <c r="J210" s="11"/>
-      <c r="K210" s="13"/>
     </row>
     <row r="211" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C211" s="2" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="212" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C212" s="2" t="s">
+    <row r="213" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B213" s="11" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="213" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C213" s="2" t="s">
+      <c r="C213" s="11"/>
+      <c r="D213" s="12"/>
+      <c r="E213" s="11"/>
+      <c r="F213" s="11"/>
+      <c r="G213" s="11"/>
+      <c r="H213" s="11"/>
+      <c r="I213" s="11"/>
+      <c r="J213" s="11"/>
+      <c r="K213" s="13"/>
+    </row>
+    <row r="214" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C214" s="2" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B215" s="11" t="s">
+      <c r="C215" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="C215" s="11"/>
-      <c r="D215" s="12"/>
-      <c r="E215" s="11"/>
-      <c r="F215" s="11"/>
-      <c r="G215" s="11"/>
-      <c r="H215" s="11"/>
-      <c r="I215" s="11"/>
-      <c r="J215" s="11"/>
-      <c r="K215" s="13"/>
     </row>
     <row r="216" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C216" s="2" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="217" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C217" s="2" t="s">
+    <row r="218" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B218" s="11" t="s">
         <v>148</v>
       </c>
+      <c r="C218" s="11"/>
+      <c r="D218" s="12"/>
+      <c r="E218" s="11"/>
+      <c r="F218" s="11"/>
+      <c r="G218" s="11"/>
+      <c r="H218" s="11"/>
+      <c r="I218" s="11"/>
+      <c r="J218" s="11"/>
+      <c r="K218" s="13"/>
     </row>
     <row r="219" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A219" s="4" t="s">
+      <c r="C219" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="B219" s="5"/>
-      <c r="C219" s="5"/>
-      <c r="D219" s="5"/>
-      <c r="E219" s="5"/>
-      <c r="F219" s="5"/>
-      <c r="G219" s="5"/>
-      <c r="H219" s="5"/>
-      <c r="I219" s="5"/>
-      <c r="J219" s="5"/>
-      <c r="K219" s="6"/>
     </row>
     <row r="220" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B220" s="11" t="s">
+      <c r="C220" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="C220" s="11"/>
-      <c r="D220" s="12"/>
-      <c r="E220" s="11"/>
-      <c r="F220" s="11"/>
-      <c r="G220" s="11"/>
-      <c r="H220" s="11"/>
-      <c r="I220" s="11"/>
-      <c r="J220" s="11"/>
-      <c r="K220" s="13"/>
-    </row>
-    <row r="221" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C221" s="2" t="s">
+    </row>
+    <row r="222" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A222" s="4" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="222" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C222" s="2" t="s">
+      <c r="B222" s="5"/>
+      <c r="C222" s="5"/>
+      <c r="D222" s="5"/>
+      <c r="E222" s="5"/>
+      <c r="F222" s="5"/>
+      <c r="G222" s="5"/>
+      <c r="H222" s="5"/>
+      <c r="I222" s="5"/>
+      <c r="J222" s="5"/>
+      <c r="K222" s="6"/>
+    </row>
+    <row r="223" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B223" s="11" t="s">
         <v>152</v>
       </c>
+      <c r="C223" s="11"/>
+      <c r="D223" s="12"/>
+      <c r="E223" s="11"/>
+      <c r="F223" s="11"/>
+      <c r="G223" s="11"/>
+      <c r="H223" s="11"/>
+      <c r="I223" s="11"/>
+      <c r="J223" s="11"/>
+      <c r="K223" s="13"/>
     </row>
     <row r="224" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B224" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="C224" s="11"/>
-      <c r="D224" s="12"/>
-      <c r="E224" s="11"/>
-      <c r="F224" s="11"/>
-      <c r="G224" s="11"/>
-      <c r="H224" s="11"/>
-      <c r="I224" s="11"/>
-      <c r="J224" s="11"/>
-      <c r="K224" s="13"/>
+      <c r="C224" s="2" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="225" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C225" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B227" s="11" t="s">
-        <v>154</v>
+        <v>43</v>
       </c>
       <c r="C227" s="11"/>
       <c r="D227" s="12"/>
@@ -3933,58 +4479,67 @@
         <v>155</v>
       </c>
     </row>
-    <row r="247" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B247" s="2" t="s">
+    <row r="230" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B230" s="11" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="248" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C248" s="2" t="s">
+      <c r="C230" s="11"/>
+      <c r="D230" s="12"/>
+      <c r="E230" s="11"/>
+      <c r="F230" s="11"/>
+      <c r="G230" s="11"/>
+      <c r="H230" s="11"/>
+      <c r="I230" s="11"/>
+      <c r="J230" s="11"/>
+      <c r="K230" s="13"/>
+    </row>
+    <row r="231" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C231" s="2" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="249" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C249" s="2" t="s">
+    <row r="250" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B250" s="2" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="250" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C250" s="2" t="s">
+    <row r="251" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C251" s="2" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="251" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D251" s="2" t="s">
+    <row r="252" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C252" s="2" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A253" s="4" t="s">
+      <c r="C253" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="B253" s="5"/>
-      <c r="C253" s="5"/>
-      <c r="D253" s="5"/>
-      <c r="E253" s="5"/>
-      <c r="F253" s="5"/>
-      <c r="G253" s="5"/>
-      <c r="H253" s="5"/>
-      <c r="I253" s="5"/>
-      <c r="J253" s="5"/>
-      <c r="K253" s="6"/>
     </row>
     <row r="254" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B254" s="2" t="s">
+      <c r="D254" s="2" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="255" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C255" s="2" t="s">
+    <row r="256" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A256" s="4" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="256" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D256" s="2" t="s">
+      <c r="B256" s="5"/>
+      <c r="C256" s="5"/>
+      <c r="D256" s="5"/>
+      <c r="E256" s="5"/>
+      <c r="F256" s="5"/>
+      <c r="G256" s="5"/>
+      <c r="H256" s="5"/>
+      <c r="I256" s="5"/>
+      <c r="J256" s="5"/>
+      <c r="K256" s="6"/>
+    </row>
+    <row r="257" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B257" s="2" t="s">
         <v>164</v>
       </c>
     </row>
@@ -4009,53 +4564,53 @@
       </c>
     </row>
     <row r="264" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B264" s="2" t="s">
+      <c r="C264" s="2" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C265" s="2" t="s">
+      <c r="D265" s="2" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="267" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A267" s="4" t="s">
+      <c r="B267" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="B267" s="5"/>
-      <c r="C267" s="5"/>
-      <c r="D267" s="5"/>
-      <c r="E267" s="5"/>
-      <c r="F267" s="5"/>
-      <c r="G267" s="5"/>
-      <c r="H267" s="5"/>
-      <c r="I267" s="5"/>
-      <c r="J267" s="5"/>
-      <c r="K267" s="6"/>
     </row>
     <row r="268" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B268" s="11" t="s">
+      <c r="C268" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="C268" s="11"/>
-      <c r="D268" s="12"/>
-      <c r="E268" s="11"/>
-      <c r="F268" s="11"/>
-      <c r="G268" s="11"/>
-      <c r="H268" s="11"/>
-      <c r="I268" s="11"/>
-      <c r="J268" s="11"/>
-      <c r="K268" s="13"/>
-    </row>
-    <row r="269" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C269" s="2" t="s">
+    </row>
+    <row r="270" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A270" s="4" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="270" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D270" s="3" t="s">
+      <c r="B270" s="5"/>
+      <c r="C270" s="5"/>
+      <c r="D270" s="5"/>
+      <c r="E270" s="5"/>
+      <c r="F270" s="5"/>
+      <c r="G270" s="5"/>
+      <c r="H270" s="5"/>
+      <c r="I270" s="5"/>
+      <c r="J270" s="5"/>
+      <c r="K270" s="6"/>
+    </row>
+    <row r="271" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B271" s="11" t="s">
         <v>174</v>
       </c>
+      <c r="C271" s="11"/>
+      <c r="D271" s="12"/>
+      <c r="E271" s="11"/>
+      <c r="F271" s="11"/>
+      <c r="G271" s="11"/>
+      <c r="H271" s="11"/>
+      <c r="I271" s="11"/>
+      <c r="J271" s="11"/>
+      <c r="K271" s="13"/>
     </row>
     <row r="272" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C272" s="2" t="s">
@@ -4068,47 +4623,44 @@
       </c>
     </row>
     <row r="275" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B275" s="11" t="s">
+      <c r="C275" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="C275" s="11"/>
-      <c r="D275" s="12"/>
-      <c r="E275" s="11"/>
-      <c r="F275" s="11"/>
-      <c r="G275" s="11"/>
-      <c r="H275" s="11"/>
-      <c r="I275" s="11"/>
-      <c r="J275" s="11"/>
-      <c r="K275" s="13"/>
     </row>
     <row r="276" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C276" s="2" t="s">
+      <c r="D276" s="3" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="277" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C277" s="2" t="s">
+    <row r="278" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B278" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="D277" s="3" t="s">
-        <v>180</v>
-      </c>
+      <c r="C278" s="11"/>
+      <c r="D278" s="12"/>
+      <c r="E278" s="11"/>
+      <c r="F278" s="11"/>
+      <c r="G278" s="11"/>
+      <c r="H278" s="11"/>
+      <c r="I278" s="11"/>
+      <c r="J278" s="11"/>
+      <c r="K278" s="13"/>
     </row>
     <row r="279" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C279" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="280" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C280" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="D280" s="3" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="281" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C281" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="D281" s="3" t="s">
+    <row r="282" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C282" s="2" t="s">
         <v>183</v>
       </c>
     </row>
@@ -4119,41 +4671,44 @@
     </row>
     <row r="284" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C284" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="D284" s="3" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="286" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B286" s="11" t="s">
+      <c r="C286" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="C286" s="11"/>
-      <c r="D286" s="12"/>
-      <c r="E286" s="11"/>
-      <c r="F286" s="11"/>
-      <c r="G286" s="11"/>
-      <c r="H286" s="11"/>
-      <c r="I286" s="11"/>
-      <c r="J286" s="11"/>
-      <c r="K286" s="13"/>
     </row>
     <row r="287" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C287" s="2" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="288" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D288" s="3" t="s">
-        <v>3</v>
-      </c>
+    <row r="289" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B289" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="C289" s="11"/>
+      <c r="D289" s="12"/>
+      <c r="E289" s="11"/>
+      <c r="F289" s="11"/>
+      <c r="G289" s="11"/>
+      <c r="H289" s="11"/>
+      <c r="I289" s="11"/>
+      <c r="J289" s="11"/>
+      <c r="K289" s="13"/>
     </row>
     <row r="290" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C290" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="291" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D291" s="3" t="s">
-        <v>189</v>
+        <v>3</v>
       </c>
     </row>
     <row r="293" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4167,415 +4722,386 @@
       </c>
     </row>
     <row r="296" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A296" s="4" t="s">
+      <c r="C296" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="B296" s="5"/>
-      <c r="C296" s="5"/>
-      <c r="D296" s="5"/>
-      <c r="E296" s="5"/>
-      <c r="F296" s="5"/>
-      <c r="G296" s="5"/>
-      <c r="H296" s="5"/>
-      <c r="I296" s="5"/>
-      <c r="J296" s="5"/>
-      <c r="K296" s="6"/>
     </row>
     <row r="297" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B297" s="11" t="s">
+      <c r="D297" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="C297" s="11"/>
-      <c r="D297" s="12"/>
-      <c r="E297" s="11"/>
-      <c r="F297" s="11"/>
-      <c r="G297" s="11"/>
-      <c r="H297" s="11"/>
-      <c r="I297" s="11"/>
-      <c r="J297" s="11"/>
-      <c r="K297" s="13"/>
-    </row>
-    <row r="298" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C298" s="2" t="s">
+    </row>
+    <row r="299" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A299" s="4" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="299" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C299" s="2" t="s">
+      <c r="B299" s="5"/>
+      <c r="C299" s="5"/>
+      <c r="D299" s="5"/>
+      <c r="E299" s="5"/>
+      <c r="F299" s="5"/>
+      <c r="G299" s="5"/>
+      <c r="H299" s="5"/>
+      <c r="I299" s="5"/>
+      <c r="J299" s="5"/>
+      <c r="K299" s="6"/>
+    </row>
+    <row r="300" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B300" s="11" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="300" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C300" s="2" t="s">
-        <v>196</v>
-      </c>
+      <c r="C300" s="11"/>
+      <c r="D300" s="12"/>
+      <c r="E300" s="11"/>
+      <c r="F300" s="11"/>
+      <c r="G300" s="11"/>
+      <c r="H300" s="11"/>
+      <c r="I300" s="11"/>
+      <c r="J300" s="11"/>
+      <c r="K300" s="13"/>
     </row>
     <row r="301" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C301" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="302" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C302" s="2" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="302" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D302" s="3" t="s">
+    <row r="303" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C303" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="304" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C304" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="305" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D305" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="304" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B304" s="11" t="s">
-        <v>198</v>
-      </c>
-      <c r="C304" s="11"/>
-      <c r="D304" s="12"/>
-      <c r="E304" s="11"/>
-      <c r="F304" s="11"/>
-      <c r="G304" s="11"/>
-      <c r="H304" s="11"/>
-      <c r="I304" s="11"/>
-      <c r="J304" s="11"/>
-      <c r="K304" s="13"/>
-    </row>
-    <row r="305" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C305" s="2" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="306" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C306" s="2" t="s">
+    <row r="307" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B307" s="11" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="307" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C307" s="2" t="s">
+      <c r="C307" s="11"/>
+      <c r="D307" s="12"/>
+      <c r="E307" s="11"/>
+      <c r="F307" s="11"/>
+      <c r="G307" s="11"/>
+      <c r="H307" s="11"/>
+      <c r="I307" s="11"/>
+      <c r="J307" s="11"/>
+      <c r="K307" s="13"/>
+    </row>
+    <row r="308" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C308" s="2" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="308" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D308" s="3" t="s">
+    <row r="309" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C309" s="2" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="310" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B310" s="11" t="s">
+      <c r="C310" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="C310" s="11"/>
-      <c r="D310" s="12"/>
-      <c r="E310" s="11"/>
-      <c r="F310" s="11"/>
-      <c r="G310" s="11"/>
-      <c r="H310" s="11"/>
-      <c r="I310" s="11"/>
-      <c r="J310" s="11"/>
-      <c r="K310" s="13"/>
     </row>
     <row r="311" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C311" s="2" t="s">
+      <c r="D311" s="3" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="312" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C312" s="2" t="s">
+    <row r="313" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B313" s="11" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="313" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C313" s="2" t="s">
-        <v>206</v>
-      </c>
+      <c r="C313" s="11"/>
+      <c r="D313" s="12"/>
+      <c r="E313" s="11"/>
+      <c r="F313" s="11"/>
+      <c r="G313" s="11"/>
+      <c r="H313" s="11"/>
+      <c r="I313" s="11"/>
+      <c r="J313" s="11"/>
+      <c r="K313" s="13"/>
     </row>
     <row r="314" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C314" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="315" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C315" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="316" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C316" s="2" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="316" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D316" s="3" t="s">
+    <row r="317" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C317" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="318" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C318" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="319" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D319" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="318" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A318" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="B318" s="5"/>
-      <c r="C318" s="5"/>
-      <c r="D318" s="5"/>
-      <c r="E318" s="5"/>
-      <c r="F318" s="5"/>
-      <c r="G318" s="5"/>
-      <c r="H318" s="5"/>
-      <c r="I318" s="5"/>
-      <c r="J318" s="5"/>
-      <c r="K318" s="6"/>
-    </row>
-    <row r="319" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B319" s="2" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="320" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B320" s="2" t="s">
+    <row r="321" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A321" s="4" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="321" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B321" s="2" t="s">
+      <c r="B321" s="5"/>
+      <c r="C321" s="5"/>
+      <c r="D321" s="5"/>
+      <c r="E321" s="5"/>
+      <c r="F321" s="5"/>
+      <c r="G321" s="5"/>
+      <c r="H321" s="5"/>
+      <c r="I321" s="5"/>
+      <c r="J321" s="5"/>
+      <c r="K321" s="6"/>
+    </row>
+    <row r="322" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B322" s="2" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="323" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B323" s="11" t="s">
+      <c r="B323" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="324" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B324" s="2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="326" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B326" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C323" s="11"/>
-      <c r="D323" s="12"/>
-      <c r="E323" s="11"/>
-      <c r="F323" s="11"/>
-      <c r="G323" s="11"/>
-      <c r="H323" s="11"/>
-      <c r="I323" s="11"/>
-      <c r="J323" s="11"/>
-      <c r="K323" s="13"/>
-    </row>
-    <row r="324" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C324" s="2" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="325" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C325" s="2" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="326" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C326" s="2" t="s">
-        <v>215</v>
-      </c>
+      <c r="C326" s="11"/>
+      <c r="D326" s="12"/>
+      <c r="E326" s="11"/>
+      <c r="F326" s="11"/>
+      <c r="G326" s="11"/>
+      <c r="H326" s="11"/>
+      <c r="I326" s="11"/>
+      <c r="J326" s="11"/>
+      <c r="K326" s="13"/>
     </row>
     <row r="327" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C327" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="328" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C328" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="329" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C329" s="2" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="330" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B330" s="11" t="s">
+    <row r="330" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C330" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="C330" s="11"/>
-      <c r="D330" s="12"/>
-      <c r="E330" s="11"/>
-      <c r="F330" s="11"/>
-      <c r="G330" s="11"/>
-      <c r="H330" s="11"/>
-      <c r="I330" s="11"/>
-      <c r="J330" s="11"/>
-      <c r="K330" s="13"/>
-    </row>
-    <row r="331" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="331" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C331" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="332" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D332" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="333" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+        <v>219</v>
+      </c>
+    </row>
+    <row r="333" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B333" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="C333" s="11"/>
+      <c r="D333" s="12"/>
+      <c r="E333" s="11"/>
+      <c r="F333" s="11"/>
+      <c r="G333" s="11"/>
+      <c r="H333" s="11"/>
+      <c r="I333" s="11"/>
+      <c r="J333" s="11"/>
+      <c r="K333" s="13"/>
+    </row>
     <row r="334" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C334" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="335" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D335" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="336" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="337" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C337" s="2" t="s">
-        <v>219</v>
+        <v>21</v>
       </c>
     </row>
     <row r="338" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D338" s="3" t="s">
-        <v>220</v>
+        <v>22</v>
       </c>
     </row>
     <row r="339" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="340" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="340" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C340" s="2" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="341" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C341" s="2" t="s">
+    <row r="341" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D341" s="3" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="342" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C342" s="2" t="s">
-        <v>223</v>
-      </c>
-    </row>
+    <row r="342" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="343" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C343" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="344" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C344" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="345" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C345" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="346" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C346" s="2" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="347" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B347" s="11" t="s">
+    <row r="347" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C347" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="C347" s="11"/>
-      <c r="D347" s="12"/>
-      <c r="E347" s="11"/>
-      <c r="F347" s="11"/>
-      <c r="G347" s="11"/>
-      <c r="H347" s="11"/>
-      <c r="I347" s="11"/>
-      <c r="J347" s="11"/>
-      <c r="K347" s="13"/>
-    </row>
-    <row r="348" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="348" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C348" s="2" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="349" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C349" s="2" t="s">
+    <row r="350" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B350" s="11" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="350" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D350" s="3" t="s">
+      <c r="C350" s="11"/>
+      <c r="D350" s="12"/>
+      <c r="E350" s="11"/>
+      <c r="F350" s="11"/>
+      <c r="G350" s="11"/>
+      <c r="H350" s="11"/>
+      <c r="I350" s="11"/>
+      <c r="J350" s="11"/>
+      <c r="K350" s="13"/>
+    </row>
+    <row r="351" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C351" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="352" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C352" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="353" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D353" s="3" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="351" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D351" s="3" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="352" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="353" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C353" s="2" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="354" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D354" s="3" t="s">
-        <v>27</v>
+        <v>232</v>
       </c>
     </row>
     <row r="355" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="356" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C356" s="2" t="s">
-        <v>28</v>
+        <v>233</v>
       </c>
     </row>
     <row r="357" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D357" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="358" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="359" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C359" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="360" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D360" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="358" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="359" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C359" s="2" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="360" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D360" s="3" t="s">
-        <v>233</v>
-      </c>
-    </row>
     <row r="361" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="362" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="362" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C362" s="2" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="363" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C363" s="2" t="s">
+    <row r="363" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D363" s="3" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="364" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D364" s="3" t="s">
+    <row r="364" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="365" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C365" s="2" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="365" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="366" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C366" s="2" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="367" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C367" s="2" t="s">
+      <c r="D367" s="3" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="368" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A368" s="14"/>
-      <c r="B368" s="15"/>
-      <c r="C368" s="15"/>
-      <c r="D368" s="16"/>
-      <c r="E368" s="15"/>
-      <c r="F368" s="15"/>
-      <c r="G368" s="15"/>
-      <c r="H368" s="15"/>
-      <c r="I368" s="15"/>
-      <c r="J368" s="15"/>
-      <c r="K368" s="15"/>
-    </row>
+    <row r="368" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="369" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A369" s="14"/>
-      <c r="B369" s="15"/>
-      <c r="C369" s="15"/>
-      <c r="D369" s="16"/>
-      <c r="E369" s="15"/>
-      <c r="F369" s="15"/>
-      <c r="G369" s="15"/>
-      <c r="H369" s="15"/>
-      <c r="I369" s="15"/>
-      <c r="J369" s="15"/>
-      <c r="K369" s="15"/>
-    </row>
-    <row r="370" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A370" s="14"/>
-      <c r="B370" s="15"/>
-      <c r="C370" s="15"/>
-      <c r="D370" s="16"/>
-      <c r="E370" s="15"/>
-      <c r="F370" s="15"/>
-      <c r="G370" s="15"/>
-      <c r="H370" s="15"/>
-      <c r="I370" s="15"/>
-      <c r="J370" s="15"/>
-      <c r="K370" s="15"/>
+      <c r="C369" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="370" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C370" s="2" t="s">
+        <v>240</v>
+      </c>
     </row>
     <row r="371" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="14"/>
@@ -4916,25 +5442,21 @@
       <c r="K396" s="15"/>
     </row>
     <row r="397" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A397" s="17" t="s">
-        <v>239</v>
-      </c>
-      <c r="B397" s="18"/>
-      <c r="C397" s="18"/>
-      <c r="D397" s="18"/>
-      <c r="E397" s="18"/>
-      <c r="F397" s="18"/>
-      <c r="G397" s="18"/>
-      <c r="H397" s="18"/>
-      <c r="I397" s="18"/>
-      <c r="J397" s="18"/>
-      <c r="K397" s="19"/>
+      <c r="A397" s="14"/>
+      <c r="B397" s="15"/>
+      <c r="C397" s="15"/>
+      <c r="D397" s="16"/>
+      <c r="E397" s="15"/>
+      <c r="F397" s="15"/>
+      <c r="G397" s="15"/>
+      <c r="H397" s="15"/>
+      <c r="I397" s="15"/>
+      <c r="J397" s="15"/>
+      <c r="K397" s="15"/>
     </row>
     <row r="398" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A398" s="14"/>
-      <c r="B398" s="15" t="s">
-        <v>240</v>
-      </c>
+      <c r="B398" s="15"/>
       <c r="C398" s="15"/>
       <c r="D398" s="16"/>
       <c r="E398" s="15"/>
@@ -4947,9 +5469,7 @@
     </row>
     <row r="399" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A399" s="14"/>
-      <c r="B399" s="15" t="s">
-        <v>241</v>
-      </c>
+      <c r="B399" s="15"/>
       <c r="C399" s="15"/>
       <c r="D399" s="16"/>
       <c r="E399" s="15"/>
@@ -4961,27 +5481,27 @@
       <c r="K399" s="15"/>
     </row>
     <row r="400" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A400" s="14"/>
-      <c r="B400" s="15"/>
-      <c r="C400" s="15" t="s">
-        <v>242</v>
-      </c>
-      <c r="D400" s="16"/>
-      <c r="E400" s="15"/>
-      <c r="F400" s="15"/>
-      <c r="G400" s="15"/>
-      <c r="H400" s="15"/>
-      <c r="I400" s="15"/>
-      <c r="J400" s="15"/>
-      <c r="K400" s="15"/>
+      <c r="A400" s="17" t="s">
+        <v>241</v>
+      </c>
+      <c r="B400" s="18"/>
+      <c r="C400" s="18"/>
+      <c r="D400" s="18"/>
+      <c r="E400" s="18"/>
+      <c r="F400" s="18"/>
+      <c r="G400" s="18"/>
+      <c r="H400" s="18"/>
+      <c r="I400" s="18"/>
+      <c r="J400" s="18"/>
+      <c r="K400" s="19"/>
     </row>
     <row r="401" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A401" s="14"/>
-      <c r="B401" s="15"/>
+      <c r="B401" s="15" t="s">
+        <v>242</v>
+      </c>
       <c r="C401" s="15"/>
-      <c r="D401" s="15" t="s">
-        <v>243</v>
-      </c>
+      <c r="D401" s="16"/>
       <c r="E401" s="15"/>
       <c r="F401" s="15"/>
       <c r="G401" s="15"/>
@@ -4992,10 +5512,10 @@
     </row>
     <row r="402" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A402" s="14"/>
-      <c r="B402" s="15"/>
-      <c r="C402" s="15" t="s">
-        <v>244</v>
-      </c>
+      <c r="B402" s="15" t="s">
+        <v>243</v>
+      </c>
+      <c r="C402" s="15"/>
       <c r="D402" s="16"/>
       <c r="E402" s="15"/>
       <c r="F402" s="15"/>
@@ -5008,10 +5528,10 @@
     <row r="403" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A403" s="14"/>
       <c r="B403" s="15"/>
-      <c r="C403" s="15"/>
-      <c r="D403" s="15" t="s">
-        <v>245</v>
-      </c>
+      <c r="C403" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="D403" s="16"/>
       <c r="E403" s="15"/>
       <c r="F403" s="15"/>
       <c r="G403" s="15"/>
@@ -5023,10 +5543,10 @@
     <row r="404" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A404" s="14"/>
       <c r="B404" s="15"/>
-      <c r="C404" s="15" t="s">
-        <v>246</v>
-      </c>
-      <c r="D404" s="16"/>
+      <c r="C404" s="15"/>
+      <c r="D404" s="15" t="s">
+        <v>245</v>
+      </c>
       <c r="E404" s="15"/>
       <c r="F404" s="15"/>
       <c r="G404" s="15"/>
@@ -5038,10 +5558,10 @@
     <row r="405" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A405" s="14"/>
       <c r="B405" s="15"/>
-      <c r="C405" s="15"/>
-      <c r="D405" s="15" t="s">
-        <v>245</v>
-      </c>
+      <c r="C405" s="15" t="s">
+        <v>246</v>
+      </c>
+      <c r="D405" s="16"/>
       <c r="E405" s="15"/>
       <c r="F405" s="15"/>
       <c r="G405" s="15"/>
@@ -5054,7 +5574,9 @@
       <c r="A406" s="14"/>
       <c r="B406" s="15"/>
       <c r="C406" s="15"/>
-      <c r="D406" s="16"/>
+      <c r="D406" s="15" t="s">
+        <v>247</v>
+      </c>
       <c r="E406" s="15"/>
       <c r="F406" s="15"/>
       <c r="G406" s="15"/>
@@ -5065,26 +5587,26 @@
     </row>
     <row r="407" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A407" s="14"/>
-      <c r="B407" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="C407" s="20"/>
-      <c r="D407" s="21"/>
-      <c r="E407" s="20"/>
-      <c r="F407" s="20"/>
-      <c r="G407" s="20"/>
-      <c r="H407" s="20"/>
-      <c r="I407" s="20"/>
-      <c r="J407" s="20"/>
-      <c r="K407" s="22"/>
+      <c r="B407" s="15"/>
+      <c r="C407" s="15" t="s">
+        <v>248</v>
+      </c>
+      <c r="D407" s="16"/>
+      <c r="E407" s="15"/>
+      <c r="F407" s="15"/>
+      <c r="G407" s="15"/>
+      <c r="H407" s="15"/>
+      <c r="I407" s="15"/>
+      <c r="J407" s="15"/>
+      <c r="K407" s="15"/>
     </row>
     <row r="408" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A408" s="14"/>
       <c r="B408" s="15"/>
-      <c r="C408" s="15" t="s">
+      <c r="C408" s="15"/>
+      <c r="D408" s="15" t="s">
         <v>247</v>
       </c>
-      <c r="D408" s="16"/>
       <c r="E408" s="15"/>
       <c r="F408" s="15"/>
       <c r="G408" s="15"/>
@@ -5097,9 +5619,7 @@
       <c r="A409" s="14"/>
       <c r="B409" s="15"/>
       <c r="C409" s="15"/>
-      <c r="D409" s="16" t="s">
-        <v>12</v>
-      </c>
+      <c r="D409" s="16"/>
       <c r="E409" s="15"/>
       <c r="F409" s="15"/>
       <c r="G409" s="15"/>
@@ -5110,22 +5630,24 @@
     </row>
     <row r="410" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A410" s="14"/>
-      <c r="B410" s="15"/>
-      <c r="C410" s="15"/>
-      <c r="D410" s="16"/>
-      <c r="E410" s="15"/>
-      <c r="F410" s="15"/>
-      <c r="G410" s="15"/>
-      <c r="H410" s="15"/>
-      <c r="I410" s="15"/>
-      <c r="J410" s="15"/>
-      <c r="K410" s="15"/>
+      <c r="B410" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C410" s="20"/>
+      <c r="D410" s="21"/>
+      <c r="E410" s="20"/>
+      <c r="F410" s="20"/>
+      <c r="G410" s="20"/>
+      <c r="H410" s="20"/>
+      <c r="I410" s="20"/>
+      <c r="J410" s="20"/>
+      <c r="K410" s="22"/>
     </row>
     <row r="411" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A411" s="14"/>
       <c r="B411" s="15"/>
       <c r="C411" s="15" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D411" s="16"/>
       <c r="E411" s="15"/>
@@ -5141,7 +5663,7 @@
       <c r="B412" s="15"/>
       <c r="C412" s="15"/>
       <c r="D412" s="16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E412" s="15"/>
       <c r="F412" s="15"/>
@@ -5168,7 +5690,7 @@
       <c r="A414" s="14"/>
       <c r="B414" s="15"/>
       <c r="C414" s="15" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D414" s="16"/>
       <c r="E414" s="15"/>
@@ -5184,11 +5706,9 @@
       <c r="B415" s="15"/>
       <c r="C415" s="15"/>
       <c r="D415" s="16" t="s">
-        <v>250</v>
-      </c>
-      <c r="E415" s="15" t="s">
-        <v>251</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="E415" s="15"/>
       <c r="F415" s="15"/>
       <c r="G415" s="15"/>
       <c r="H415" s="15"/>
@@ -5200,12 +5720,8 @@
       <c r="A416" s="14"/>
       <c r="B416" s="15"/>
       <c r="C416" s="15"/>
-      <c r="D416" s="16" t="s">
-        <v>252</v>
-      </c>
-      <c r="E416" s="15" t="s">
-        <v>253</v>
-      </c>
+      <c r="D416" s="16"/>
+      <c r="E416" s="15"/>
       <c r="F416" s="15"/>
       <c r="G416" s="15"/>
       <c r="H416" s="15"/>
@@ -5216,13 +5732,11 @@
     <row r="417" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A417" s="14"/>
       <c r="B417" s="15"/>
-      <c r="C417" s="15"/>
-      <c r="D417" s="16" t="s">
-        <v>254</v>
-      </c>
-      <c r="E417" s="15" t="s">
-        <v>255</v>
-      </c>
+      <c r="C417" s="15" t="s">
+        <v>251</v>
+      </c>
+      <c r="D417" s="16"/>
+      <c r="E417" s="15"/>
       <c r="F417" s="15"/>
       <c r="G417" s="15"/>
       <c r="H417" s="15"/>
@@ -5235,10 +5749,10 @@
       <c r="B418" s="15"/>
       <c r="C418" s="15"/>
       <c r="D418" s="16" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="E418" s="15" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="F418" s="15"/>
       <c r="G418" s="15"/>
@@ -5252,10 +5766,10 @@
       <c r="B419" s="15"/>
       <c r="C419" s="15"/>
       <c r="D419" s="16" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="E419" s="15" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="F419" s="15"/>
       <c r="G419" s="15"/>
@@ -5269,10 +5783,10 @@
       <c r="B420" s="15"/>
       <c r="C420" s="15"/>
       <c r="D420" s="16" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="E420" s="15" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="F420" s="15"/>
       <c r="G420" s="15"/>
@@ -5286,10 +5800,10 @@
       <c r="B421" s="15"/>
       <c r="C421" s="15"/>
       <c r="D421" s="16" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="E421" s="15" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="F421" s="15"/>
       <c r="G421" s="15"/>
@@ -5302,8 +5816,12 @@
       <c r="A422" s="14"/>
       <c r="B422" s="15"/>
       <c r="C422" s="15"/>
-      <c r="D422" s="16"/>
-      <c r="E422" s="15"/>
+      <c r="D422" s="16" t="s">
+        <v>260</v>
+      </c>
+      <c r="E422" s="15" t="s">
+        <v>261</v>
+      </c>
       <c r="F422" s="15"/>
       <c r="G422" s="15"/>
       <c r="H422" s="15"/>
@@ -5312,28 +5830,32 @@
       <c r="K422" s="15"/>
     </row>
     <row r="423" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A423" s="17" t="s">
-        <v>264</v>
-      </c>
-      <c r="B423" s="18"/>
-      <c r="C423" s="18"/>
-      <c r="D423" s="18"/>
-      <c r="E423" s="18"/>
-      <c r="F423" s="18"/>
-      <c r="G423" s="18"/>
-      <c r="H423" s="18"/>
-      <c r="I423" s="18"/>
-      <c r="J423" s="18"/>
-      <c r="K423" s="19"/>
+      <c r="A423" s="14"/>
+      <c r="B423" s="15"/>
+      <c r="C423" s="15"/>
+      <c r="D423" s="16" t="s">
+        <v>262</v>
+      </c>
+      <c r="E423" s="15" t="s">
+        <v>263</v>
+      </c>
+      <c r="F423" s="15"/>
+      <c r="G423" s="15"/>
+      <c r="H423" s="15"/>
+      <c r="I423" s="15"/>
+      <c r="J423" s="15"/>
+      <c r="K423" s="15"/>
     </row>
     <row r="424" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A424" s="14"/>
-      <c r="B424" s="15" t="s">
+      <c r="B424" s="15"/>
+      <c r="C424" s="15"/>
+      <c r="D424" s="16" t="s">
+        <v>264</v>
+      </c>
+      <c r="E424" s="15" t="s">
         <v>265</v>
       </c>
-      <c r="C424" s="15"/>
-      <c r="D424" s="16"/>
-      <c r="E424" s="15"/>
       <c r="F424" s="15"/>
       <c r="G424" s="15"/>
       <c r="H424" s="15"/>
@@ -5343,9 +5865,7 @@
     </row>
     <row r="425" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A425" s="14"/>
-      <c r="B425" s="15" t="s">
-        <v>266</v>
-      </c>
+      <c r="B425" s="15"/>
       <c r="C425" s="15"/>
       <c r="D425" s="16"/>
       <c r="E425" s="15"/>
@@ -5357,39 +5877,41 @@
       <c r="K425" s="15"/>
     </row>
     <row r="426" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A426" s="14"/>
-      <c r="B426" s="15"/>
-      <c r="C426" s="15"/>
-      <c r="D426" s="16"/>
-      <c r="E426" s="15"/>
-      <c r="F426" s="15"/>
-      <c r="G426" s="15"/>
-      <c r="H426" s="15"/>
-      <c r="I426" s="15"/>
-      <c r="J426" s="15"/>
-      <c r="K426" s="15"/>
+      <c r="A426" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="B426" s="18"/>
+      <c r="C426" s="18"/>
+      <c r="D426" s="18"/>
+      <c r="E426" s="18"/>
+      <c r="F426" s="18"/>
+      <c r="G426" s="18"/>
+      <c r="H426" s="18"/>
+      <c r="I426" s="18"/>
+      <c r="J426" s="18"/>
+      <c r="K426" s="19"/>
     </row>
     <row r="427" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A427" s="14"/>
-      <c r="B427" s="20" t="s">
+      <c r="B427" s="15" t="s">
         <v>267</v>
       </c>
-      <c r="C427" s="20"/>
-      <c r="D427" s="21"/>
-      <c r="E427" s="20"/>
-      <c r="F427" s="20"/>
-      <c r="G427" s="20"/>
-      <c r="H427" s="20"/>
-      <c r="I427" s="20"/>
-      <c r="J427" s="20"/>
-      <c r="K427" s="22"/>
+      <c r="C427" s="15"/>
+      <c r="D427" s="16"/>
+      <c r="E427" s="15"/>
+      <c r="F427" s="15"/>
+      <c r="G427" s="15"/>
+      <c r="H427" s="15"/>
+      <c r="I427" s="15"/>
+      <c r="J427" s="15"/>
+      <c r="K427" s="15"/>
     </row>
     <row r="428" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A428" s="14"/>
-      <c r="B428" s="15"/>
-      <c r="C428" s="15" t="s">
+      <c r="B428" s="15" t="s">
         <v>268</v>
       </c>
+      <c r="C428" s="15"/>
       <c r="D428" s="16"/>
       <c r="E428" s="15"/>
       <c r="F428" s="15"/>
@@ -5403,9 +5925,7 @@
       <c r="A429" s="14"/>
       <c r="B429" s="15"/>
       <c r="C429" s="15"/>
-      <c r="D429" s="16" t="s">
-        <v>269</v>
-      </c>
+      <c r="D429" s="16"/>
       <c r="E429" s="15"/>
       <c r="F429" s="15"/>
       <c r="G429" s="15"/>
@@ -5416,16 +5936,18 @@
     </row>
     <row r="430" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A430" s="14"/>
-      <c r="B430" s="15"/>
-      <c r="C430" s="15"/>
-      <c r="D430" s="16"/>
-      <c r="E430" s="15"/>
-      <c r="F430" s="15"/>
-      <c r="G430" s="15"/>
-      <c r="H430" s="15"/>
-      <c r="I430" s="15"/>
-      <c r="J430" s="15"/>
-      <c r="K430" s="15"/>
+      <c r="B430" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="C430" s="20"/>
+      <c r="D430" s="21"/>
+      <c r="E430" s="20"/>
+      <c r="F430" s="20"/>
+      <c r="G430" s="20"/>
+      <c r="H430" s="20"/>
+      <c r="I430" s="20"/>
+      <c r="J430" s="20"/>
+      <c r="K430" s="22"/>
     </row>
     <row r="431" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A431" s="14"/>
@@ -5445,10 +5967,10 @@
     <row r="432" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A432" s="14"/>
       <c r="B432" s="15"/>
-      <c r="C432" s="15" t="s">
+      <c r="C432" s="15"/>
+      <c r="D432" s="16" t="s">
         <v>271</v>
       </c>
-      <c r="D432" s="16"/>
       <c r="E432" s="15"/>
       <c r="F432" s="15"/>
       <c r="G432" s="15"/>
@@ -5461,9 +5983,7 @@
       <c r="A433" s="14"/>
       <c r="B433" s="15"/>
       <c r="C433" s="15"/>
-      <c r="D433" s="16" t="s">
-        <v>272</v>
-      </c>
+      <c r="D433" s="16"/>
       <c r="E433" s="15"/>
       <c r="F433" s="15"/>
       <c r="G433" s="15"/>
@@ -5475,7 +5995,9 @@
     <row r="434" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A434" s="14"/>
       <c r="B434" s="15"/>
-      <c r="C434" s="15"/>
+      <c r="C434" s="15" t="s">
+        <v>272</v>
+      </c>
       <c r="D434" s="16"/>
       <c r="E434" s="15"/>
       <c r="F434" s="15"/>
@@ -5503,10 +6025,10 @@
     <row r="436" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A436" s="14"/>
       <c r="B436" s="15"/>
-      <c r="C436" s="15" t="s">
+      <c r="C436" s="15"/>
+      <c r="D436" s="16" t="s">
         <v>274</v>
       </c>
-      <c r="D436" s="16"/>
       <c r="E436" s="15"/>
       <c r="F436" s="15"/>
       <c r="G436" s="15"/>
@@ -5519,9 +6041,7 @@
       <c r="A437" s="14"/>
       <c r="B437" s="15"/>
       <c r="C437" s="15"/>
-      <c r="D437" s="16" t="s">
-        <v>275</v>
-      </c>
+      <c r="D437" s="16"/>
       <c r="E437" s="15"/>
       <c r="F437" s="15"/>
       <c r="G437" s="15"/>
@@ -5533,7 +6053,9 @@
     <row r="438" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A438" s="14"/>
       <c r="B438" s="15"/>
-      <c r="C438" s="15"/>
+      <c r="C438" s="15" t="s">
+        <v>275</v>
+      </c>
       <c r="D438" s="16"/>
       <c r="E438" s="15"/>
       <c r="F438" s="15"/>
@@ -5544,41 +6066,39 @@
       <c r="K438" s="15"/>
     </row>
     <row r="439" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A439" s="17" t="s">
+      <c r="A439" s="14"/>
+      <c r="B439" s="15"/>
+      <c r="C439" s="15" t="s">
         <v>276</v>
       </c>
-      <c r="B439" s="18"/>
-      <c r="C439" s="18"/>
-      <c r="D439" s="18"/>
-      <c r="E439" s="18"/>
-      <c r="F439" s="18"/>
-      <c r="G439" s="18"/>
-      <c r="H439" s="18"/>
-      <c r="I439" s="18"/>
-      <c r="J439" s="18"/>
-      <c r="K439" s="19"/>
+      <c r="D439" s="16"/>
+      <c r="E439" s="15"/>
+      <c r="F439" s="15"/>
+      <c r="G439" s="15"/>
+      <c r="H439" s="15"/>
+      <c r="I439" s="15"/>
+      <c r="J439" s="15"/>
+      <c r="K439" s="15"/>
     </row>
     <row r="440" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A440" s="14"/>
-      <c r="B440" s="20" t="s">
+      <c r="B440" s="15"/>
+      <c r="C440" s="15"/>
+      <c r="D440" s="16" t="s">
         <v>277</v>
       </c>
-      <c r="C440" s="20"/>
-      <c r="D440" s="21"/>
-      <c r="E440" s="20"/>
-      <c r="F440" s="20"/>
-      <c r="G440" s="20"/>
-      <c r="H440" s="20"/>
-      <c r="I440" s="20"/>
-      <c r="J440" s="20"/>
-      <c r="K440" s="22"/>
+      <c r="E440" s="15"/>
+      <c r="F440" s="15"/>
+      <c r="G440" s="15"/>
+      <c r="H440" s="15"/>
+      <c r="I440" s="15"/>
+      <c r="J440" s="15"/>
+      <c r="K440" s="15"/>
     </row>
     <row r="441" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A441" s="14"/>
       <c r="B441" s="15"/>
-      <c r="C441" s="15" t="s">
-        <v>278</v>
-      </c>
+      <c r="C441" s="15"/>
       <c r="D441" s="16"/>
       <c r="E441" s="15"/>
       <c r="F441" s="15"/>
@@ -5589,47 +6109,49 @@
       <c r="K441" s="15"/>
     </row>
     <row r="442" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A442" s="14"/>
-      <c r="B442" s="15"/>
-      <c r="C442" s="15" t="s">
-        <v>279</v>
-      </c>
-      <c r="D442" s="16"/>
-      <c r="E442" s="15"/>
-      <c r="F442" s="15"/>
-      <c r="G442" s="15"/>
-      <c r="H442" s="15"/>
-      <c r="I442" s="15"/>
-      <c r="J442" s="15"/>
-      <c r="K442" s="15"/>
+      <c r="A442" s="17" t="s">
+        <v>278</v>
+      </c>
+      <c r="B442" s="18"/>
+      <c r="C442" s="18"/>
+      <c r="D442" s="18"/>
+      <c r="E442" s="18"/>
+      <c r="F442" s="18"/>
+      <c r="G442" s="18"/>
+      <c r="H442" s="18"/>
+      <c r="I442" s="18"/>
+      <c r="J442" s="18"/>
+      <c r="K442" s="19"/>
     </row>
     <row r="443" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A443" s="14"/>
-      <c r="B443" s="15"/>
-      <c r="C443" s="15"/>
-      <c r="D443" s="16"/>
-      <c r="E443" s="15"/>
-      <c r="F443" s="15"/>
-      <c r="G443" s="15"/>
-      <c r="H443" s="15"/>
-      <c r="I443" s="15"/>
-      <c r="J443" s="15"/>
-      <c r="K443" s="15"/>
+      <c r="B443" s="20" t="s">
+        <v>279</v>
+      </c>
+      <c r="C443" s="20"/>
+      <c r="D443" s="21"/>
+      <c r="E443" s="20"/>
+      <c r="F443" s="20"/>
+      <c r="G443" s="20"/>
+      <c r="H443" s="20"/>
+      <c r="I443" s="20"/>
+      <c r="J443" s="20"/>
+      <c r="K443" s="22"/>
     </row>
     <row r="444" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A444" s="14"/>
-      <c r="B444" s="20" t="s">
+      <c r="B444" s="15"/>
+      <c r="C444" s="15" t="s">
         <v>280</v>
       </c>
-      <c r="C444" s="20"/>
-      <c r="D444" s="21"/>
-      <c r="E444" s="20"/>
-      <c r="F444" s="20"/>
-      <c r="G444" s="20"/>
-      <c r="H444" s="20"/>
-      <c r="I444" s="20"/>
-      <c r="J444" s="20"/>
-      <c r="K444" s="22"/>
+      <c r="D444" s="16"/>
+      <c r="E444" s="15"/>
+      <c r="F444" s="15"/>
+      <c r="G444" s="15"/>
+      <c r="H444" s="15"/>
+      <c r="I444" s="15"/>
+      <c r="J444" s="15"/>
+      <c r="K444" s="15"/>
     </row>
     <row r="445" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A445" s="14"/>
@@ -5649,9 +6171,7 @@
     <row r="446" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A446" s="14"/>
       <c r="B446" s="15"/>
-      <c r="C446" s="15" t="s">
-        <v>282</v>
-      </c>
+      <c r="C446" s="15"/>
       <c r="D446" s="16"/>
       <c r="E446" s="15"/>
       <c r="F446" s="15"/>
@@ -5663,23 +6183,25 @@
     </row>
     <row r="447" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A447" s="14"/>
-      <c r="B447" s="15"/>
-      <c r="C447" s="15"/>
-      <c r="D447" s="16" t="s">
-        <v>280</v>
-      </c>
-      <c r="E447" s="15"/>
-      <c r="F447" s="15"/>
-      <c r="G447" s="15"/>
-      <c r="H447" s="15"/>
-      <c r="I447" s="15"/>
-      <c r="J447" s="15"/>
-      <c r="K447" s="15"/>
+      <c r="B447" s="20" t="s">
+        <v>282</v>
+      </c>
+      <c r="C447" s="20"/>
+      <c r="D447" s="21"/>
+      <c r="E447" s="20"/>
+      <c r="F447" s="20"/>
+      <c r="G447" s="20"/>
+      <c r="H447" s="20"/>
+      <c r="I447" s="20"/>
+      <c r="J447" s="20"/>
+      <c r="K447" s="22"/>
     </row>
     <row r="448" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A448" s="14"/>
       <c r="B448" s="15"/>
-      <c r="C448" s="15"/>
+      <c r="C448" s="15" t="s">
+        <v>283</v>
+      </c>
       <c r="D448" s="16"/>
       <c r="E448" s="15"/>
       <c r="F448" s="15"/>
@@ -5691,26 +6213,26 @@
     </row>
     <row r="449" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A449" s="14"/>
-      <c r="B449" s="20" t="s">
-        <v>283</v>
-      </c>
-      <c r="C449" s="20"/>
-      <c r="D449" s="21"/>
-      <c r="E449" s="20"/>
-      <c r="F449" s="20"/>
-      <c r="G449" s="20"/>
-      <c r="H449" s="20"/>
-      <c r="I449" s="20"/>
-      <c r="J449" s="20"/>
-      <c r="K449" s="22"/>
+      <c r="B449" s="15"/>
+      <c r="C449" s="15" t="s">
+        <v>284</v>
+      </c>
+      <c r="D449" s="16"/>
+      <c r="E449" s="15"/>
+      <c r="F449" s="15"/>
+      <c r="G449" s="15"/>
+      <c r="H449" s="15"/>
+      <c r="I449" s="15"/>
+      <c r="J449" s="15"/>
+      <c r="K449" s="15"/>
     </row>
     <row r="450" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A450" s="14"/>
       <c r="B450" s="15"/>
-      <c r="C450" s="15" t="s">
-        <v>284</v>
-      </c>
-      <c r="D450" s="16"/>
+      <c r="C450" s="15"/>
+      <c r="D450" s="16" t="s">
+        <v>282</v>
+      </c>
       <c r="E450" s="15"/>
       <c r="F450" s="15"/>
       <c r="G450" s="15"/>
@@ -5722,9 +6244,7 @@
     <row r="451" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A451" s="14"/>
       <c r="B451" s="15"/>
-      <c r="C451" s="15" t="s">
-        <v>285</v>
-      </c>
+      <c r="C451" s="15"/>
       <c r="D451" s="16"/>
       <c r="E451" s="15"/>
       <c r="F451" s="15"/>
@@ -5736,26 +6256,26 @@
     </row>
     <row r="452" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A452" s="14"/>
-      <c r="B452" s="15"/>
-      <c r="C452" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="D452" s="16"/>
-      <c r="E452" s="15"/>
-      <c r="F452" s="15"/>
-      <c r="G452" s="15"/>
-      <c r="H452" s="15"/>
-      <c r="I452" s="15"/>
-      <c r="J452" s="15"/>
-      <c r="K452" s="15"/>
+      <c r="B452" s="20" t="s">
+        <v>285</v>
+      </c>
+      <c r="C452" s="20"/>
+      <c r="D452" s="21"/>
+      <c r="E452" s="20"/>
+      <c r="F452" s="20"/>
+      <c r="G452" s="20"/>
+      <c r="H452" s="20"/>
+      <c r="I452" s="20"/>
+      <c r="J452" s="20"/>
+      <c r="K452" s="22"/>
     </row>
     <row r="453" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A453" s="14"/>
       <c r="B453" s="15"/>
-      <c r="C453" s="15"/>
-      <c r="D453" s="16" t="s">
-        <v>283</v>
-      </c>
+      <c r="C453" s="15" t="s">
+        <v>286</v>
+      </c>
+      <c r="D453" s="16"/>
       <c r="E453" s="15"/>
       <c r="F453" s="15"/>
       <c r="G453" s="15"/>
@@ -5767,7 +6287,9 @@
     <row r="454" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A454" s="14"/>
       <c r="B454" s="15"/>
-      <c r="C454" s="15"/>
+      <c r="C454" s="15" t="s">
+        <v>287</v>
+      </c>
       <c r="D454" s="16"/>
       <c r="E454" s="15"/>
       <c r="F454" s="15"/>
@@ -5779,26 +6301,26 @@
     </row>
     <row r="455" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A455" s="14"/>
-      <c r="B455" s="20" t="s">
-        <v>286</v>
-      </c>
-      <c r="C455" s="20"/>
-      <c r="D455" s="21"/>
-      <c r="E455" s="20"/>
-      <c r="F455" s="20"/>
-      <c r="G455" s="20"/>
-      <c r="H455" s="20"/>
-      <c r="I455" s="20"/>
-      <c r="J455" s="20"/>
-      <c r="K455" s="22"/>
+      <c r="B455" s="15"/>
+      <c r="C455" s="15" t="s">
+        <v>268</v>
+      </c>
+      <c r="D455" s="16"/>
+      <c r="E455" s="15"/>
+      <c r="F455" s="15"/>
+      <c r="G455" s="15"/>
+      <c r="H455" s="15"/>
+      <c r="I455" s="15"/>
+      <c r="J455" s="15"/>
+      <c r="K455" s="15"/>
     </row>
     <row r="456" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A456" s="14"/>
       <c r="B456" s="15"/>
-      <c r="C456" s="15" t="s">
-        <v>287</v>
-      </c>
-      <c r="D456" s="16"/>
+      <c r="C456" s="15"/>
+      <c r="D456" s="16" t="s">
+        <v>285</v>
+      </c>
       <c r="E456" s="15"/>
       <c r="F456" s="15"/>
       <c r="G456" s="15"/>
@@ -5810,9 +6332,7 @@
     <row r="457" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A457" s="14"/>
       <c r="B457" s="15"/>
-      <c r="C457" s="15" t="s">
-        <v>288</v>
-      </c>
+      <c r="C457" s="15"/>
       <c r="D457" s="16"/>
       <c r="E457" s="15"/>
       <c r="F457" s="15"/>
@@ -5824,23 +6344,25 @@
     </row>
     <row r="458" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A458" s="14"/>
-      <c r="B458" s="15"/>
-      <c r="C458" s="15"/>
-      <c r="D458" s="16" t="s">
-        <v>289</v>
-      </c>
-      <c r="E458" s="15"/>
-      <c r="F458" s="15"/>
-      <c r="G458" s="15"/>
-      <c r="H458" s="15"/>
-      <c r="I458" s="15"/>
-      <c r="J458" s="15"/>
-      <c r="K458" s="15"/>
+      <c r="B458" s="20" t="s">
+        <v>288</v>
+      </c>
+      <c r="C458" s="20"/>
+      <c r="D458" s="21"/>
+      <c r="E458" s="20"/>
+      <c r="F458" s="20"/>
+      <c r="G458" s="20"/>
+      <c r="H458" s="20"/>
+      <c r="I458" s="20"/>
+      <c r="J458" s="20"/>
+      <c r="K458" s="22"/>
     </row>
     <row r="459" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A459" s="14"/>
       <c r="B459" s="15"/>
-      <c r="C459" s="15"/>
+      <c r="C459" s="15" t="s">
+        <v>289</v>
+      </c>
       <c r="D459" s="16"/>
       <c r="E459" s="15"/>
       <c r="F459" s="15"/>
@@ -5868,10 +6390,10 @@
     <row r="461" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A461" s="14"/>
       <c r="B461" s="15"/>
-      <c r="C461" s="15" t="s">
+      <c r="C461" s="15"/>
+      <c r="D461" s="16" t="s">
         <v>291</v>
       </c>
-      <c r="D461" s="16"/>
       <c r="E461" s="15"/>
       <c r="F461" s="15"/>
       <c r="G461" s="15"/>
@@ -5884,9 +6406,7 @@
       <c r="A462" s="14"/>
       <c r="B462" s="15"/>
       <c r="C462" s="15"/>
-      <c r="D462" s="16" t="s">
-        <v>292</v>
-      </c>
+      <c r="D462" s="16"/>
       <c r="E462" s="15"/>
       <c r="F462" s="15"/>
       <c r="G462" s="15"/>
@@ -5898,7 +6418,9 @@
     <row r="463" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A463" s="14"/>
       <c r="B463" s="15"/>
-      <c r="C463" s="15"/>
+      <c r="C463" s="15" t="s">
+        <v>292</v>
+      </c>
       <c r="D463" s="16"/>
       <c r="E463" s="15"/>
       <c r="F463" s="15"/>
@@ -5909,27 +6431,27 @@
       <c r="K463" s="15"/>
     </row>
     <row r="464" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A464" s="17" t="s">
+      <c r="A464" s="14"/>
+      <c r="B464" s="15"/>
+      <c r="C464" s="15" t="s">
         <v>293</v>
       </c>
-      <c r="B464" s="18"/>
-      <c r="C464" s="18"/>
-      <c r="D464" s="18"/>
-      <c r="E464" s="18"/>
-      <c r="F464" s="18"/>
-      <c r="G464" s="18"/>
-      <c r="H464" s="18"/>
-      <c r="I464" s="18"/>
-      <c r="J464" s="18"/>
-      <c r="K464" s="19"/>
+      <c r="D464" s="16"/>
+      <c r="E464" s="15"/>
+      <c r="F464" s="15"/>
+      <c r="G464" s="15"/>
+      <c r="H464" s="15"/>
+      <c r="I464" s="15"/>
+      <c r="J464" s="15"/>
+      <c r="K464" s="15"/>
     </row>
     <row r="465" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A465" s="14"/>
-      <c r="B465" s="15" t="s">
+      <c r="B465" s="15"/>
+      <c r="C465" s="15"/>
+      <c r="D465" s="16" t="s">
         <v>294</v>
       </c>
-      <c r="C465" s="15"/>
-      <c r="D465" s="16"/>
       <c r="E465" s="15"/>
       <c r="F465" s="15"/>
       <c r="G465" s="15"/>
@@ -5940,9 +6462,7 @@
     </row>
     <row r="466" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A466" s="14"/>
-      <c r="B466" s="15" t="s">
-        <v>295</v>
-      </c>
+      <c r="B466" s="15"/>
       <c r="C466" s="15"/>
       <c r="D466" s="16"/>
       <c r="E466" s="15"/>
@@ -5954,23 +6474,25 @@
       <c r="K466" s="15"/>
     </row>
     <row r="467" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A467" s="14"/>
-      <c r="B467" s="15" t="s">
-        <v>296</v>
-      </c>
-      <c r="C467" s="15"/>
-      <c r="D467" s="16"/>
-      <c r="E467" s="15"/>
-      <c r="F467" s="15"/>
-      <c r="G467" s="15"/>
-      <c r="H467" s="15"/>
-      <c r="I467" s="15"/>
-      <c r="J467" s="15"/>
-      <c r="K467" s="15"/>
+      <c r="A467" s="17" t="s">
+        <v>295</v>
+      </c>
+      <c r="B467" s="18"/>
+      <c r="C467" s="18"/>
+      <c r="D467" s="18"/>
+      <c r="E467" s="18"/>
+      <c r="F467" s="18"/>
+      <c r="G467" s="18"/>
+      <c r="H467" s="18"/>
+      <c r="I467" s="18"/>
+      <c r="J467" s="18"/>
+      <c r="K467" s="19"/>
     </row>
     <row r="468" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A468" s="14"/>
-      <c r="B468" s="15"/>
+      <c r="B468" s="15" t="s">
+        <v>296</v>
+      </c>
       <c r="C468" s="15"/>
       <c r="D468" s="16"/>
       <c r="E468" s="15"/>
@@ -5983,10 +6505,10 @@
     </row>
     <row r="469" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A469" s="14"/>
-      <c r="B469" s="23" t="s">
+      <c r="B469" s="15" t="s">
         <v>297</v>
       </c>
-      <c r="C469" s="24"/>
+      <c r="C469" s="15"/>
       <c r="D469" s="16"/>
       <c r="E469" s="15"/>
       <c r="F469" s="15"/>
@@ -5998,10 +6520,10 @@
     </row>
     <row r="470" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A470" s="14"/>
-      <c r="B470" s="24"/>
-      <c r="C470" s="25" t="s">
+      <c r="B470" s="15" t="s">
         <v>298</v>
       </c>
+      <c r="C470" s="15"/>
       <c r="D470" s="16"/>
       <c r="E470" s="15"/>
       <c r="F470" s="15"/>
@@ -6013,10 +6535,8 @@
     </row>
     <row r="471" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A471" s="14"/>
-      <c r="B471" s="24"/>
-      <c r="C471" s="25" t="s">
-        <v>299</v>
-      </c>
+      <c r="B471" s="15"/>
+      <c r="C471" s="15"/>
       <c r="D471" s="16"/>
       <c r="E471" s="15"/>
       <c r="F471" s="15"/>
@@ -6028,8 +6548,10 @@
     </row>
     <row r="472" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A472" s="14"/>
-      <c r="B472" s="15"/>
-      <c r="C472" s="15"/>
+      <c r="B472" s="23" t="s">
+        <v>299</v>
+      </c>
+      <c r="C472" s="24"/>
       <c r="D472" s="16"/>
       <c r="E472" s="15"/>
       <c r="F472" s="15"/>
@@ -6041,56 +6563,54 @@
     </row>
     <row r="473" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A473" s="14"/>
-      <c r="B473" s="23" t="s">
+      <c r="B473" s="24"/>
+      <c r="C473" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="C473" s="26"/>
-      <c r="D473" s="26"/>
-      <c r="E473" s="26"/>
-      <c r="F473" s="26"/>
-      <c r="G473" s="26"/>
-      <c r="H473" s="24"/>
-      <c r="I473" s="24"/>
+      <c r="D473" s="16"/>
+      <c r="E473" s="15"/>
+      <c r="F473" s="15"/>
+      <c r="G473" s="15"/>
+      <c r="H473" s="15"/>
+      <c r="I473" s="15"/>
       <c r="J473" s="15"/>
       <c r="K473" s="15"/>
     </row>
     <row r="474" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A474" s="14"/>
-      <c r="B474" s="26"/>
-      <c r="C474" s="26" t="s">
+      <c r="B474" s="24"/>
+      <c r="C474" s="25" t="s">
         <v>301</v>
       </c>
-      <c r="D474" s="26"/>
-      <c r="E474" s="26"/>
-      <c r="F474" s="26"/>
-      <c r="G474" s="26"/>
-      <c r="H474" s="24"/>
-      <c r="I474" s="24"/>
+      <c r="D474" s="16"/>
+      <c r="E474" s="15"/>
+      <c r="F474" s="15"/>
+      <c r="G474" s="15"/>
+      <c r="H474" s="15"/>
+      <c r="I474" s="15"/>
       <c r="J474" s="15"/>
       <c r="K474" s="15"/>
     </row>
     <row r="475" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A475" s="14"/>
-      <c r="B475" s="26"/>
-      <c r="C475" s="26" t="s">
-        <v>302</v>
-      </c>
-      <c r="D475" s="26"/>
-      <c r="E475" s="26"/>
-      <c r="F475" s="26"/>
-      <c r="G475" s="26"/>
-      <c r="H475" s="24"/>
-      <c r="I475" s="24"/>
+      <c r="B475" s="15"/>
+      <c r="C475" s="15"/>
+      <c r="D475" s="16"/>
+      <c r="E475" s="15"/>
+      <c r="F475" s="15"/>
+      <c r="G475" s="15"/>
+      <c r="H475" s="15"/>
+      <c r="I475" s="15"/>
       <c r="J475" s="15"/>
       <c r="K475" s="15"/>
     </row>
     <row r="476" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A476" s="14"/>
-      <c r="B476" s="26"/>
+      <c r="B476" s="23" t="s">
+        <v>302</v>
+      </c>
       <c r="C476" s="26"/>
-      <c r="D476" s="27" t="s">
-        <v>303</v>
-      </c>
+      <c r="D476" s="26"/>
       <c r="E476" s="26"/>
       <c r="F476" s="26"/>
       <c r="G476" s="26"/>
@@ -6103,7 +6623,7 @@
       <c r="A477" s="14"/>
       <c r="B477" s="26"/>
       <c r="C477" s="26" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D477" s="26"/>
       <c r="E477" s="26"/>
@@ -6118,7 +6638,7 @@
       <c r="A478" s="14"/>
       <c r="B478" s="26"/>
       <c r="C478" s="26" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D478" s="26"/>
       <c r="E478" s="26"/>
@@ -6134,7 +6654,7 @@
       <c r="B479" s="26"/>
       <c r="C479" s="26"/>
       <c r="D479" s="27" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E479" s="26"/>
       <c r="F479" s="26"/>
@@ -6148,7 +6668,7 @@
       <c r="A480" s="14"/>
       <c r="B480" s="26"/>
       <c r="C480" s="26" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D480" s="26"/>
       <c r="E480" s="26"/>
@@ -6162,10 +6682,10 @@
     <row r="481" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A481" s="14"/>
       <c r="B481" s="26"/>
-      <c r="C481" s="26"/>
-      <c r="D481" s="27" t="s">
-        <v>308</v>
-      </c>
+      <c r="C481" s="26" t="s">
+        <v>307</v>
+      </c>
+      <c r="D481" s="26"/>
       <c r="E481" s="26"/>
       <c r="F481" s="26"/>
       <c r="G481" s="26"/>
@@ -6178,7 +6698,9 @@
       <c r="A482" s="14"/>
       <c r="B482" s="26"/>
       <c r="C482" s="26"/>
-      <c r="D482" s="26"/>
+      <c r="D482" s="27" t="s">
+        <v>308</v>
+      </c>
       <c r="E482" s="26"/>
       <c r="F482" s="26"/>
       <c r="G482" s="26"/>
@@ -6189,10 +6711,10 @@
     </row>
     <row r="483" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A483" s="14"/>
-      <c r="B483" s="23" t="s">
+      <c r="B483" s="26"/>
+      <c r="C483" s="26" t="s">
         <v>309</v>
       </c>
-      <c r="C483" s="26"/>
       <c r="D483" s="26"/>
       <c r="E483" s="26"/>
       <c r="F483" s="26"/>
@@ -6204,11 +6726,11 @@
     </row>
     <row r="484" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A484" s="14"/>
-      <c r="B484" s="23" t="s">
+      <c r="B484" s="26"/>
+      <c r="C484" s="26"/>
+      <c r="D484" s="27" t="s">
         <v>310</v>
       </c>
-      <c r="C484" s="26"/>
-      <c r="D484" s="26"/>
       <c r="E484" s="26"/>
       <c r="F484" s="26"/>
       <c r="G484" s="26"/>
@@ -6219,9 +6741,7 @@
     </row>
     <row r="485" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A485" s="14"/>
-      <c r="B485" s="23" t="s">
-        <v>311</v>
-      </c>
+      <c r="B485" s="26"/>
       <c r="C485" s="26"/>
       <c r="D485" s="26"/>
       <c r="E485" s="26"/>
@@ -6234,10 +6754,10 @@
     </row>
     <row r="486" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A486" s="14"/>
-      <c r="B486" s="26"/>
-      <c r="C486" s="26" t="s">
-        <v>312</v>
-      </c>
+      <c r="B486" s="23" t="s">
+        <v>311</v>
+      </c>
+      <c r="C486" s="26"/>
       <c r="D486" s="26"/>
       <c r="E486" s="26"/>
       <c r="F486" s="26"/>
@@ -6249,11 +6769,11 @@
     </row>
     <row r="487" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A487" s="14"/>
-      <c r="B487" s="26"/>
+      <c r="B487" s="23" t="s">
+        <v>312</v>
+      </c>
       <c r="C487" s="26"/>
-      <c r="D487" s="27" t="s">
-        <v>313</v>
-      </c>
+      <c r="D487" s="26"/>
       <c r="E487" s="26"/>
       <c r="F487" s="26"/>
       <c r="G487" s="26"/>
@@ -6264,7 +6784,9 @@
     </row>
     <row r="488" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A488" s="14"/>
-      <c r="B488" s="26"/>
+      <c r="B488" s="23" t="s">
+        <v>313</v>
+      </c>
       <c r="C488" s="26"/>
       <c r="D488" s="26"/>
       <c r="E488" s="26"/>
@@ -6293,10 +6815,10 @@
     <row r="490" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A490" s="14"/>
       <c r="B490" s="26"/>
-      <c r="C490" s="26" t="s">
+      <c r="C490" s="26"/>
+      <c r="D490" s="27" t="s">
         <v>315</v>
       </c>
-      <c r="D490" s="26"/>
       <c r="E490" s="26"/>
       <c r="F490" s="26"/>
       <c r="G490" s="26"/>
@@ -6309,9 +6831,7 @@
       <c r="A491" s="14"/>
       <c r="B491" s="26"/>
       <c r="C491" s="26"/>
-      <c r="D491" s="27" t="s">
-        <v>306</v>
-      </c>
+      <c r="D491" s="26"/>
       <c r="E491" s="26"/>
       <c r="F491" s="26"/>
       <c r="G491" s="26"/>
@@ -6323,7 +6843,9 @@
     <row r="492" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A492" s="14"/>
       <c r="B492" s="26"/>
-      <c r="C492" s="26"/>
+      <c r="C492" s="26" t="s">
+        <v>316</v>
+      </c>
       <c r="D492" s="26"/>
       <c r="E492" s="26"/>
       <c r="F492" s="26"/>
@@ -6337,7 +6859,7 @@
       <c r="A493" s="14"/>
       <c r="B493" s="26"/>
       <c r="C493" s="26" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D493" s="26"/>
       <c r="E493" s="26"/>
@@ -6353,7 +6875,7 @@
       <c r="B494" s="26"/>
       <c r="C494" s="26"/>
       <c r="D494" s="27" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="E494" s="26"/>
       <c r="F494" s="26"/>
@@ -6378,10 +6900,10 @@
     </row>
     <row r="496" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A496" s="14"/>
-      <c r="B496" s="23" t="s">
+      <c r="B496" s="26"/>
+      <c r="C496" s="26" t="s">
         <v>318</v>
       </c>
-      <c r="C496" s="26"/>
       <c r="D496" s="26"/>
       <c r="E496" s="26"/>
       <c r="F496" s="26"/>
@@ -6394,13 +6916,11 @@
     <row r="497" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A497" s="14"/>
       <c r="B497" s="26"/>
-      <c r="C497" s="23" t="s">
+      <c r="C497" s="26"/>
+      <c r="D497" s="27" t="s">
         <v>319</v>
       </c>
-      <c r="D497" s="28"/>
-      <c r="E497" s="26" t="s">
-        <v>320</v>
-      </c>
+      <c r="E497" s="26"/>
       <c r="F497" s="26"/>
       <c r="G497" s="26"/>
       <c r="H497" s="24"/>
@@ -6411,13 +6931,9 @@
     <row r="498" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A498" s="14"/>
       <c r="B498" s="26"/>
-      <c r="C498" s="23" t="s">
-        <v>321</v>
-      </c>
-      <c r="D498" s="28"/>
-      <c r="E498" s="26" t="s">
-        <v>322</v>
-      </c>
+      <c r="C498" s="26"/>
+      <c r="D498" s="26"/>
+      <c r="E498" s="26"/>
       <c r="F498" s="26"/>
       <c r="G498" s="26"/>
       <c r="H498" s="24"/>
@@ -6427,12 +6943,12 @@
     </row>
     <row r="499" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A499" s="14"/>
-      <c r="B499" s="26"/>
-      <c r="C499" s="23"/>
-      <c r="D499" s="28"/>
-      <c r="E499" s="26" t="s">
-        <v>323</v>
-      </c>
+      <c r="B499" s="23" t="s">
+        <v>320</v>
+      </c>
+      <c r="C499" s="26"/>
+      <c r="D499" s="26"/>
+      <c r="E499" s="26"/>
       <c r="F499" s="26"/>
       <c r="G499" s="26"/>
       <c r="H499" s="24"/>
@@ -6443,12 +6959,14 @@
     <row r="500" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A500" s="14"/>
       <c r="B500" s="26"/>
-      <c r="C500" s="26"/>
+      <c r="C500" s="23" t="s">
+        <v>321</v>
+      </c>
       <c r="D500" s="28"/>
-      <c r="E500" s="26"/>
-      <c r="F500" s="25" t="s">
-        <v>324</v>
-      </c>
+      <c r="E500" s="26" t="s">
+        <v>322</v>
+      </c>
+      <c r="F500" s="26"/>
       <c r="G500" s="26"/>
       <c r="H500" s="24"/>
       <c r="I500" s="24"/>
@@ -6459,11 +6977,11 @@
       <c r="A501" s="14"/>
       <c r="B501" s="26"/>
       <c r="C501" s="23" t="s">
-        <v>325</v>
-      </c>
-      <c r="D501" s="26"/>
+        <v>323</v>
+      </c>
+      <c r="D501" s="28"/>
       <c r="E501" s="26" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="F501" s="26"/>
       <c r="G501" s="26"/>
@@ -6475,12 +6993,10 @@
     <row r="502" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A502" s="14"/>
       <c r="B502" s="26"/>
-      <c r="C502" s="23" t="s">
-        <v>327</v>
-      </c>
-      <c r="D502" s="26"/>
+      <c r="C502" s="23"/>
+      <c r="D502" s="28"/>
       <c r="E502" s="26" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="F502" s="26"/>
       <c r="G502" s="26"/>
@@ -6493,10 +7009,10 @@
       <c r="A503" s="14"/>
       <c r="B503" s="26"/>
       <c r="C503" s="26"/>
-      <c r="D503" s="26"/>
+      <c r="D503" s="28"/>
       <c r="E503" s="26"/>
       <c r="F503" s="25" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="G503" s="26"/>
       <c r="H503" s="24"/>
@@ -6508,11 +7024,11 @@
       <c r="A504" s="14"/>
       <c r="B504" s="26"/>
       <c r="C504" s="23" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="D504" s="26"/>
       <c r="E504" s="26" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="F504" s="26"/>
       <c r="G504" s="26"/>
@@ -6524,12 +7040,14 @@
     <row r="505" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A505" s="14"/>
       <c r="B505" s="26"/>
-      <c r="C505" s="26"/>
+      <c r="C505" s="23" t="s">
+        <v>329</v>
+      </c>
       <c r="D505" s="26"/>
-      <c r="E505" s="26"/>
-      <c r="F505" s="25" t="s">
-        <v>332</v>
-      </c>
+      <c r="E505" s="26" t="s">
+        <v>330</v>
+      </c>
+      <c r="F505" s="26"/>
       <c r="G505" s="26"/>
       <c r="H505" s="24"/>
       <c r="I505" s="24"/>
@@ -6543,7 +7061,7 @@
       <c r="D506" s="26"/>
       <c r="E506" s="26"/>
       <c r="F506" s="25" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="G506" s="26"/>
       <c r="H506" s="24"/>
@@ -6555,14 +7073,14 @@
       <c r="A507" s="14"/>
       <c r="B507" s="26"/>
       <c r="C507" s="23" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D507" s="26"/>
-      <c r="E507" s="26"/>
-      <c r="F507" s="26" t="s">
-        <v>335</v>
-      </c>
-      <c r="G507" s="0"/>
+      <c r="E507" s="26" t="s">
+        <v>333</v>
+      </c>
+      <c r="F507" s="26"/>
+      <c r="G507" s="26"/>
       <c r="H507" s="24"/>
       <c r="I507" s="24"/>
       <c r="J507" s="15"/>
@@ -6574,8 +7092,8 @@
       <c r="C508" s="26"/>
       <c r="D508" s="26"/>
       <c r="E508" s="26"/>
-      <c r="F508" s="26" t="s">
-        <v>336</v>
+      <c r="F508" s="25" t="s">
+        <v>334</v>
       </c>
       <c r="G508" s="26"/>
       <c r="H508" s="24"/>
@@ -6585,52 +7103,54 @@
     </row>
     <row r="509" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A509" s="14"/>
-      <c r="B509" s="15"/>
-      <c r="C509" s="15"/>
-      <c r="D509" s="16"/>
-      <c r="E509" s="15"/>
-      <c r="F509" s="15"/>
-      <c r="G509" s="15"/>
-      <c r="H509" s="15"/>
-      <c r="I509" s="15"/>
+      <c r="B509" s="26"/>
+      <c r="C509" s="26"/>
+      <c r="D509" s="26"/>
+      <c r="E509" s="26"/>
+      <c r="F509" s="25" t="s">
+        <v>335</v>
+      </c>
+      <c r="G509" s="26"/>
+      <c r="H509" s="24"/>
+      <c r="I509" s="24"/>
       <c r="J509" s="15"/>
       <c r="K509" s="15"/>
     </row>
     <row r="510" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A510" s="17" t="s">
+      <c r="A510" s="14"/>
+      <c r="B510" s="26"/>
+      <c r="C510" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="D510" s="26"/>
+      <c r="E510" s="26"/>
+      <c r="F510" s="26" t="s">
         <v>337</v>
       </c>
-      <c r="B510" s="18"/>
-      <c r="C510" s="18"/>
-      <c r="D510" s="18"/>
-      <c r="E510" s="18"/>
-      <c r="F510" s="18"/>
-      <c r="G510" s="18"/>
-      <c r="H510" s="18"/>
-      <c r="I510" s="18"/>
-      <c r="J510" s="18"/>
-      <c r="K510" s="19"/>
+      <c r="G510" s="0"/>
+      <c r="H510" s="24"/>
+      <c r="I510" s="24"/>
+      <c r="J510" s="15"/>
+      <c r="K510" s="15"/>
     </row>
     <row r="511" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A511" s="14"/>
-      <c r="B511" s="15" t="s">
+      <c r="B511" s="26"/>
+      <c r="C511" s="26"/>
+      <c r="D511" s="26"/>
+      <c r="E511" s="26"/>
+      <c r="F511" s="26" t="s">
         <v>338</v>
       </c>
-      <c r="C511" s="15"/>
-      <c r="D511" s="16"/>
-      <c r="E511" s="15"/>
-      <c r="F511" s="15"/>
-      <c r="G511" s="15"/>
-      <c r="H511" s="15"/>
-      <c r="I511" s="15"/>
+      <c r="G511" s="26"/>
+      <c r="H511" s="24"/>
+      <c r="I511" s="24"/>
       <c r="J511" s="15"/>
       <c r="K511" s="15"/>
     </row>
     <row r="512" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A512" s="14"/>
-      <c r="B512" s="15" t="s">
-        <v>339</v>
-      </c>
+      <c r="B512" s="15"/>
       <c r="C512" s="15"/>
       <c r="D512" s="16"/>
       <c r="E512" s="15"/>
@@ -6642,39 +7162,41 @@
       <c r="K512" s="15"/>
     </row>
     <row r="513" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A513" s="14"/>
-      <c r="B513" s="15"/>
-      <c r="C513" s="15"/>
-      <c r="D513" s="16"/>
-      <c r="E513" s="15"/>
-      <c r="F513" s="15"/>
-      <c r="G513" s="15"/>
-      <c r="H513" s="15"/>
-      <c r="I513" s="15"/>
-      <c r="J513" s="15"/>
-      <c r="K513" s="15"/>
+      <c r="A513" s="17" t="s">
+        <v>339</v>
+      </c>
+      <c r="B513" s="18"/>
+      <c r="C513" s="18"/>
+      <c r="D513" s="18"/>
+      <c r="E513" s="18"/>
+      <c r="F513" s="18"/>
+      <c r="G513" s="18"/>
+      <c r="H513" s="18"/>
+      <c r="I513" s="18"/>
+      <c r="J513" s="18"/>
+      <c r="K513" s="19"/>
     </row>
     <row r="514" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A514" s="14"/>
-      <c r="B514" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="C514" s="20"/>
-      <c r="D514" s="21"/>
-      <c r="E514" s="20"/>
-      <c r="F514" s="20"/>
-      <c r="G514" s="20"/>
-      <c r="H514" s="20"/>
-      <c r="I514" s="20"/>
-      <c r="J514" s="20"/>
-      <c r="K514" s="22"/>
+      <c r="B514" s="15" t="s">
+        <v>340</v>
+      </c>
+      <c r="C514" s="15"/>
+      <c r="D514" s="16"/>
+      <c r="E514" s="15"/>
+      <c r="F514" s="15"/>
+      <c r="G514" s="15"/>
+      <c r="H514" s="15"/>
+      <c r="I514" s="15"/>
+      <c r="J514" s="15"/>
+      <c r="K514" s="15"/>
     </row>
     <row r="515" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A515" s="14"/>
-      <c r="B515" s="15"/>
-      <c r="C515" s="15" t="s">
-        <v>340</v>
-      </c>
+      <c r="B515" s="15" t="s">
+        <v>341</v>
+      </c>
+      <c r="C515" s="15"/>
       <c r="D515" s="16"/>
       <c r="E515" s="15"/>
       <c r="F515" s="15"/>
@@ -6687,9 +7209,7 @@
     <row r="516" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A516" s="14"/>
       <c r="B516" s="15"/>
-      <c r="C516" s="15" t="s">
-        <v>341</v>
-      </c>
+      <c r="C516" s="15"/>
       <c r="D516" s="16"/>
       <c r="E516" s="15"/>
       <c r="F516" s="15"/>
@@ -6701,23 +7221,25 @@
     </row>
     <row r="517" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A517" s="14"/>
-      <c r="B517" s="15"/>
-      <c r="C517" s="15"/>
-      <c r="D517" s="16" t="s">
+      <c r="B517" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="E517" s="15"/>
-      <c r="F517" s="15"/>
-      <c r="G517" s="15"/>
-      <c r="H517" s="15"/>
-      <c r="I517" s="15"/>
-      <c r="J517" s="15"/>
-      <c r="K517" s="15"/>
+      <c r="C517" s="20"/>
+      <c r="D517" s="21"/>
+      <c r="E517" s="20"/>
+      <c r="F517" s="20"/>
+      <c r="G517" s="20"/>
+      <c r="H517" s="20"/>
+      <c r="I517" s="20"/>
+      <c r="J517" s="20"/>
+      <c r="K517" s="22"/>
     </row>
     <row r="518" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A518" s="14"/>
       <c r="B518" s="15"/>
-      <c r="C518" s="15"/>
+      <c r="C518" s="15" t="s">
+        <v>342</v>
+      </c>
       <c r="D518" s="16"/>
       <c r="E518" s="15"/>
       <c r="F518" s="15"/>
@@ -6731,7 +7253,7 @@
       <c r="A519" s="14"/>
       <c r="B519" s="15"/>
       <c r="C519" s="15" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D519" s="16"/>
       <c r="E519" s="15"/>
@@ -6745,10 +7267,10 @@
     <row r="520" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A520" s="14"/>
       <c r="B520" s="15"/>
-      <c r="C520" s="15" t="s">
-        <v>343</v>
-      </c>
-      <c r="D520" s="16"/>
+      <c r="C520" s="15"/>
+      <c r="D520" s="16" t="s">
+        <v>35</v>
+      </c>
       <c r="E520" s="15"/>
       <c r="F520" s="15"/>
       <c r="G520" s="15"/>
@@ -6760,9 +7282,7 @@
     <row r="521" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A521" s="14"/>
       <c r="B521" s="15"/>
-      <c r="C521" s="15" t="s">
-        <v>344</v>
-      </c>
+      <c r="C521" s="15"/>
       <c r="D521" s="16"/>
       <c r="E521" s="15"/>
       <c r="F521" s="15"/>
@@ -6775,13 +7295,11 @@
     <row r="522" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A522" s="14"/>
       <c r="B522" s="15"/>
-      <c r="C522" s="15"/>
-      <c r="D522" s="29" t="s">
-        <v>345</v>
-      </c>
-      <c r="E522" s="30" t="s">
-        <v>346</v>
-      </c>
+      <c r="C522" s="15" t="s">
+        <v>344</v>
+      </c>
+      <c r="D522" s="16"/>
+      <c r="E522" s="15"/>
       <c r="F522" s="15"/>
       <c r="G522" s="15"/>
       <c r="H522" s="15"/>
@@ -6792,13 +7310,11 @@
     <row r="523" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A523" s="14"/>
       <c r="B523" s="15"/>
-      <c r="C523" s="15"/>
-      <c r="D523" s="29" t="s">
-        <v>347</v>
-      </c>
-      <c r="E523" s="30" t="s">
-        <v>348</v>
-      </c>
+      <c r="C523" s="15" t="s">
+        <v>345</v>
+      </c>
+      <c r="D523" s="16"/>
+      <c r="E523" s="15"/>
       <c r="F523" s="15"/>
       <c r="G523" s="15"/>
       <c r="H523" s="15"/>
@@ -6809,13 +7325,11 @@
     <row r="524" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A524" s="14"/>
       <c r="B524" s="15"/>
-      <c r="C524" s="15"/>
-      <c r="D524" s="29" t="s">
-        <v>349</v>
-      </c>
-      <c r="E524" s="30" t="s">
-        <v>350</v>
-      </c>
+      <c r="C524" s="15" t="s">
+        <v>346</v>
+      </c>
+      <c r="D524" s="16"/>
+      <c r="E524" s="15"/>
       <c r="F524" s="15"/>
       <c r="G524" s="15"/>
       <c r="H524" s="15"/>
@@ -6828,10 +7342,10 @@
       <c r="B525" s="15"/>
       <c r="C525" s="15"/>
       <c r="D525" s="29" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="E525" s="30" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="F525" s="15"/>
       <c r="G525" s="15"/>
@@ -6845,10 +7359,10 @@
       <c r="B526" s="15"/>
       <c r="C526" s="15"/>
       <c r="D526" s="29" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="E526" s="30" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="F526" s="15"/>
       <c r="G526" s="15"/>
@@ -6862,10 +7376,10 @@
       <c r="B527" s="15"/>
       <c r="C527" s="15"/>
       <c r="D527" s="29" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="E527" s="30" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="F527" s="15"/>
       <c r="G527" s="15"/>
@@ -6879,10 +7393,10 @@
       <c r="B528" s="15"/>
       <c r="C528" s="15"/>
       <c r="D528" s="29" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="E528" s="30" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="F528" s="15"/>
       <c r="G528" s="15"/>
@@ -6896,10 +7410,10 @@
       <c r="B529" s="15"/>
       <c r="C529" s="15"/>
       <c r="D529" s="29" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="E529" s="30" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="F529" s="15"/>
       <c r="G529" s="15"/>
@@ -6913,10 +7427,10 @@
       <c r="B530" s="15"/>
       <c r="C530" s="15"/>
       <c r="D530" s="29" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="E530" s="30" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="F530" s="15"/>
       <c r="G530" s="15"/>
@@ -6929,8 +7443,12 @@
       <c r="A531" s="14"/>
       <c r="B531" s="15"/>
       <c r="C531" s="15"/>
-      <c r="D531" s="16"/>
-      <c r="E531" s="15"/>
+      <c r="D531" s="29" t="s">
+        <v>359</v>
+      </c>
+      <c r="E531" s="30" t="s">
+        <v>360</v>
+      </c>
       <c r="F531" s="15"/>
       <c r="G531" s="15"/>
       <c r="H531" s="15"/>
@@ -6940,27 +7458,31 @@
     </row>
     <row r="532" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A532" s="14"/>
-      <c r="B532" s="20" t="s">
-        <v>363</v>
-      </c>
-      <c r="C532" s="20"/>
-      <c r="D532" s="21"/>
-      <c r="E532" s="20"/>
-      <c r="F532" s="20"/>
-      <c r="G532" s="20"/>
-      <c r="H532" s="20"/>
-      <c r="I532" s="20"/>
-      <c r="J532" s="20"/>
-      <c r="K532" s="22"/>
+      <c r="B532" s="15"/>
+      <c r="C532" s="15"/>
+      <c r="D532" s="29" t="s">
+        <v>361</v>
+      </c>
+      <c r="E532" s="30" t="s">
+        <v>362</v>
+      </c>
+      <c r="F532" s="15"/>
+      <c r="G532" s="15"/>
+      <c r="H532" s="15"/>
+      <c r="I532" s="15"/>
+      <c r="J532" s="15"/>
+      <c r="K532" s="15"/>
     </row>
     <row r="533" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A533" s="14"/>
       <c r="B533" s="15"/>
-      <c r="C533" s="15" t="s">
+      <c r="C533" s="15"/>
+      <c r="D533" s="29" t="s">
+        <v>363</v>
+      </c>
+      <c r="E533" s="30" t="s">
         <v>364</v>
       </c>
-      <c r="D533" s="16"/>
-      <c r="E533" s="15"/>
       <c r="F533" s="15"/>
       <c r="G533" s="15"/>
       <c r="H533" s="15"/>
@@ -6972,9 +7494,7 @@
       <c r="A534" s="14"/>
       <c r="B534" s="15"/>
       <c r="C534" s="15"/>
-      <c r="D534" s="16" t="s">
-        <v>365</v>
-      </c>
+      <c r="D534" s="16"/>
       <c r="E534" s="15"/>
       <c r="F534" s="15"/>
       <c r="G534" s="15"/>
@@ -6985,16 +7505,18 @@
     </row>
     <row r="535" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A535" s="14"/>
-      <c r="B535" s="15"/>
-      <c r="C535" s="15"/>
-      <c r="D535" s="16"/>
-      <c r="E535" s="15"/>
-      <c r="F535" s="15"/>
-      <c r="G535" s="15"/>
-      <c r="H535" s="15"/>
-      <c r="I535" s="15"/>
-      <c r="J535" s="15"/>
-      <c r="K535" s="15"/>
+      <c r="B535" s="20" t="s">
+        <v>365</v>
+      </c>
+      <c r="C535" s="20"/>
+      <c r="D535" s="21"/>
+      <c r="E535" s="20"/>
+      <c r="F535" s="20"/>
+      <c r="G535" s="20"/>
+      <c r="H535" s="20"/>
+      <c r="I535" s="20"/>
+      <c r="J535" s="20"/>
+      <c r="K535" s="22"/>
     </row>
     <row r="536" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A536" s="14"/>
@@ -7014,10 +7536,10 @@
     <row r="537" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A537" s="14"/>
       <c r="B537" s="15"/>
-      <c r="C537" s="15" t="s">
+      <c r="C537" s="15"/>
+      <c r="D537" s="16" t="s">
         <v>367</v>
       </c>
-      <c r="D537" s="16"/>
       <c r="E537" s="15"/>
       <c r="F537" s="15"/>
       <c r="G537" s="15"/>
@@ -7030,9 +7552,7 @@
       <c r="A538" s="14"/>
       <c r="B538" s="15"/>
       <c r="C538" s="15"/>
-      <c r="D538" s="16" t="s">
-        <v>368</v>
-      </c>
+      <c r="D538" s="16"/>
       <c r="E538" s="15"/>
       <c r="F538" s="15"/>
       <c r="G538" s="15"/>
@@ -7044,7 +7564,9 @@
     <row r="539" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A539" s="14"/>
       <c r="B539" s="15"/>
-      <c r="C539" s="15"/>
+      <c r="C539" s="15" t="s">
+        <v>368</v>
+      </c>
       <c r="D539" s="16"/>
       <c r="E539" s="15"/>
       <c r="F539" s="15"/>
@@ -7072,10 +7594,10 @@
     <row r="541" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A541" s="14"/>
       <c r="B541" s="15"/>
-      <c r="C541" s="15" t="s">
+      <c r="C541" s="15"/>
+      <c r="D541" s="16" t="s">
         <v>370</v>
       </c>
-      <c r="D541" s="16"/>
       <c r="E541" s="15"/>
       <c r="F541" s="15"/>
       <c r="G541" s="15"/>
@@ -7088,9 +7610,7 @@
       <c r="A542" s="14"/>
       <c r="B542" s="15"/>
       <c r="C542" s="15"/>
-      <c r="D542" s="16" t="s">
-        <v>371</v>
-      </c>
+      <c r="D542" s="16"/>
       <c r="E542" s="15"/>
       <c r="F542" s="15"/>
       <c r="G542" s="15"/>
@@ -7102,10 +7622,10 @@
     <row r="543" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A543" s="14"/>
       <c r="B543" s="15"/>
-      <c r="C543" s="15"/>
-      <c r="D543" s="16" t="s">
-        <v>372</v>
-      </c>
+      <c r="C543" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="D543" s="16"/>
       <c r="E543" s="15"/>
       <c r="F543" s="15"/>
       <c r="G543" s="15"/>
@@ -7117,7 +7637,9 @@
     <row r="544" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A544" s="14"/>
       <c r="B544" s="15"/>
-      <c r="C544" s="15"/>
+      <c r="C544" s="15" t="s">
+        <v>372</v>
+      </c>
       <c r="D544" s="16"/>
       <c r="E544" s="15"/>
       <c r="F544" s="15"/>
@@ -7130,10 +7652,10 @@
     <row r="545" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A545" s="14"/>
       <c r="B545" s="15"/>
-      <c r="C545" s="15" t="s">
+      <c r="C545" s="15"/>
+      <c r="D545" s="16" t="s">
         <v>373</v>
       </c>
-      <c r="D545" s="16"/>
       <c r="E545" s="15"/>
       <c r="F545" s="15"/>
       <c r="G545" s="15"/>
@@ -7145,10 +7667,10 @@
     <row r="546" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A546" s="14"/>
       <c r="B546" s="15"/>
-      <c r="C546" s="15" t="s">
+      <c r="C546" s="15"/>
+      <c r="D546" s="16" t="s">
         <v>374</v>
       </c>
-      <c r="D546" s="16"/>
       <c r="E546" s="15"/>
       <c r="F546" s="15"/>
       <c r="G546" s="15"/>
@@ -7161,9 +7683,7 @@
       <c r="A547" s="14"/>
       <c r="B547" s="15"/>
       <c r="C547" s="15"/>
-      <c r="D547" s="16" t="s">
-        <v>375</v>
-      </c>
+      <c r="D547" s="16"/>
       <c r="E547" s="15"/>
       <c r="F547" s="15"/>
       <c r="G547" s="15"/>
@@ -7175,10 +7695,10 @@
     <row r="548" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A548" s="14"/>
       <c r="B548" s="15"/>
-      <c r="C548" s="15"/>
-      <c r="D548" s="16" t="s">
-        <v>376</v>
-      </c>
+      <c r="C548" s="15" t="s">
+        <v>375</v>
+      </c>
+      <c r="D548" s="16"/>
       <c r="E548" s="15"/>
       <c r="F548" s="15"/>
       <c r="G548" s="15"/>
@@ -7190,7 +7710,9 @@
     <row r="549" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A549" s="14"/>
       <c r="B549" s="15"/>
-      <c r="C549" s="15"/>
+      <c r="C549" s="15" t="s">
+        <v>376</v>
+      </c>
       <c r="D549" s="16"/>
       <c r="E549" s="15"/>
       <c r="F549" s="15"/>
@@ -7202,26 +7724,26 @@
     </row>
     <row r="550" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A550" s="14"/>
-      <c r="B550" s="20" t="s">
+      <c r="B550" s="15"/>
+      <c r="C550" s="15"/>
+      <c r="D550" s="16" t="s">
         <v>377</v>
       </c>
-      <c r="C550" s="20"/>
-      <c r="D550" s="21"/>
-      <c r="E550" s="20"/>
-      <c r="F550" s="20"/>
-      <c r="G550" s="20"/>
-      <c r="H550" s="20"/>
-      <c r="I550" s="20"/>
-      <c r="J550" s="20"/>
-      <c r="K550" s="22"/>
+      <c r="E550" s="15"/>
+      <c r="F550" s="15"/>
+      <c r="G550" s="15"/>
+      <c r="H550" s="15"/>
+      <c r="I550" s="15"/>
+      <c r="J550" s="15"/>
+      <c r="K550" s="15"/>
     </row>
     <row r="551" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A551" s="14"/>
       <c r="B551" s="15"/>
-      <c r="C551" s="15" t="s">
+      <c r="C551" s="15"/>
+      <c r="D551" s="16" t="s">
         <v>378</v>
       </c>
-      <c r="D551" s="16"/>
       <c r="E551" s="15"/>
       <c r="F551" s="15"/>
       <c r="G551" s="15"/>
@@ -7233,9 +7755,7 @@
     <row r="552" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A552" s="14"/>
       <c r="B552" s="15"/>
-      <c r="C552" s="15" t="s">
-        <v>379</v>
-      </c>
+      <c r="C552" s="15"/>
       <c r="D552" s="16"/>
       <c r="E552" s="15"/>
       <c r="F552" s="15"/>
@@ -7247,26 +7767,26 @@
     </row>
     <row r="553" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A553" s="14"/>
-      <c r="B553" s="15"/>
-      <c r="C553" s="15"/>
-      <c r="D553" s="16" t="s">
-        <v>380</v>
-      </c>
-      <c r="E553" s="15"/>
-      <c r="F553" s="15"/>
-      <c r="G553" s="15"/>
-      <c r="H553" s="15"/>
-      <c r="I553" s="15"/>
-      <c r="J553" s="15"/>
-      <c r="K553" s="15"/>
+      <c r="B553" s="20" t="s">
+        <v>379</v>
+      </c>
+      <c r="C553" s="20"/>
+      <c r="D553" s="21"/>
+      <c r="E553" s="20"/>
+      <c r="F553" s="20"/>
+      <c r="G553" s="20"/>
+      <c r="H553" s="20"/>
+      <c r="I553" s="20"/>
+      <c r="J553" s="20"/>
+      <c r="K553" s="22"/>
     </row>
     <row r="554" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A554" s="14"/>
       <c r="B554" s="15"/>
-      <c r="C554" s="15"/>
-      <c r="D554" s="16" t="s">
-        <v>381</v>
-      </c>
+      <c r="C554" s="15" t="s">
+        <v>380</v>
+      </c>
+      <c r="D554" s="16"/>
       <c r="E554" s="15"/>
       <c r="F554" s="15"/>
       <c r="G554" s="15"/>
@@ -7278,10 +7798,10 @@
     <row r="555" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A555" s="14"/>
       <c r="B555" s="15"/>
-      <c r="C555" s="15"/>
-      <c r="D555" s="16" t="s">
-        <v>382</v>
-      </c>
+      <c r="C555" s="15" t="s">
+        <v>381</v>
+      </c>
+      <c r="D555" s="16"/>
       <c r="E555" s="15"/>
       <c r="F555" s="15"/>
       <c r="G555" s="15"/>
@@ -7294,7 +7814,9 @@
       <c r="A556" s="14"/>
       <c r="B556" s="15"/>
       <c r="C556" s="15"/>
-      <c r="D556" s="16"/>
+      <c r="D556" s="16" t="s">
+        <v>382</v>
+      </c>
       <c r="E556" s="15"/>
       <c r="F556" s="15"/>
       <c r="G556" s="15"/>
@@ -7306,10 +7828,10 @@
     <row r="557" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A557" s="14"/>
       <c r="B557" s="15"/>
-      <c r="C557" s="15" t="s">
+      <c r="C557" s="15"/>
+      <c r="D557" s="16" t="s">
         <v>383</v>
       </c>
-      <c r="D557" s="16"/>
       <c r="E557" s="15"/>
       <c r="F557" s="15"/>
       <c r="G557" s="15"/>
@@ -7321,10 +7843,10 @@
     <row r="558" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A558" s="14"/>
       <c r="B558" s="15"/>
-      <c r="C558" s="15" t="s">
+      <c r="C558" s="15"/>
+      <c r="D558" s="16" t="s">
         <v>384</v>
       </c>
-      <c r="D558" s="16"/>
       <c r="E558" s="15"/>
       <c r="F558" s="15"/>
       <c r="G558" s="15"/>
@@ -7336,9 +7858,7 @@
     <row r="559" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A559" s="14"/>
       <c r="B559" s="15"/>
-      <c r="C559" s="15" t="s">
-        <v>385</v>
-      </c>
+      <c r="C559" s="15"/>
       <c r="D559" s="16"/>
       <c r="E559" s="15"/>
       <c r="F559" s="15"/>
@@ -7351,10 +7871,10 @@
     <row r="560" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A560" s="14"/>
       <c r="B560" s="15"/>
-      <c r="C560" s="15"/>
-      <c r="D560" s="16" t="s">
-        <v>386</v>
-      </c>
+      <c r="C560" s="15" t="s">
+        <v>385</v>
+      </c>
+      <c r="D560" s="16"/>
       <c r="E560" s="15"/>
       <c r="F560" s="15"/>
       <c r="G560" s="15"/>
@@ -7366,10 +7886,10 @@
     <row r="561" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A561" s="14"/>
       <c r="B561" s="15"/>
-      <c r="C561" s="15"/>
-      <c r="D561" s="16" t="s">
-        <v>387</v>
-      </c>
+      <c r="C561" s="15" t="s">
+        <v>386</v>
+      </c>
+      <c r="D561" s="16"/>
       <c r="E561" s="15"/>
       <c r="F561" s="15"/>
       <c r="G561" s="15"/>
@@ -7381,7 +7901,9 @@
     <row r="562" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A562" s="14"/>
       <c r="B562" s="15"/>
-      <c r="C562" s="15"/>
+      <c r="C562" s="15" t="s">
+        <v>387</v>
+      </c>
       <c r="D562" s="16"/>
       <c r="E562" s="15"/>
       <c r="F562" s="15"/>
@@ -7394,10 +7916,10 @@
     <row r="563" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A563" s="14"/>
       <c r="B563" s="15"/>
-      <c r="C563" s="15" t="s">
+      <c r="C563" s="15"/>
+      <c r="D563" s="16" t="s">
         <v>388</v>
       </c>
-      <c r="D563" s="16"/>
       <c r="E563" s="15"/>
       <c r="F563" s="15"/>
       <c r="G563" s="15"/>
@@ -7538,10 +8060,10 @@
     <row r="573" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A573" s="14"/>
       <c r="B573" s="15"/>
-      <c r="C573" s="16" t="s">
+      <c r="C573" s="15"/>
+      <c r="D573" s="16" t="s">
         <v>395</v>
       </c>
-      <c r="D573" s="16"/>
       <c r="E573" s="15"/>
       <c r="F573" s="15"/>
       <c r="G573" s="15"/>
@@ -7554,9 +8076,7 @@
       <c r="A574" s="14"/>
       <c r="B574" s="15"/>
       <c r="C574" s="15"/>
-      <c r="D574" s="16" t="s">
-        <v>396</v>
-      </c>
+      <c r="D574" s="16"/>
       <c r="E574" s="15"/>
       <c r="F574" s="15"/>
       <c r="G574" s="15"/>
@@ -7568,10 +8088,10 @@
     <row r="575" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A575" s="14"/>
       <c r="B575" s="15"/>
-      <c r="C575" s="15"/>
-      <c r="D575" s="16" t="s">
-        <v>397</v>
-      </c>
+      <c r="C575" s="15" t="s">
+        <v>396</v>
+      </c>
+      <c r="D575" s="16"/>
       <c r="E575" s="15"/>
       <c r="F575" s="15"/>
       <c r="G575" s="15"/>
@@ -7583,7 +8103,9 @@
     <row r="576" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A576" s="14"/>
       <c r="B576" s="15"/>
-      <c r="C576" s="15"/>
+      <c r="C576" s="16" t="s">
+        <v>397</v>
+      </c>
       <c r="D576" s="16"/>
       <c r="E576" s="15"/>
       <c r="F576" s="15"/>
@@ -7596,10 +8118,10 @@
     <row r="577" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A577" s="14"/>
       <c r="B577" s="15"/>
-      <c r="C577" s="15" t="s">
+      <c r="C577" s="15"/>
+      <c r="D577" s="16" t="s">
         <v>398</v>
       </c>
-      <c r="D577" s="16"/>
       <c r="E577" s="15"/>
       <c r="F577" s="15"/>
       <c r="G577" s="15"/>
@@ -7611,10 +8133,10 @@
     <row r="578" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A578" s="14"/>
       <c r="B578" s="15"/>
-      <c r="C578" s="16" t="s">
+      <c r="C578" s="15"/>
+      <c r="D578" s="16" t="s">
         <v>399</v>
       </c>
-      <c r="D578" s="16"/>
       <c r="E578" s="15"/>
       <c r="F578" s="15"/>
       <c r="G578" s="15"/>
@@ -7626,9 +8148,7 @@
     <row r="579" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A579" s="14"/>
       <c r="B579" s="15"/>
-      <c r="C579" s="15" t="s">
-        <v>400</v>
-      </c>
+      <c r="C579" s="15"/>
       <c r="D579" s="16"/>
       <c r="E579" s="15"/>
       <c r="F579" s="15"/>
@@ -7641,13 +8161,11 @@
     <row r="580" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A580" s="14"/>
       <c r="B580" s="15"/>
-      <c r="C580" s="15"/>
-      <c r="D580" s="16" t="s">
-        <v>401</v>
-      </c>
-      <c r="E580" s="15" t="s">
-        <v>402</v>
-      </c>
+      <c r="C580" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="D580" s="16"/>
+      <c r="E580" s="15"/>
       <c r="F580" s="15"/>
       <c r="G580" s="15"/>
       <c r="H580" s="15"/>
@@ -7658,13 +8176,11 @@
     <row r="581" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A581" s="14"/>
       <c r="B581" s="15"/>
-      <c r="C581" s="15"/>
-      <c r="D581" s="16" t="s">
-        <v>403</v>
-      </c>
-      <c r="E581" s="15" t="s">
-        <v>404</v>
-      </c>
+      <c r="C581" s="16" t="s">
+        <v>401</v>
+      </c>
+      <c r="D581" s="16"/>
+      <c r="E581" s="15"/>
       <c r="F581" s="15"/>
       <c r="G581" s="15"/>
       <c r="H581" s="15"/>
@@ -7675,13 +8191,11 @@
     <row r="582" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A582" s="14"/>
       <c r="B582" s="15"/>
-      <c r="C582" s="15"/>
-      <c r="D582" s="16" t="s">
-        <v>405</v>
-      </c>
-      <c r="E582" s="15" t="s">
-        <v>406</v>
-      </c>
+      <c r="C582" s="15" t="s">
+        <v>402</v>
+      </c>
+      <c r="D582" s="16"/>
+      <c r="E582" s="15"/>
       <c r="F582" s="15"/>
       <c r="G582" s="15"/>
       <c r="H582" s="15"/>
@@ -7694,10 +8208,10 @@
       <c r="B583" s="15"/>
       <c r="C583" s="15"/>
       <c r="D583" s="16" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="E583" s="15" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="F583" s="15"/>
       <c r="G583" s="15"/>
@@ -7710,8 +8224,12 @@
       <c r="A584" s="14"/>
       <c r="B584" s="15"/>
       <c r="C584" s="15"/>
-      <c r="D584" s="16"/>
-      <c r="E584" s="15"/>
+      <c r="D584" s="16" t="s">
+        <v>405</v>
+      </c>
+      <c r="E584" s="15" t="s">
+        <v>406</v>
+      </c>
       <c r="F584" s="15"/>
       <c r="G584" s="15"/>
       <c r="H584" s="15"/>
@@ -7722,11 +8240,13 @@
     <row r="585" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A585" s="14"/>
       <c r="B585" s="15"/>
-      <c r="C585" s="15" t="s">
-        <v>409</v>
-      </c>
-      <c r="D585" s="16"/>
-      <c r="E585" s="15"/>
+      <c r="C585" s="15"/>
+      <c r="D585" s="16" t="s">
+        <v>407</v>
+      </c>
+      <c r="E585" s="15" t="s">
+        <v>408</v>
+      </c>
       <c r="F585" s="15"/>
       <c r="G585" s="15"/>
       <c r="H585" s="15"/>
@@ -7739,9 +8259,11 @@
       <c r="B586" s="15"/>
       <c r="C586" s="15"/>
       <c r="D586" s="16" t="s">
+        <v>409</v>
+      </c>
+      <c r="E586" s="15" t="s">
         <v>410</v>
       </c>
-      <c r="E586" s="15"/>
       <c r="F586" s="15"/>
       <c r="G586" s="15"/>
       <c r="H586" s="15"/>
@@ -7849,27 +8371,27 @@
       <c r="K593" s="15"/>
     </row>
     <row r="594" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A594" s="17" t="s">
+      <c r="A594" s="14"/>
+      <c r="B594" s="15"/>
+      <c r="C594" s="15" t="s">
         <v>415</v>
       </c>
-      <c r="B594" s="18"/>
-      <c r="C594" s="18"/>
-      <c r="D594" s="18"/>
-      <c r="E594" s="18"/>
-      <c r="F594" s="18"/>
-      <c r="G594" s="18"/>
-      <c r="H594" s="18"/>
-      <c r="I594" s="18"/>
-      <c r="J594" s="18"/>
-      <c r="K594" s="19"/>
+      <c r="D594" s="16"/>
+      <c r="E594" s="15"/>
+      <c r="F594" s="15"/>
+      <c r="G594" s="15"/>
+      <c r="H594" s="15"/>
+      <c r="I594" s="15"/>
+      <c r="J594" s="15"/>
+      <c r="K594" s="15"/>
     </row>
     <row r="595" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A595" s="14"/>
-      <c r="B595" s="15" t="s">
+      <c r="B595" s="15"/>
+      <c r="C595" s="15"/>
+      <c r="D595" s="16" t="s">
         <v>416</v>
       </c>
-      <c r="C595" s="15"/>
-      <c r="D595" s="16"/>
       <c r="E595" s="15"/>
       <c r="F595" s="15"/>
       <c r="G595" s="15"/>
@@ -7881,9 +8403,7 @@
     <row r="596" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A596" s="14"/>
       <c r="B596" s="15"/>
-      <c r="C596" s="15" t="s">
-        <v>417</v>
-      </c>
+      <c r="C596" s="15"/>
       <c r="D596" s="16"/>
       <c r="E596" s="15"/>
       <c r="F596" s="15"/>
@@ -7894,26 +8414,26 @@
       <c r="K596" s="15"/>
     </row>
     <row r="597" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A597" s="14"/>
-      <c r="B597" s="15"/>
-      <c r="C597" s="15" t="s">
-        <v>418</v>
-      </c>
-      <c r="D597" s="16"/>
-      <c r="E597" s="15"/>
-      <c r="F597" s="15"/>
-      <c r="G597" s="15"/>
-      <c r="H597" s="15"/>
-      <c r="I597" s="15"/>
-      <c r="J597" s="15"/>
-      <c r="K597" s="15"/>
+      <c r="A597" s="17" t="s">
+        <v>417</v>
+      </c>
+      <c r="B597" s="18"/>
+      <c r="C597" s="18"/>
+      <c r="D597" s="18"/>
+      <c r="E597" s="18"/>
+      <c r="F597" s="18"/>
+      <c r="G597" s="18"/>
+      <c r="H597" s="18"/>
+      <c r="I597" s="18"/>
+      <c r="J597" s="18"/>
+      <c r="K597" s="19"/>
     </row>
     <row r="598" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A598" s="14"/>
-      <c r="B598" s="15"/>
-      <c r="C598" s="15" t="s">
-        <v>419</v>
-      </c>
+      <c r="B598" s="15" t="s">
+        <v>418</v>
+      </c>
+      <c r="C598" s="15"/>
       <c r="D598" s="16"/>
       <c r="E598" s="15"/>
       <c r="F598" s="15"/>
@@ -7926,7 +8446,9 @@
     <row r="599" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A599" s="14"/>
       <c r="B599" s="15"/>
-      <c r="C599" s="15"/>
+      <c r="C599" s="15" t="s">
+        <v>419</v>
+      </c>
       <c r="D599" s="16"/>
       <c r="E599" s="15"/>
       <c r="F599" s="15"/>
@@ -7938,24 +8460,24 @@
     </row>
     <row r="600" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A600" s="14"/>
-      <c r="B600" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="C600" s="20"/>
-      <c r="D600" s="21"/>
-      <c r="E600" s="20"/>
-      <c r="F600" s="20"/>
-      <c r="G600" s="20"/>
-      <c r="H600" s="20"/>
-      <c r="I600" s="20"/>
-      <c r="J600" s="20"/>
-      <c r="K600" s="22"/>
+      <c r="B600" s="15"/>
+      <c r="C600" s="15" t="s">
+        <v>420</v>
+      </c>
+      <c r="D600" s="16"/>
+      <c r="E600" s="15"/>
+      <c r="F600" s="15"/>
+      <c r="G600" s="15"/>
+      <c r="H600" s="15"/>
+      <c r="I600" s="15"/>
+      <c r="J600" s="15"/>
+      <c r="K600" s="15"/>
     </row>
     <row r="601" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A601" s="14"/>
       <c r="B601" s="15"/>
       <c r="C601" s="15" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="D601" s="16"/>
       <c r="E601" s="15"/>
@@ -7969,9 +8491,7 @@
     <row r="602" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A602" s="14"/>
       <c r="B602" s="15"/>
-      <c r="C602" s="15" t="s">
-        <v>421</v>
-      </c>
+      <c r="C602" s="15"/>
       <c r="D602" s="16"/>
       <c r="E602" s="15"/>
       <c r="F602" s="15"/>
@@ -7983,24 +8503,24 @@
     </row>
     <row r="603" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A603" s="14"/>
-      <c r="B603" s="15"/>
-      <c r="C603" s="15" t="s">
-        <v>422</v>
-      </c>
-      <c r="D603" s="16"/>
-      <c r="E603" s="15"/>
-      <c r="F603" s="15"/>
-      <c r="G603" s="15"/>
-      <c r="H603" s="15"/>
-      <c r="I603" s="15"/>
-      <c r="J603" s="15"/>
-      <c r="K603" s="15"/>
+      <c r="B603" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C603" s="20"/>
+      <c r="D603" s="21"/>
+      <c r="E603" s="20"/>
+      <c r="F603" s="20"/>
+      <c r="G603" s="20"/>
+      <c r="H603" s="20"/>
+      <c r="I603" s="20"/>
+      <c r="J603" s="20"/>
+      <c r="K603" s="22"/>
     </row>
     <row r="604" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A604" s="14"/>
       <c r="B604" s="15"/>
       <c r="C604" s="15" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D604" s="16"/>
       <c r="E604" s="15"/>
@@ -8014,10 +8534,10 @@
     <row r="605" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A605" s="14"/>
       <c r="B605" s="15"/>
-      <c r="C605" s="15"/>
-      <c r="D605" s="16" t="s">
-        <v>44</v>
-      </c>
+      <c r="C605" s="15" t="s">
+        <v>423</v>
+      </c>
+      <c r="D605" s="16"/>
       <c r="E605" s="15"/>
       <c r="F605" s="15"/>
       <c r="G605" s="15"/>
@@ -8029,7 +8549,9 @@
     <row r="606" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A606" s="14"/>
       <c r="B606" s="15"/>
-      <c r="C606" s="15"/>
+      <c r="C606" s="15" t="s">
+        <v>424</v>
+      </c>
       <c r="D606" s="16"/>
       <c r="E606" s="15"/>
       <c r="F606" s="15"/>
@@ -8041,26 +8563,26 @@
     </row>
     <row r="607" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A607" s="14"/>
-      <c r="B607" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="C607" s="20"/>
-      <c r="D607" s="21"/>
-      <c r="E607" s="20"/>
-      <c r="F607" s="20"/>
-      <c r="G607" s="20"/>
-      <c r="H607" s="20"/>
-      <c r="I607" s="20"/>
-      <c r="J607" s="20"/>
-      <c r="K607" s="22"/>
+      <c r="B607" s="15"/>
+      <c r="C607" s="15" t="s">
+        <v>425</v>
+      </c>
+      <c r="D607" s="16"/>
+      <c r="E607" s="15"/>
+      <c r="F607" s="15"/>
+      <c r="G607" s="15"/>
+      <c r="H607" s="15"/>
+      <c r="I607" s="15"/>
+      <c r="J607" s="15"/>
+      <c r="K607" s="15"/>
     </row>
     <row r="608" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A608" s="14"/>
       <c r="B608" s="15"/>
-      <c r="C608" s="15" t="s">
-        <v>424</v>
-      </c>
-      <c r="D608" s="16"/>
+      <c r="C608" s="15"/>
+      <c r="D608" s="16" t="s">
+        <v>44</v>
+      </c>
       <c r="E608" s="15"/>
       <c r="F608" s="15"/>
       <c r="G608" s="15"/>
@@ -8073,9 +8595,7 @@
       <c r="A609" s="14"/>
       <c r="B609" s="15"/>
       <c r="C609" s="15"/>
-      <c r="D609" s="16" t="s">
-        <v>46</v>
-      </c>
+      <c r="D609" s="16"/>
       <c r="E609" s="15"/>
       <c r="F609" s="15"/>
       <c r="G609" s="15"/>
@@ -8086,39 +8606,41 @@
     </row>
     <row r="610" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A610" s="14"/>
-      <c r="B610" s="15"/>
-      <c r="C610" s="15"/>
-      <c r="D610" s="16"/>
-      <c r="E610" s="15"/>
-      <c r="F610" s="15"/>
-      <c r="G610" s="15"/>
-      <c r="H610" s="15"/>
-      <c r="I610" s="15"/>
-      <c r="J610" s="15"/>
-      <c r="K610" s="15"/>
+      <c r="B610" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C610" s="20"/>
+      <c r="D610" s="21"/>
+      <c r="E610" s="20"/>
+      <c r="F610" s="20"/>
+      <c r="G610" s="20"/>
+      <c r="H610" s="20"/>
+      <c r="I610" s="20"/>
+      <c r="J610" s="20"/>
+      <c r="K610" s="22"/>
     </row>
     <row r="611" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A611" s="14"/>
-      <c r="B611" s="20" t="s">
-        <v>425</v>
-      </c>
-      <c r="C611" s="20"/>
-      <c r="D611" s="21"/>
-      <c r="E611" s="20"/>
-      <c r="F611" s="20"/>
-      <c r="G611" s="20"/>
-      <c r="H611" s="20"/>
-      <c r="I611" s="20"/>
-      <c r="J611" s="20"/>
-      <c r="K611" s="22"/>
+      <c r="B611" s="15"/>
+      <c r="C611" s="15" t="s">
+        <v>426</v>
+      </c>
+      <c r="D611" s="16"/>
+      <c r="E611" s="15"/>
+      <c r="F611" s="15"/>
+      <c r="G611" s="15"/>
+      <c r="H611" s="15"/>
+      <c r="I611" s="15"/>
+      <c r="J611" s="15"/>
+      <c r="K611" s="15"/>
     </row>
     <row r="612" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A612" s="14"/>
       <c r="B612" s="15"/>
-      <c r="C612" s="15" t="s">
-        <v>426</v>
-      </c>
-      <c r="D612" s="16"/>
+      <c r="C612" s="15"/>
+      <c r="D612" s="16" t="s">
+        <v>46</v>
+      </c>
       <c r="E612" s="15"/>
       <c r="F612" s="15"/>
       <c r="G612" s="15"/>
@@ -8131,9 +8653,7 @@
       <c r="A613" s="14"/>
       <c r="B613" s="15"/>
       <c r="C613" s="15"/>
-      <c r="D613" s="16" t="s">
-        <v>425</v>
-      </c>
+      <c r="D613" s="16"/>
       <c r="E613" s="15"/>
       <c r="F613" s="15"/>
       <c r="G613" s="15"/>
@@ -8144,39 +8664,41 @@
     </row>
     <row r="614" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A614" s="14"/>
-      <c r="B614" s="15"/>
-      <c r="C614" s="15"/>
-      <c r="D614" s="16"/>
-      <c r="E614" s="15"/>
-      <c r="F614" s="15"/>
-      <c r="G614" s="15"/>
-      <c r="H614" s="15"/>
-      <c r="I614" s="15"/>
-      <c r="J614" s="15"/>
-      <c r="K614" s="15"/>
+      <c r="B614" s="20" t="s">
+        <v>427</v>
+      </c>
+      <c r="C614" s="20"/>
+      <c r="D614" s="21"/>
+      <c r="E614" s="20"/>
+      <c r="F614" s="20"/>
+      <c r="G614" s="20"/>
+      <c r="H614" s="20"/>
+      <c r="I614" s="20"/>
+      <c r="J614" s="20"/>
+      <c r="K614" s="22"/>
     </row>
     <row r="615" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A615" s="14"/>
-      <c r="B615" s="20" t="s">
-        <v>427</v>
-      </c>
-      <c r="C615" s="20"/>
-      <c r="D615" s="21"/>
-      <c r="E615" s="20"/>
-      <c r="F615" s="20"/>
-      <c r="G615" s="20"/>
-      <c r="H615" s="20"/>
-      <c r="I615" s="20"/>
-      <c r="J615" s="20"/>
-      <c r="K615" s="22"/>
+      <c r="B615" s="15"/>
+      <c r="C615" s="15" t="s">
+        <v>428</v>
+      </c>
+      <c r="D615" s="16"/>
+      <c r="E615" s="15"/>
+      <c r="F615" s="15"/>
+      <c r="G615" s="15"/>
+      <c r="H615" s="15"/>
+      <c r="I615" s="15"/>
+      <c r="J615" s="15"/>
+      <c r="K615" s="15"/>
     </row>
     <row r="616" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A616" s="14"/>
       <c r="B616" s="15"/>
-      <c r="C616" s="15" t="s">
-        <v>428</v>
-      </c>
-      <c r="D616" s="16"/>
+      <c r="C616" s="15"/>
+      <c r="D616" s="16" t="s">
+        <v>427</v>
+      </c>
       <c r="E616" s="15"/>
       <c r="F616" s="15"/>
       <c r="G616" s="15"/>
@@ -8189,9 +8711,7 @@
       <c r="A617" s="14"/>
       <c r="B617" s="15"/>
       <c r="C617" s="15"/>
-      <c r="D617" s="16" t="s">
-        <v>427</v>
-      </c>
+      <c r="D617" s="16"/>
       <c r="E617" s="15"/>
       <c r="F617" s="15"/>
       <c r="G617" s="15"/>
@@ -8202,39 +8722,41 @@
     </row>
     <row r="618" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A618" s="14"/>
-      <c r="B618" s="15"/>
-      <c r="C618" s="15"/>
-      <c r="D618" s="16"/>
-      <c r="E618" s="15"/>
-      <c r="F618" s="15"/>
-      <c r="G618" s="15"/>
-      <c r="H618" s="15"/>
-      <c r="I618" s="15"/>
-      <c r="J618" s="15"/>
-      <c r="K618" s="15"/>
+      <c r="B618" s="20" t="s">
+        <v>429</v>
+      </c>
+      <c r="C618" s="20"/>
+      <c r="D618" s="21"/>
+      <c r="E618" s="20"/>
+      <c r="F618" s="20"/>
+      <c r="G618" s="20"/>
+      <c r="H618" s="20"/>
+      <c r="I618" s="20"/>
+      <c r="J618" s="20"/>
+      <c r="K618" s="22"/>
     </row>
     <row r="619" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A619" s="17" t="s">
-        <v>429</v>
-      </c>
-      <c r="B619" s="18"/>
-      <c r="C619" s="18"/>
-      <c r="D619" s="18"/>
-      <c r="E619" s="18"/>
-      <c r="F619" s="18"/>
-      <c r="G619" s="18"/>
-      <c r="H619" s="18"/>
-      <c r="I619" s="18"/>
-      <c r="J619" s="18"/>
-      <c r="K619" s="19"/>
+      <c r="A619" s="14"/>
+      <c r="B619" s="15"/>
+      <c r="C619" s="15" t="s">
+        <v>430</v>
+      </c>
+      <c r="D619" s="16"/>
+      <c r="E619" s="15"/>
+      <c r="F619" s="15"/>
+      <c r="G619" s="15"/>
+      <c r="H619" s="15"/>
+      <c r="I619" s="15"/>
+      <c r="J619" s="15"/>
+      <c r="K619" s="15"/>
     </row>
     <row r="620" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A620" s="14"/>
-      <c r="B620" s="15" t="s">
-        <v>430</v>
-      </c>
+      <c r="B620" s="15"/>
       <c r="C620" s="15"/>
-      <c r="D620" s="16"/>
+      <c r="D620" s="16" t="s">
+        <v>429</v>
+      </c>
       <c r="E620" s="15"/>
       <c r="F620" s="15"/>
       <c r="G620" s="15"/>
@@ -8246,9 +8768,7 @@
     <row r="621" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A621" s="14"/>
       <c r="B621" s="15"/>
-      <c r="C621" s="15" t="s">
-        <v>431</v>
-      </c>
+      <c r="C621" s="15"/>
       <c r="D621" s="16"/>
       <c r="E621" s="15"/>
       <c r="F621" s="15"/>
@@ -8259,26 +8779,26 @@
       <c r="K621" s="15"/>
     </row>
     <row r="622" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A622" s="14"/>
-      <c r="B622" s="15"/>
-      <c r="C622" s="15" t="s">
-        <v>432</v>
-      </c>
-      <c r="D622" s="16"/>
-      <c r="E622" s="15"/>
-      <c r="F622" s="15"/>
-      <c r="G622" s="15"/>
-      <c r="H622" s="15"/>
-      <c r="I622" s="15"/>
-      <c r="J622" s="15"/>
-      <c r="K622" s="15"/>
+      <c r="A622" s="17" t="s">
+        <v>431</v>
+      </c>
+      <c r="B622" s="18"/>
+      <c r="C622" s="18"/>
+      <c r="D622" s="18"/>
+      <c r="E622" s="18"/>
+      <c r="F622" s="18"/>
+      <c r="G622" s="18"/>
+      <c r="H622" s="18"/>
+      <c r="I622" s="18"/>
+      <c r="J622" s="18"/>
+      <c r="K622" s="19"/>
     </row>
     <row r="623" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A623" s="14"/>
-      <c r="B623" s="15"/>
-      <c r="C623" s="15" t="s">
-        <v>433</v>
-      </c>
+      <c r="B623" s="15" t="s">
+        <v>432</v>
+      </c>
+      <c r="C623" s="15"/>
       <c r="D623" s="16"/>
       <c r="E623" s="15"/>
       <c r="F623" s="15"/>
@@ -8292,7 +8812,7 @@
       <c r="A624" s="14"/>
       <c r="B624" s="15"/>
       <c r="C624" s="15" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D624" s="16"/>
       <c r="E624" s="15"/>
@@ -8306,7 +8826,9 @@
     <row r="625" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A625" s="14"/>
       <c r="B625" s="15"/>
-      <c r="C625" s="15"/>
+      <c r="C625" s="15" t="s">
+        <v>434</v>
+      </c>
       <c r="D625" s="16"/>
       <c r="E625" s="15"/>
       <c r="F625" s="15"/>
@@ -8318,10 +8840,10 @@
     </row>
     <row r="626" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A626" s="14"/>
-      <c r="B626" s="15" t="s">
+      <c r="B626" s="15"/>
+      <c r="C626" s="15" t="s">
         <v>435</v>
       </c>
-      <c r="C626" s="15"/>
       <c r="D626" s="16"/>
       <c r="E626" s="15"/>
       <c r="F626" s="15"/>
@@ -8333,10 +8855,10 @@
     </row>
     <row r="627" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A627" s="14"/>
-      <c r="B627" s="16" t="s">
+      <c r="B627" s="15"/>
+      <c r="C627" s="15" t="s">
         <v>436</v>
       </c>
-      <c r="C627" s="15"/>
       <c r="D627" s="16"/>
       <c r="E627" s="15"/>
       <c r="F627" s="15"/>
@@ -8348,11 +8870,9 @@
     </row>
     <row r="628" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A628" s="14"/>
-      <c r="B628" s="15" t="s">
-        <v>437</v>
-      </c>
+      <c r="B628" s="15"/>
       <c r="C628" s="15"/>
-      <c r="D628" s="15"/>
+      <c r="D628" s="16"/>
       <c r="E628" s="15"/>
       <c r="F628" s="15"/>
       <c r="G628" s="15"/>
@@ -8363,11 +8883,11 @@
     </row>
     <row r="629" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A629" s="14"/>
-      <c r="B629" s="15"/>
+      <c r="B629" s="15" t="s">
+        <v>437</v>
+      </c>
       <c r="C629" s="15"/>
-      <c r="D629" s="16" t="s">
-        <v>69</v>
-      </c>
+      <c r="D629" s="16"/>
       <c r="E629" s="15"/>
       <c r="F629" s="15"/>
       <c r="G629" s="15"/>
@@ -8378,7 +8898,9 @@
     </row>
     <row r="630" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A630" s="14"/>
-      <c r="B630" s="15"/>
+      <c r="B630" s="16" t="s">
+        <v>438</v>
+      </c>
       <c r="C630" s="15"/>
       <c r="D630" s="16"/>
       <c r="E630" s="15"/>
@@ -8391,26 +8913,26 @@
     </row>
     <row r="631" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A631" s="14"/>
-      <c r="B631" s="20" t="s">
-        <v>438</v>
-      </c>
-      <c r="C631" s="20"/>
-      <c r="D631" s="21"/>
-      <c r="E631" s="20"/>
-      <c r="F631" s="20"/>
-      <c r="G631" s="20"/>
-      <c r="H631" s="20"/>
-      <c r="I631" s="20"/>
-      <c r="J631" s="20"/>
-      <c r="K631" s="22"/>
+      <c r="B631" s="15" t="s">
+        <v>439</v>
+      </c>
+      <c r="C631" s="15"/>
+      <c r="D631" s="15"/>
+      <c r="E631" s="15"/>
+      <c r="F631" s="15"/>
+      <c r="G631" s="15"/>
+      <c r="H631" s="15"/>
+      <c r="I631" s="15"/>
+      <c r="J631" s="15"/>
+      <c r="K631" s="15"/>
     </row>
     <row r="632" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A632" s="14"/>
       <c r="B632" s="15"/>
-      <c r="C632" s="15" t="s">
-        <v>439</v>
-      </c>
-      <c r="D632" s="16"/>
+      <c r="C632" s="15"/>
+      <c r="D632" s="16" t="s">
+        <v>69</v>
+      </c>
       <c r="E632" s="15"/>
       <c r="F632" s="15"/>
       <c r="G632" s="15"/>
@@ -8422,9 +8944,7 @@
     <row r="633" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A633" s="14"/>
       <c r="B633" s="15"/>
-      <c r="C633" s="15" t="s">
-        <v>440</v>
-      </c>
+      <c r="C633" s="15"/>
       <c r="D633" s="16"/>
       <c r="E633" s="15"/>
       <c r="F633" s="15"/>
@@ -8436,26 +8956,26 @@
     </row>
     <row r="634" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A634" s="14"/>
-      <c r="B634" s="15"/>
-      <c r="C634" s="15"/>
-      <c r="D634" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="E634" s="15"/>
-      <c r="F634" s="15"/>
-      <c r="G634" s="15"/>
-      <c r="H634" s="15"/>
-      <c r="I634" s="15"/>
-      <c r="J634" s="15"/>
-      <c r="K634" s="15"/>
+      <c r="B634" s="20" t="s">
+        <v>440</v>
+      </c>
+      <c r="C634" s="20"/>
+      <c r="D634" s="21"/>
+      <c r="E634" s="20"/>
+      <c r="F634" s="20"/>
+      <c r="G634" s="20"/>
+      <c r="H634" s="20"/>
+      <c r="I634" s="20"/>
+      <c r="J634" s="20"/>
+      <c r="K634" s="22"/>
     </row>
     <row r="635" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A635" s="14"/>
       <c r="B635" s="15"/>
-      <c r="C635" s="15"/>
-      <c r="D635" s="16" t="s">
-        <v>442</v>
-      </c>
+      <c r="C635" s="15" t="s">
+        <v>441</v>
+      </c>
+      <c r="D635" s="16"/>
       <c r="E635" s="15"/>
       <c r="F635" s="15"/>
       <c r="G635" s="15"/>
@@ -8468,7 +8988,7 @@
       <c r="A636" s="14"/>
       <c r="B636" s="15"/>
       <c r="C636" s="15" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D636" s="16"/>
       <c r="E636" s="15"/>
@@ -8482,10 +9002,10 @@
     <row r="637" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A637" s="14"/>
       <c r="B637" s="15"/>
-      <c r="C637" s="15" t="s">
-        <v>444</v>
-      </c>
-      <c r="D637" s="16"/>
+      <c r="C637" s="15"/>
+      <c r="D637" s="16" t="s">
+        <v>443</v>
+      </c>
       <c r="E637" s="15"/>
       <c r="F637" s="15"/>
       <c r="G637" s="15"/>
@@ -8499,7 +9019,7 @@
       <c r="B638" s="15"/>
       <c r="C638" s="15"/>
       <c r="D638" s="16" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E638" s="15"/>
       <c r="F638" s="15"/>
@@ -8509,118 +9029,153 @@
       <c r="J638" s="15"/>
       <c r="K638" s="15"/>
     </row>
-    <row r="640" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C640" s="2" t="s">
+    <row r="639" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A639" s="14"/>
+      <c r="B639" s="15"/>
+      <c r="C639" s="15" t="s">
+        <v>445</v>
+      </c>
+      <c r="D639" s="16"/>
+      <c r="E639" s="15"/>
+      <c r="F639" s="15"/>
+      <c r="G639" s="15"/>
+      <c r="H639" s="15"/>
+      <c r="I639" s="15"/>
+      <c r="J639" s="15"/>
+      <c r="K639" s="15"/>
+    </row>
+    <row r="640" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A640" s="14"/>
+      <c r="B640" s="15"/>
+      <c r="C640" s="15" t="s">
         <v>446</v>
       </c>
+      <c r="D640" s="16"/>
+      <c r="E640" s="15"/>
+      <c r="F640" s="15"/>
+      <c r="G640" s="15"/>
+      <c r="H640" s="15"/>
+      <c r="I640" s="15"/>
+      <c r="J640" s="15"/>
+      <c r="K640" s="15"/>
     </row>
     <row r="641" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D641" s="3" t="s">
+      <c r="A641" s="14"/>
+      <c r="B641" s="15"/>
+      <c r="C641" s="15"/>
+      <c r="D641" s="16" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="642" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D642" s="3" t="s">
+      <c r="E641" s="15"/>
+      <c r="F641" s="15"/>
+      <c r="G641" s="15"/>
+      <c r="H641" s="15"/>
+      <c r="I641" s="15"/>
+      <c r="J641" s="15"/>
+      <c r="K641" s="15"/>
+    </row>
+    <row r="643" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C643" s="2" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="643" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="644" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C644" s="2" t="s">
+    <row r="644" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D644" s="3" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="645" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="645" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D645" s="3" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="646" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D646" s="3" t="s">
         <v>450</v>
       </c>
     </row>
+    <row r="646" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="647" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C647" s="2" t="s">
+        <v>451</v>
+      </c>
+    </row>
     <row r="648" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C648" s="2" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="649" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C649" s="2" t="s">
+      <c r="D648" s="3" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="649" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D649" s="3" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="650" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D650" s="3" t="s">
+    <row r="651" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C651" s="2" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="652" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="652" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C652" s="2" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="653" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C653" s="3" t="s">
+    <row r="653" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D653" s="3" t="s">
         <v>455</v>
       </c>
     </row>
     <row r="655" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A655" s="17" t="s">
+      <c r="C655" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="B655" s="18"/>
-      <c r="C655" s="18"/>
-      <c r="D655" s="18"/>
-      <c r="E655" s="18"/>
-      <c r="F655" s="18"/>
-      <c r="G655" s="18"/>
-      <c r="H655" s="18"/>
-      <c r="I655" s="18"/>
-      <c r="J655" s="18"/>
-      <c r="K655" s="19"/>
     </row>
     <row r="656" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B656" s="2" t="s">
+      <c r="C656" s="3" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="657" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B657" s="2" t="s">
+    <row r="658" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A658" s="17" t="s">
         <v>458</v>
       </c>
-    </row>
-    <row r="658" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B658" s="2" t="s">
+      <c r="B658" s="18"/>
+      <c r="C658" s="18"/>
+      <c r="D658" s="18"/>
+      <c r="E658" s="18"/>
+      <c r="F658" s="18"/>
+      <c r="G658" s="18"/>
+      <c r="H658" s="18"/>
+      <c r="I658" s="18"/>
+      <c r="J658" s="18"/>
+      <c r="K658" s="19"/>
+    </row>
+    <row r="659" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B659" s="2" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="660" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B660" s="20" t="s">
+    <row r="660" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B660" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="C660" s="20"/>
-      <c r="D660" s="21"/>
-      <c r="E660" s="20"/>
-      <c r="F660" s="20"/>
-      <c r="G660" s="20"/>
-      <c r="H660" s="20"/>
-      <c r="I660" s="20"/>
-      <c r="J660" s="20"/>
-      <c r="K660" s="22"/>
-    </row>
-    <row r="661" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C661" s="2" t="s">
+    </row>
+    <row r="661" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B661" s="2" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="662" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C662" s="2" t="s">
+    <row r="663" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B663" s="20" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="663" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D663" s="3" t="s">
+      <c r="C663" s="20"/>
+      <c r="D663" s="21"/>
+      <c r="E663" s="20"/>
+      <c r="F663" s="20"/>
+      <c r="G663" s="20"/>
+      <c r="H663" s="20"/>
+      <c r="I663" s="20"/>
+      <c r="J663" s="20"/>
+      <c r="K663" s="22"/>
+    </row>
+    <row r="664" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C664" s="2" t="s">
         <v>463</v>
       </c>
     </row>
@@ -8630,40 +9185,39 @@
       </c>
     </row>
     <row r="666" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C666" s="2" t="s">
+      <c r="D666" s="3" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="668" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B668" s="20" t="s">
+    <row r="668" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C668" s="2" t="s">
         <v>466</v>
       </c>
-      <c r="C668" s="20"/>
-      <c r="D668" s="21"/>
-      <c r="E668" s="20"/>
-      <c r="F668" s="20"/>
-      <c r="G668" s="20"/>
-      <c r="H668" s="20"/>
-      <c r="I668" s="20"/>
-      <c r="J668" s="20"/>
-      <c r="K668" s="22"/>
-    </row>
-    <row r="669" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="669" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C669" s="2" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="670" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C670" s="2" t="s">
+    <row r="671" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B671" s="20" t="s">
         <v>468</v>
       </c>
-    </row>
-    <row r="671" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D671" s="3" t="s">
+      <c r="C671" s="20"/>
+      <c r="D671" s="21"/>
+      <c r="E671" s="20"/>
+      <c r="F671" s="20"/>
+      <c r="G671" s="20"/>
+      <c r="H671" s="20"/>
+      <c r="I671" s="20"/>
+      <c r="J671" s="20"/>
+      <c r="K671" s="22"/>
+    </row>
+    <row r="672" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C672" s="2" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="672" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="673" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C673" s="2" t="s">
         <v>470</v>
@@ -8671,73 +9225,41 @@
     </row>
     <row r="674" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D674" s="3" t="s">
-        <v>121</v>
+        <v>471</v>
       </c>
     </row>
     <row r="675" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="676" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B676" s="20" t="s">
-        <v>471</v>
-      </c>
-      <c r="C676" s="20"/>
-      <c r="D676" s="21"/>
-      <c r="E676" s="20"/>
-      <c r="F676" s="20"/>
-      <c r="G676" s="20"/>
-      <c r="H676" s="20"/>
-      <c r="I676" s="20"/>
-      <c r="J676" s="20"/>
-      <c r="K676" s="22"/>
+      <c r="C676" s="2" t="s">
+        <v>472</v>
+      </c>
     </row>
     <row r="677" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A677" s="14"/>
-      <c r="B677" s="15"/>
-      <c r="C677" s="15" t="s">
-        <v>472</v>
-      </c>
-      <c r="D677" s="16"/>
-      <c r="E677" s="15"/>
-      <c r="F677" s="15"/>
-      <c r="G677" s="15"/>
-      <c r="H677" s="15"/>
-      <c r="I677" s="15"/>
-      <c r="J677" s="15"/>
-      <c r="K677" s="15"/>
-    </row>
-    <row r="678" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A678" s="14"/>
-      <c r="B678" s="15"/>
-      <c r="C678" s="15" t="s">
+      <c r="D677" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="678" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="679" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B679" s="20" t="s">
         <v>473</v>
       </c>
-      <c r="D678" s="16"/>
-      <c r="E678" s="15"/>
-      <c r="F678" s="15"/>
-      <c r="G678" s="15"/>
-      <c r="H678" s="15"/>
-      <c r="I678" s="15"/>
-      <c r="J678" s="15"/>
-      <c r="K678" s="15"/>
-    </row>
-    <row r="679" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A679" s="14"/>
-      <c r="B679" s="15"/>
-      <c r="C679" s="15" t="s">
-        <v>474</v>
-      </c>
-      <c r="D679" s="16"/>
-      <c r="E679" s="15"/>
-      <c r="F679" s="15"/>
-      <c r="G679" s="15"/>
-      <c r="H679" s="15"/>
-      <c r="I679" s="15"/>
-      <c r="J679" s="15"/>
-      <c r="K679" s="15"/>
+      <c r="C679" s="20"/>
+      <c r="D679" s="21"/>
+      <c r="E679" s="20"/>
+      <c r="F679" s="20"/>
+      <c r="G679" s="20"/>
+      <c r="H679" s="20"/>
+      <c r="I679" s="20"/>
+      <c r="J679" s="20"/>
+      <c r="K679" s="22"/>
     </row>
     <row r="680" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A680" s="14"/>
       <c r="B680" s="15"/>
-      <c r="C680" s="15"/>
+      <c r="C680" s="15" t="s">
+        <v>474</v>
+      </c>
       <c r="D680" s="16"/>
       <c r="E680" s="15"/>
       <c r="F680" s="15"/>
@@ -8765,10 +9287,10 @@
     <row r="682" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A682" s="14"/>
       <c r="B682" s="15"/>
-      <c r="C682" s="15"/>
-      <c r="D682" s="16" t="s">
+      <c r="C682" s="15" t="s">
         <v>476</v>
       </c>
+      <c r="D682" s="16"/>
       <c r="E682" s="15"/>
       <c r="F682" s="15"/>
       <c r="G682" s="15"/>
@@ -8781,9 +9303,7 @@
       <c r="A683" s="14"/>
       <c r="B683" s="15"/>
       <c r="C683" s="15"/>
-      <c r="D683" s="16" t="s">
-        <v>477</v>
-      </c>
+      <c r="D683" s="16"/>
       <c r="E683" s="15"/>
       <c r="F683" s="15"/>
       <c r="G683" s="15"/>
@@ -8795,7 +9315,9 @@
     <row r="684" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A684" s="14"/>
       <c r="B684" s="15"/>
-      <c r="C684" s="15"/>
+      <c r="C684" s="15" t="s">
+        <v>477</v>
+      </c>
       <c r="D684" s="16"/>
       <c r="E684" s="15"/>
       <c r="F684" s="15"/>
@@ -8808,10 +9330,10 @@
     <row r="685" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A685" s="14"/>
       <c r="B685" s="15"/>
-      <c r="C685" s="15" t="s">
+      <c r="C685" s="15"/>
+      <c r="D685" s="16" t="s">
         <v>478</v>
       </c>
-      <c r="D685" s="16"/>
       <c r="E685" s="15"/>
       <c r="F685" s="15"/>
       <c r="G685" s="15"/>
@@ -8823,10 +9345,10 @@
     <row r="686" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A686" s="14"/>
       <c r="B686" s="15"/>
-      <c r="C686" s="15" t="s">
+      <c r="C686" s="15"/>
+      <c r="D686" s="16" t="s">
         <v>479</v>
       </c>
-      <c r="D686" s="16"/>
       <c r="E686" s="15"/>
       <c r="F686" s="15"/>
       <c r="G686" s="15"/>
@@ -8839,9 +9361,7 @@
       <c r="A687" s="14"/>
       <c r="B687" s="15"/>
       <c r="C687" s="15"/>
-      <c r="D687" s="16" t="s">
-        <v>480</v>
-      </c>
+      <c r="D687" s="16"/>
       <c r="E687" s="15"/>
       <c r="F687" s="15"/>
       <c r="G687" s="15"/>
@@ -8853,10 +9373,10 @@
     <row r="688" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A688" s="14"/>
       <c r="B688" s="15"/>
-      <c r="C688" s="15"/>
-      <c r="D688" s="16" t="s">
-        <v>481</v>
-      </c>
+      <c r="C688" s="15" t="s">
+        <v>480</v>
+      </c>
+      <c r="D688" s="16"/>
       <c r="E688" s="15"/>
       <c r="F688" s="15"/>
       <c r="G688" s="15"/>
@@ -8868,7 +9388,9 @@
     <row r="689" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A689" s="14"/>
       <c r="B689" s="15"/>
-      <c r="C689" s="15"/>
+      <c r="C689" s="15" t="s">
+        <v>481</v>
+      </c>
       <c r="D689" s="16"/>
       <c r="E689" s="15"/>
       <c r="F689" s="15"/>
@@ -8881,10 +9403,10 @@
     <row r="690" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A690" s="14"/>
       <c r="B690" s="15"/>
-      <c r="C690" s="15" t="s">
+      <c r="C690" s="15"/>
+      <c r="D690" s="16" t="s">
         <v>482</v>
       </c>
-      <c r="D690" s="16"/>
       <c r="E690" s="15"/>
       <c r="F690" s="15"/>
       <c r="G690" s="15"/>
@@ -8896,10 +9418,10 @@
     <row r="691" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A691" s="14"/>
       <c r="B691" s="15"/>
-      <c r="C691" s="31" t="s">
+      <c r="C691" s="15"/>
+      <c r="D691" s="16" t="s">
         <v>483</v>
       </c>
-      <c r="D691" s="16"/>
       <c r="E691" s="15"/>
       <c r="F691" s="15"/>
       <c r="G691" s="15"/>
@@ -8911,9 +9433,7 @@
     <row r="692" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A692" s="14"/>
       <c r="B692" s="15"/>
-      <c r="C692" s="15" t="s">
-        <v>484</v>
-      </c>
+      <c r="C692" s="15"/>
       <c r="D692" s="16"/>
       <c r="E692" s="15"/>
       <c r="F692" s="15"/>
@@ -8926,10 +9446,10 @@
     <row r="693" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A693" s="14"/>
       <c r="B693" s="15"/>
-      <c r="C693" s="15"/>
-      <c r="D693" s="16" t="s">
-        <v>58</v>
-      </c>
+      <c r="C693" s="15" t="s">
+        <v>484</v>
+      </c>
+      <c r="D693" s="16"/>
       <c r="E693" s="15"/>
       <c r="F693" s="15"/>
       <c r="G693" s="15"/>
@@ -8941,10 +9461,10 @@
     <row r="694" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A694" s="14"/>
       <c r="B694" s="15"/>
-      <c r="C694" s="15"/>
-      <c r="D694" s="16" t="s">
+      <c r="C694" s="31" t="s">
         <v>485</v>
       </c>
+      <c r="D694" s="16"/>
       <c r="E694" s="15"/>
       <c r="F694" s="15"/>
       <c r="G694" s="15"/>
@@ -8956,10 +9476,10 @@
     <row r="695" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A695" s="14"/>
       <c r="B695" s="15"/>
-      <c r="C695" s="15"/>
-      <c r="D695" s="16" t="s">
+      <c r="C695" s="15" t="s">
         <v>486</v>
       </c>
+      <c r="D695" s="16"/>
       <c r="E695" s="15"/>
       <c r="F695" s="15"/>
       <c r="G695" s="15"/>
@@ -8972,7 +9492,9 @@
       <c r="A696" s="14"/>
       <c r="B696" s="15"/>
       <c r="C696" s="15"/>
-      <c r="D696" s="16"/>
+      <c r="D696" s="16" t="s">
+        <v>58</v>
+      </c>
       <c r="E696" s="15"/>
       <c r="F696" s="15"/>
       <c r="G696" s="15"/>
@@ -8983,26 +9505,26 @@
     </row>
     <row r="697" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A697" s="14"/>
-      <c r="B697" s="20" t="s">
+      <c r="B697" s="15"/>
+      <c r="C697" s="15"/>
+      <c r="D697" s="16" t="s">
         <v>487</v>
       </c>
-      <c r="C697" s="20"/>
-      <c r="D697" s="21"/>
-      <c r="E697" s="20"/>
-      <c r="F697" s="20"/>
-      <c r="G697" s="20"/>
-      <c r="H697" s="20"/>
-      <c r="I697" s="20"/>
-      <c r="J697" s="20"/>
-      <c r="K697" s="22"/>
+      <c r="E697" s="15"/>
+      <c r="F697" s="15"/>
+      <c r="G697" s="15"/>
+      <c r="H697" s="15"/>
+      <c r="I697" s="15"/>
+      <c r="J697" s="15"/>
+      <c r="K697" s="15"/>
     </row>
     <row r="698" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A698" s="14"/>
       <c r="B698" s="15"/>
-      <c r="C698" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="D698" s="16"/>
+      <c r="C698" s="15"/>
+      <c r="D698" s="16" t="s">
+        <v>488</v>
+      </c>
       <c r="E698" s="15"/>
       <c r="F698" s="15"/>
       <c r="G698" s="15"/>
@@ -9015,9 +9537,7 @@
       <c r="A699" s="14"/>
       <c r="B699" s="15"/>
       <c r="C699" s="15"/>
-      <c r="D699" s="16" t="s">
-        <v>488</v>
-      </c>
+      <c r="D699" s="16"/>
       <c r="E699" s="15"/>
       <c r="F699" s="15"/>
       <c r="G699" s="15"/>
@@ -9028,22 +9548,24 @@
     </row>
     <row r="700" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A700" s="14"/>
-      <c r="B700" s="15"/>
-      <c r="C700" s="15"/>
-      <c r="D700" s="16"/>
-      <c r="E700" s="15"/>
-      <c r="F700" s="15"/>
-      <c r="G700" s="15"/>
-      <c r="H700" s="15"/>
-      <c r="I700" s="15"/>
-      <c r="J700" s="15"/>
-      <c r="K700" s="15"/>
+      <c r="B700" s="20" t="s">
+        <v>489</v>
+      </c>
+      <c r="C700" s="20"/>
+      <c r="D700" s="21"/>
+      <c r="E700" s="20"/>
+      <c r="F700" s="20"/>
+      <c r="G700" s="20"/>
+      <c r="H700" s="20"/>
+      <c r="I700" s="20"/>
+      <c r="J700" s="20"/>
+      <c r="K700" s="22"/>
     </row>
     <row r="701" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A701" s="14"/>
       <c r="B701" s="15"/>
       <c r="C701" s="15" t="s">
-        <v>489</v>
+        <v>122</v>
       </c>
       <c r="D701" s="16"/>
       <c r="E701" s="15"/>
@@ -9057,10 +9579,10 @@
     <row r="702" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A702" s="14"/>
       <c r="B702" s="15"/>
-      <c r="C702" s="15" t="s">
+      <c r="C702" s="15"/>
+      <c r="D702" s="16" t="s">
         <v>490</v>
       </c>
-      <c r="D702" s="16"/>
       <c r="E702" s="15"/>
       <c r="F702" s="15"/>
       <c r="G702" s="15"/>
@@ -9073,9 +9595,7 @@
       <c r="A703" s="14"/>
       <c r="B703" s="15"/>
       <c r="C703" s="15"/>
-      <c r="D703" s="16" t="s">
-        <v>491</v>
-      </c>
+      <c r="D703" s="16"/>
       <c r="E703" s="15"/>
       <c r="F703" s="15"/>
       <c r="G703" s="15"/>
@@ -9087,7 +9607,9 @@
     <row r="704" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A704" s="14"/>
       <c r="B704" s="15"/>
-      <c r="C704" s="15"/>
+      <c r="C704" s="15" t="s">
+        <v>491</v>
+      </c>
       <c r="D704" s="16"/>
       <c r="E704" s="15"/>
       <c r="F704" s="15"/>
@@ -9115,10 +9637,10 @@
     <row r="706" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A706" s="14"/>
       <c r="B706" s="15"/>
-      <c r="C706" s="31" t="s">
+      <c r="C706" s="15"/>
+      <c r="D706" s="16" t="s">
         <v>493</v>
       </c>
-      <c r="D706" s="16"/>
       <c r="E706" s="15"/>
       <c r="F706" s="15"/>
       <c r="G706" s="15"/>
@@ -9131,9 +9653,7 @@
       <c r="A707" s="14"/>
       <c r="B707" s="15"/>
       <c r="C707" s="15"/>
-      <c r="D707" s="16" t="s">
-        <v>494</v>
-      </c>
+      <c r="D707" s="16"/>
       <c r="E707" s="15"/>
       <c r="F707" s="15"/>
       <c r="G707" s="15"/>
@@ -9145,7 +9665,9 @@
     <row r="708" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A708" s="14"/>
       <c r="B708" s="15"/>
-      <c r="C708" s="15"/>
+      <c r="C708" s="15" t="s">
+        <v>494</v>
+      </c>
       <c r="D708" s="16"/>
       <c r="E708" s="15"/>
       <c r="F708" s="15"/>
@@ -9158,7 +9680,7 @@
     <row r="709" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A709" s="14"/>
       <c r="B709" s="15"/>
-      <c r="C709" s="15" t="s">
+      <c r="C709" s="31" t="s">
         <v>495</v>
       </c>
       <c r="D709" s="16"/>
@@ -9173,10 +9695,10 @@
     <row r="710" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A710" s="14"/>
       <c r="B710" s="15"/>
-      <c r="C710" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="D710" s="16"/>
+      <c r="C710" s="15"/>
+      <c r="D710" s="16" t="s">
+        <v>496</v>
+      </c>
       <c r="E710" s="15"/>
       <c r="F710" s="15"/>
       <c r="G710" s="15"/>
@@ -9189,9 +9711,7 @@
       <c r="A711" s="14"/>
       <c r="B711" s="15"/>
       <c r="C711" s="15"/>
-      <c r="D711" s="16" t="s">
-        <v>496</v>
-      </c>
+      <c r="D711" s="16"/>
       <c r="E711" s="15"/>
       <c r="F711" s="15"/>
       <c r="G711" s="15"/>
@@ -9203,7 +9723,9 @@
     <row r="712" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A712" s="14"/>
       <c r="B712" s="15"/>
-      <c r="C712" s="15"/>
+      <c r="C712" s="15" t="s">
+        <v>497</v>
+      </c>
       <c r="D712" s="16"/>
       <c r="E712" s="15"/>
       <c r="F712" s="15"/>
@@ -9216,8 +9738,8 @@
     <row r="713" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A713" s="14"/>
       <c r="B713" s="15"/>
-      <c r="C713" s="2" t="s">
-        <v>467</v>
+      <c r="C713" s="15" t="s">
+        <v>120</v>
       </c>
       <c r="D713" s="16"/>
       <c r="E713" s="15"/>
@@ -9231,10 +9753,10 @@
     <row r="714" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A714" s="14"/>
       <c r="B714" s="15"/>
-      <c r="C714" s="2" t="s">
-        <v>497</v>
-      </c>
-      <c r="D714" s="16"/>
+      <c r="C714" s="15"/>
+      <c r="D714" s="16" t="s">
+        <v>498</v>
+      </c>
       <c r="E714" s="15"/>
       <c r="F714" s="15"/>
       <c r="G714" s="15"/>
@@ -9246,9 +9768,7 @@
     <row r="715" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A715" s="14"/>
       <c r="B715" s="15"/>
-      <c r="C715" s="2" t="s">
-        <v>498</v>
-      </c>
+      <c r="C715" s="15"/>
       <c r="D715" s="16"/>
       <c r="E715" s="15"/>
       <c r="F715" s="15"/>
@@ -9262,7 +9782,7 @@
       <c r="A716" s="14"/>
       <c r="B716" s="15"/>
       <c r="C716" s="2" t="s">
-        <v>499</v>
+        <v>469</v>
       </c>
       <c r="D716" s="16"/>
       <c r="E716" s="15"/>
@@ -9276,10 +9796,10 @@
     <row r="717" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A717" s="14"/>
       <c r="B717" s="15"/>
-      <c r="C717" s="15"/>
-      <c r="D717" s="16" t="s">
-        <v>500</v>
-      </c>
+      <c r="C717" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="D717" s="16"/>
       <c r="E717" s="15"/>
       <c r="F717" s="15"/>
       <c r="G717" s="15"/>
@@ -9291,7 +9811,9 @@
     <row r="718" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A718" s="14"/>
       <c r="B718" s="15"/>
-      <c r="C718" s="15"/>
+      <c r="C718" s="2" t="s">
+        <v>500</v>
+      </c>
       <c r="D718" s="16"/>
       <c r="E718" s="15"/>
       <c r="F718" s="15"/>
@@ -9303,26 +9825,26 @@
     </row>
     <row r="719" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A719" s="14"/>
-      <c r="B719" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="C719" s="20"/>
-      <c r="D719" s="21"/>
-      <c r="E719" s="20"/>
-      <c r="F719" s="20"/>
-      <c r="G719" s="20"/>
-      <c r="H719" s="20"/>
-      <c r="I719" s="20"/>
-      <c r="J719" s="20"/>
-      <c r="K719" s="22"/>
+      <c r="B719" s="15"/>
+      <c r="C719" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="D719" s="16"/>
+      <c r="E719" s="15"/>
+      <c r="F719" s="15"/>
+      <c r="G719" s="15"/>
+      <c r="H719" s="15"/>
+      <c r="I719" s="15"/>
+      <c r="J719" s="15"/>
+      <c r="K719" s="15"/>
     </row>
     <row r="720" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A720" s="14"/>
       <c r="B720" s="15"/>
-      <c r="C720" s="15" t="s">
-        <v>501</v>
-      </c>
-      <c r="D720" s="16"/>
+      <c r="C720" s="15"/>
+      <c r="D720" s="16" t="s">
+        <v>502</v>
+      </c>
       <c r="E720" s="15"/>
       <c r="F720" s="15"/>
       <c r="G720" s="15"/>
@@ -9334,9 +9856,7 @@
     <row r="721" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A721" s="14"/>
       <c r="B721" s="15"/>
-      <c r="C721" s="15" t="s">
-        <v>502</v>
-      </c>
+      <c r="C721" s="15"/>
       <c r="D721" s="16"/>
       <c r="E721" s="15"/>
       <c r="F721" s="15"/>
@@ -9348,26 +9868,26 @@
     </row>
     <row r="722" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A722" s="14"/>
-      <c r="B722" s="15"/>
-      <c r="C722" s="15"/>
-      <c r="D722" s="16" t="s">
-        <v>480</v>
-      </c>
-      <c r="E722" s="15"/>
-      <c r="F722" s="15"/>
-      <c r="G722" s="15"/>
-      <c r="H722" s="15"/>
-      <c r="I722" s="15"/>
-      <c r="J722" s="15"/>
-      <c r="K722" s="15"/>
+      <c r="B722" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="C722" s="20"/>
+      <c r="D722" s="21"/>
+      <c r="E722" s="20"/>
+      <c r="F722" s="20"/>
+      <c r="G722" s="20"/>
+      <c r="H722" s="20"/>
+      <c r="I722" s="20"/>
+      <c r="J722" s="20"/>
+      <c r="K722" s="22"/>
     </row>
     <row r="723" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A723" s="14"/>
       <c r="B723" s="15"/>
-      <c r="C723" s="15"/>
-      <c r="D723" s="16" t="s">
+      <c r="C723" s="15" t="s">
         <v>503</v>
       </c>
+      <c r="D723" s="16"/>
       <c r="E723" s="15"/>
       <c r="F723" s="15"/>
       <c r="G723" s="15"/>
@@ -9379,7 +9899,9 @@
     <row r="724" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A724" s="14"/>
       <c r="B724" s="15"/>
-      <c r="C724" s="15"/>
+      <c r="C724" s="15" t="s">
+        <v>504</v>
+      </c>
       <c r="D724" s="16"/>
       <c r="E724" s="15"/>
       <c r="F724" s="15"/>
@@ -9392,10 +9914,10 @@
     <row r="725" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A725" s="14"/>
       <c r="B725" s="15"/>
-      <c r="C725" s="15" t="s">
-        <v>504</v>
-      </c>
-      <c r="D725" s="16"/>
+      <c r="C725" s="15"/>
+      <c r="D725" s="16" t="s">
+        <v>482</v>
+      </c>
       <c r="E725" s="15"/>
       <c r="F725" s="15"/>
       <c r="G725" s="15"/>
@@ -9407,10 +9929,10 @@
     <row r="726" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A726" s="14"/>
       <c r="B726" s="15"/>
-      <c r="C726" s="15" t="s">
+      <c r="C726" s="15"/>
+      <c r="D726" s="16" t="s">
         <v>505</v>
       </c>
-      <c r="D726" s="16"/>
       <c r="E726" s="15"/>
       <c r="F726" s="15"/>
       <c r="G726" s="15"/>
@@ -9422,9 +9944,7 @@
     <row r="727" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A727" s="14"/>
       <c r="B727" s="15"/>
-      <c r="C727" s="15" t="s">
-        <v>506</v>
-      </c>
+      <c r="C727" s="15"/>
       <c r="D727" s="16"/>
       <c r="E727" s="15"/>
       <c r="F727" s="15"/>
@@ -9438,7 +9958,7 @@
       <c r="A728" s="14"/>
       <c r="B728" s="15"/>
       <c r="C728" s="15" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D728" s="16"/>
       <c r="E728" s="15"/>
@@ -9452,10 +9972,10 @@
     <row r="729" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A729" s="14"/>
       <c r="B729" s="15"/>
-      <c r="C729" s="15"/>
-      <c r="D729" s="16" t="s">
-        <v>58</v>
-      </c>
+      <c r="C729" s="15" t="s">
+        <v>507</v>
+      </c>
+      <c r="D729" s="16"/>
       <c r="E729" s="15"/>
       <c r="F729" s="15"/>
       <c r="G729" s="15"/>
@@ -9467,10 +9987,10 @@
     <row r="730" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A730" s="14"/>
       <c r="B730" s="15"/>
-      <c r="C730" s="15"/>
-      <c r="D730" s="16" t="s">
+      <c r="C730" s="15" t="s">
         <v>508</v>
       </c>
+      <c r="D730" s="16"/>
       <c r="E730" s="15"/>
       <c r="F730" s="15"/>
       <c r="G730" s="15"/>
@@ -9482,7 +10002,9 @@
     <row r="731" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A731" s="14"/>
       <c r="B731" s="15"/>
-      <c r="C731" s="15"/>
+      <c r="C731" s="15" t="s">
+        <v>509</v>
+      </c>
       <c r="D731" s="16"/>
       <c r="E731" s="15"/>
       <c r="F731" s="15"/>
@@ -9495,10 +10017,10 @@
     <row r="732" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A732" s="14"/>
       <c r="B732" s="15"/>
-      <c r="C732" s="15" t="s">
-        <v>509</v>
-      </c>
-      <c r="D732" s="16"/>
+      <c r="C732" s="15"/>
+      <c r="D732" s="16" t="s">
+        <v>58</v>
+      </c>
       <c r="E732" s="15"/>
       <c r="F732" s="15"/>
       <c r="G732" s="15"/>
@@ -9510,10 +10032,10 @@
     <row r="733" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A733" s="14"/>
       <c r="B733" s="15"/>
-      <c r="C733" s="15" t="s">
+      <c r="C733" s="15"/>
+      <c r="D733" s="16" t="s">
         <v>510</v>
       </c>
-      <c r="D733" s="16"/>
       <c r="E733" s="15"/>
       <c r="F733" s="15"/>
       <c r="G733" s="15"/>
@@ -9526,9 +10048,7 @@
       <c r="A734" s="14"/>
       <c r="B734" s="15"/>
       <c r="C734" s="15"/>
-      <c r="D734" s="16" t="s">
-        <v>511</v>
-      </c>
+      <c r="D734" s="16"/>
       <c r="E734" s="15"/>
       <c r="F734" s="15"/>
       <c r="G734" s="15"/>
@@ -9540,10 +10060,10 @@
     <row r="735" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A735" s="14"/>
       <c r="B735" s="15"/>
-      <c r="C735" s="15"/>
-      <c r="D735" s="16" t="s">
-        <v>512</v>
-      </c>
+      <c r="C735" s="15" t="s">
+        <v>511</v>
+      </c>
+      <c r="D735" s="16"/>
       <c r="E735" s="15"/>
       <c r="F735" s="15"/>
       <c r="G735" s="15"/>
@@ -9555,7 +10075,9 @@
     <row r="736" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A736" s="14"/>
       <c r="B736" s="15"/>
-      <c r="C736" s="15"/>
+      <c r="C736" s="15" t="s">
+        <v>512</v>
+      </c>
       <c r="D736" s="16"/>
       <c r="E736" s="15"/>
       <c r="F736" s="15"/>
@@ -9568,10 +10090,10 @@
     <row r="737" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A737" s="14"/>
       <c r="B737" s="15"/>
-      <c r="C737" s="15" t="s">
-        <v>509</v>
-      </c>
-      <c r="D737" s="16"/>
+      <c r="C737" s="15"/>
+      <c r="D737" s="16" t="s">
+        <v>513</v>
+      </c>
       <c r="E737" s="15"/>
       <c r="F737" s="15"/>
       <c r="G737" s="15"/>
@@ -9583,10 +10105,10 @@
     <row r="738" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A738" s="14"/>
       <c r="B738" s="15"/>
-      <c r="C738" s="15" t="s">
-        <v>513</v>
-      </c>
-      <c r="D738" s="16"/>
+      <c r="C738" s="15"/>
+      <c r="D738" s="16" t="s">
+        <v>514</v>
+      </c>
       <c r="E738" s="15"/>
       <c r="F738" s="15"/>
       <c r="G738" s="15"/>
@@ -9598,9 +10120,7 @@
     <row r="739" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A739" s="14"/>
       <c r="B739" s="15"/>
-      <c r="C739" s="15" t="s">
-        <v>514</v>
-      </c>
+      <c r="C739" s="15"/>
       <c r="D739" s="16"/>
       <c r="E739" s="15"/>
       <c r="F739" s="15"/>
@@ -9613,10 +10133,10 @@
     <row r="740" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A740" s="14"/>
       <c r="B740" s="15"/>
-      <c r="C740" s="15"/>
-      <c r="D740" s="16" t="s">
-        <v>515</v>
-      </c>
+      <c r="C740" s="15" t="s">
+        <v>511</v>
+      </c>
+      <c r="D740" s="16"/>
       <c r="E740" s="15"/>
       <c r="F740" s="15"/>
       <c r="G740" s="15"/>
@@ -9628,10 +10148,10 @@
     <row r="741" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A741" s="14"/>
       <c r="B741" s="15"/>
-      <c r="C741" s="15"/>
-      <c r="D741" s="16" t="s">
-        <v>516</v>
-      </c>
+      <c r="C741" s="15" t="s">
+        <v>515</v>
+      </c>
+      <c r="D741" s="16"/>
       <c r="E741" s="15"/>
       <c r="F741" s="15"/>
       <c r="G741" s="15"/>
@@ -9643,7 +10163,9 @@
     <row r="742" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A742" s="14"/>
       <c r="B742" s="15"/>
-      <c r="C742" s="15"/>
+      <c r="C742" s="15" t="s">
+        <v>516</v>
+      </c>
       <c r="D742" s="16"/>
       <c r="E742" s="15"/>
       <c r="F742" s="15"/>
@@ -9654,61 +10176,94 @@
       <c r="K742" s="15"/>
     </row>
     <row r="743" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A743" s="17" t="s">
+      <c r="A743" s="14"/>
+      <c r="B743" s="15"/>
+      <c r="C743" s="15"/>
+      <c r="D743" s="16" t="s">
         <v>517</v>
       </c>
-      <c r="B743" s="18"/>
-      <c r="C743" s="18"/>
-      <c r="D743" s="18"/>
-      <c r="E743" s="18"/>
-      <c r="F743" s="18"/>
-      <c r="G743" s="18"/>
-      <c r="H743" s="18"/>
-      <c r="I743" s="18"/>
-      <c r="J743" s="18"/>
-      <c r="K743" s="19"/>
-    </row>
-    <row r="744" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B744" s="2" t="s">
+      <c r="E743" s="15"/>
+      <c r="F743" s="15"/>
+      <c r="G743" s="15"/>
+      <c r="H743" s="15"/>
+      <c r="I743" s="15"/>
+      <c r="J743" s="15"/>
+      <c r="K743" s="15"/>
+    </row>
+    <row r="744" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A744" s="14"/>
+      <c r="B744" s="15"/>
+      <c r="C744" s="15"/>
+      <c r="D744" s="16" t="s">
         <v>518</v>
       </c>
-    </row>
-    <row r="745" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B745" s="2" t="s">
+      <c r="E744" s="15"/>
+      <c r="F744" s="15"/>
+      <c r="G744" s="15"/>
+      <c r="H744" s="15"/>
+      <c r="I744" s="15"/>
+      <c r="J744" s="15"/>
+      <c r="K744" s="15"/>
+    </row>
+    <row r="745" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A745" s="14"/>
+      <c r="B745" s="15"/>
+      <c r="C745" s="15"/>
+      <c r="D745" s="16"/>
+      <c r="E745" s="15"/>
+      <c r="F745" s="15"/>
+      <c r="G745" s="15"/>
+      <c r="H745" s="15"/>
+      <c r="I745" s="15"/>
+      <c r="J745" s="15"/>
+      <c r="K745" s="15"/>
+    </row>
+    <row r="746" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A746" s="17" t="s">
         <v>519</v>
       </c>
-    </row>
-    <row r="747" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B747" s="20" t="s">
+      <c r="B746" s="18"/>
+      <c r="C746" s="18"/>
+      <c r="D746" s="18"/>
+      <c r="E746" s="18"/>
+      <c r="F746" s="18"/>
+      <c r="G746" s="18"/>
+      <c r="H746" s="18"/>
+      <c r="I746" s="18"/>
+      <c r="J746" s="18"/>
+      <c r="K746" s="19"/>
+    </row>
+    <row r="747" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B747" s="2" t="s">
         <v>520</v>
       </c>
-      <c r="C747" s="20"/>
-      <c r="D747" s="21"/>
-      <c r="E747" s="20"/>
-      <c r="F747" s="20"/>
-      <c r="G747" s="20"/>
-      <c r="H747" s="20"/>
-      <c r="I747" s="20"/>
-      <c r="J747" s="20"/>
-      <c r="K747" s="22"/>
     </row>
     <row r="748" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C748" s="2" t="s">
+      <c r="B748" s="2" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="749" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C749" s="2" t="s">
+    <row r="750" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B750" s="20" t="s">
         <v>522</v>
       </c>
-    </row>
-    <row r="750" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C750" s="2" t="s">
-        <v>523</v>
-      </c>
+      <c r="C750" s="20"/>
+      <c r="D750" s="21"/>
+      <c r="E750" s="20"/>
+      <c r="F750" s="20"/>
+      <c r="G750" s="20"/>
+      <c r="H750" s="20"/>
+      <c r="I750" s="20"/>
+      <c r="J750" s="20"/>
+      <c r="K750" s="22"/>
     </row>
     <row r="751" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C751" s="2" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="752" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C752" s="2" t="s">
         <v>524</v>
       </c>
     </row>
@@ -9718,22 +10273,22 @@
       </c>
     </row>
     <row r="754" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D754" s="3" t="s">
-        <v>108</v>
+      <c r="C754" s="2" t="s">
+        <v>526</v>
       </c>
     </row>
     <row r="756" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C756" s="2" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="757" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C757" s="2" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="758" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D758" s="3" t="s">
+      <c r="D757" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="759" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C759" s="2" t="s">
         <v>528</v>
       </c>
     </row>
@@ -9744,73 +10299,73 @@
     </row>
     <row r="761" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D761" s="3" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="762" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D762" s="3" t="s">
-        <v>121</v>
+        <v>530</v>
+      </c>
+    </row>
+    <row r="763" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C763" s="2" t="s">
+        <v>531</v>
       </c>
     </row>
     <row r="764" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C764" s="2" t="s">
-        <v>530</v>
+      <c r="D764" s="3" t="s">
+        <v>490</v>
       </c>
     </row>
     <row r="765" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D765" s="3" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="766" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D766" s="3" t="s">
-        <v>119</v>
+        <v>123</v>
+      </c>
+    </row>
+    <row r="767" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C767" s="2" t="s">
+        <v>532</v>
       </c>
     </row>
     <row r="768" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C768" s="2" t="s">
-        <v>531</v>
+      <c r="D768" s="3" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="769" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C769" s="2" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="770" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D770" s="3" t="s">
+      <c r="D769" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="771" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C771" s="2" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="771" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D771" s="3" t="s">
+    <row r="772" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C772" s="2" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="773" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C773" s="2" t="s">
+    <row r="773" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D773" s="3" t="s">
         <v>535</v>
       </c>
-      <c r="D773" s="0"/>
     </row>
     <row r="774" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D774" s="3" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="776" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="776" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C776" s="2" t="s">
         <v>537</v>
       </c>
+      <c r="D776" s="0"/>
     </row>
     <row r="777" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D777" s="3" t="s">
-        <v>128</v>
+        <v>538</v>
       </c>
     </row>
     <row r="779" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C779" s="2" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="780" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9818,32 +10373,32 @@
         <v>130</v>
       </c>
     </row>
-    <row r="782" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B782" s="20" t="s">
-        <v>539</v>
-      </c>
-      <c r="C782" s="20"/>
-      <c r="D782" s="21"/>
-      <c r="E782" s="20"/>
-      <c r="F782" s="20"/>
-      <c r="G782" s="20"/>
-      <c r="H782" s="20"/>
-      <c r="I782" s="20"/>
-      <c r="J782" s="20"/>
-      <c r="K782" s="22"/>
+    <row r="782" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C782" s="2" t="s">
+        <v>540</v>
+      </c>
     </row>
     <row r="783" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C783" s="2" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="784" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C784" s="2" t="s">
+      <c r="D783" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="785" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B785" s="20" t="s">
         <v>541</v>
       </c>
-    </row>
-    <row r="785" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C785" s="2" t="s">
+      <c r="C785" s="20"/>
+      <c r="D785" s="21"/>
+      <c r="E785" s="20"/>
+      <c r="F785" s="20"/>
+      <c r="G785" s="20"/>
+      <c r="H785" s="20"/>
+      <c r="I785" s="20"/>
+      <c r="J785" s="20"/>
+      <c r="K785" s="22"/>
+    </row>
+    <row r="786" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C786" s="2" t="s">
         <v>542</v>
       </c>
     </row>
@@ -9853,22 +10408,22 @@
       </c>
     </row>
     <row r="788" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D788" s="3" t="s">
-        <v>12</v>
+      <c r="C788" s="2" t="s">
+        <v>544</v>
       </c>
     </row>
     <row r="790" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C790" s="2" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="791" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C791" s="2" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="792" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C792" s="2" t="s">
+      <c r="D791" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="793" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C793" s="2" t="s">
         <v>546</v>
       </c>
     </row>
@@ -9882,123 +10437,123 @@
         <v>548</v>
       </c>
     </row>
-    <row r="796" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D796" s="3" t="s">
-        <v>126</v>
-      </c>
-    </row>
     <row r="797" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C797" s="2" t="s">
         <v>549</v>
       </c>
     </row>
     <row r="798" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D798" s="3" t="s">
+      <c r="C798" s="2" t="s">
         <v>550</v>
       </c>
     </row>
     <row r="799" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C799" s="2" t="s">
+      <c r="D799" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="800" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C800" s="2" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="800" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D800" s="3" t="s">
+    <row r="801" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D801" s="3" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="801" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C801" s="2" t="s">
+    <row r="802" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C802" s="2" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="802" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D802" s="3" t="s">
+    <row r="803" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D803" s="3" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="803" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C803" s="2" t="s">
+    <row r="804" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C804" s="2" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="804" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D804" s="3" t="s">
+    <row r="805" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D805" s="3" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="805" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C805" s="2" t="s">
+    <row r="806" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C806" s="2" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="807" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B807" s="20" t="s">
+    <row r="807" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D807" s="3" t="s">
         <v>558</v>
       </c>
-      <c r="C807" s="20"/>
-      <c r="D807" s="21"/>
-      <c r="E807" s="20"/>
-      <c r="F807" s="20"/>
-      <c r="G807" s="20"/>
-      <c r="H807" s="20"/>
-      <c r="I807" s="20"/>
-      <c r="J807" s="20"/>
-      <c r="K807" s="22"/>
     </row>
     <row r="808" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C808" s="2" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="809" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C809" s="2" t="s">
+    <row r="810" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B810" s="20" t="s">
         <v>560</v>
       </c>
-    </row>
-    <row r="810" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C810" s="2" t="s">
+      <c r="C810" s="20"/>
+      <c r="D810" s="21"/>
+      <c r="E810" s="20"/>
+      <c r="F810" s="20"/>
+      <c r="G810" s="20"/>
+      <c r="H810" s="20"/>
+      <c r="I810" s="20"/>
+      <c r="J810" s="20"/>
+      <c r="K810" s="22"/>
+    </row>
+    <row r="811" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C811" s="2" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="811" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C811" s="3" t="s">
+    <row r="812" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C812" s="2" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="812" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C812" s="3" t="s">
+    <row r="813" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C813" s="2" t="s">
         <v>563</v>
-      </c>
-    </row>
-    <row r="813" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C813" s="3" t="s">
-        <v>564</v>
       </c>
     </row>
     <row r="814" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C814" s="3" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="815" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C815" s="3" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="815" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C815" s="3"/>
-      <c r="D815" s="3" t="s">
+    <row r="816" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C816" s="3" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="816" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C816" s="3"/>
-    </row>
-    <row r="817" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C817" s="2" t="s">
+    <row r="817" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C817" s="3" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="818" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="818" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C818" s="3"/>
       <c r="D818" s="3" t="s">
         <v>568</v>
       </c>
+    </row>
+    <row r="819" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C819" s="3"/>
     </row>
     <row r="820" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C820" s="2" t="s">
@@ -10006,67 +10561,67 @@
       </c>
     </row>
     <row r="821" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C821" s="2" t="s">
+      <c r="D821" s="3" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="822" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C822" s="2" t="s">
+    <row r="823" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C823" s="2" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="823" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D823" s="3" t="s">
+    <row r="824" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C824" s="2" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="825" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C825" s="2" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="826" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D826" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="824" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D824" s="3" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="826" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C826" s="2" t="s">
-        <v>573</v>
-      </c>
-    </row>
     <row r="827" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C827" s="2" t="s">
+      <c r="D827" s="3" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="828" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D828" s="3" t="s">
+    <row r="829" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C829" s="2" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="830" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B830" s="20" t="s">
+    <row r="830" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C830" s="2" t="s">
         <v>576</v>
       </c>
-      <c r="C830" s="20"/>
-      <c r="D830" s="21"/>
-      <c r="E830" s="20"/>
-      <c r="F830" s="20"/>
-      <c r="G830" s="20"/>
-      <c r="H830" s="20"/>
-      <c r="I830" s="20"/>
-      <c r="J830" s="20"/>
-      <c r="K830" s="22"/>
     </row>
     <row r="831" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C831" s="2" t="s">
+      <c r="D831" s="3" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="832" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D832" s="3" t="s">
-        <v>108</v>
-      </c>
+    <row r="833" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B833" s="20" t="s">
+        <v>578</v>
+      </c>
+      <c r="C833" s="20"/>
+      <c r="D833" s="21"/>
+      <c r="E833" s="20"/>
+      <c r="F833" s="20"/>
+      <c r="G833" s="20"/>
+      <c r="H833" s="20"/>
+      <c r="I833" s="20"/>
+      <c r="J833" s="20"/>
+      <c r="K833" s="22"/>
     </row>
     <row r="834" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C834" s="2" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="835" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10076,7 +10631,7 @@
     </row>
     <row r="837" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C837" s="2" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="838" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10086,7 +10641,7 @@
     </row>
     <row r="840" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C840" s="2" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="841" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10096,17 +10651,17 @@
     </row>
     <row r="843" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C843" s="2" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="844" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D844" s="3" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
     </row>
     <row r="846" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C846" s="2" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="847" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10114,47 +10669,47 @@
         <v>130</v>
       </c>
     </row>
-    <row r="849" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B849" s="20" t="s">
-        <v>583</v>
-      </c>
-      <c r="C849" s="20"/>
-      <c r="D849" s="21"/>
-      <c r="E849" s="20"/>
-      <c r="F849" s="20"/>
-      <c r="G849" s="20"/>
-      <c r="H849" s="20"/>
-      <c r="I849" s="20"/>
-      <c r="J849" s="20"/>
-      <c r="K849" s="22"/>
+    <row r="849" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C849" s="2" t="s">
+        <v>584</v>
+      </c>
     </row>
     <row r="850" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C850" s="2" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="851" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C851" s="2" t="s">
+      <c r="D850" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="852" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B852" s="20" t="s">
         <v>585</v>
       </c>
-    </row>
-    <row r="852" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D852" s="3" t="s">
+      <c r="C852" s="20"/>
+      <c r="D852" s="21"/>
+      <c r="E852" s="20"/>
+      <c r="F852" s="20"/>
+      <c r="G852" s="20"/>
+      <c r="H852" s="20"/>
+      <c r="I852" s="20"/>
+      <c r="J852" s="20"/>
+      <c r="K852" s="22"/>
+    </row>
+    <row r="853" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C853" s="2" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="854" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="854" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C854" s="2" t="s">
         <v>587</v>
       </c>
     </row>
     <row r="855" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C855" s="2" t="s">
+      <c r="D855" s="3" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="856" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D856" s="3" t="s">
+    <row r="857" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C857" s="2" t="s">
         <v>589</v>
       </c>
     </row>
@@ -10163,179 +10718,170 @@
         <v>590</v>
       </c>
     </row>
-    <row r="859" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C859" s="3" t="s">
+    <row r="859" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D859" s="3" t="s">
         <v>591</v>
       </c>
-      <c r="D859" s="3" t="s">
+    </row>
+    <row r="861" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C861" s="2" t="s">
         <v>592</v>
       </c>
-      <c r="E859" s="2" t="s">
+    </row>
+    <row r="862" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C862" s="3" t="s">
         <v>593</v>
       </c>
-    </row>
-    <row r="860" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C860" s="3" t="s">
+      <c r="D862" s="3" t="s">
         <v>594</v>
       </c>
-      <c r="D860" s="3" t="s">
+      <c r="E862" s="2" t="s">
         <v>595</v>
       </c>
-      <c r="E860" s="2" t="s">
+    </row>
+    <row r="863" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C863" s="3" t="s">
         <v>596</v>
       </c>
-    </row>
-    <row r="861" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C861" s="3" t="s">
+      <c r="D863" s="3" t="s">
         <v>597</v>
       </c>
-      <c r="D861" s="3" t="s">
+      <c r="E863" s="2" t="s">
         <v>598</v>
       </c>
-      <c r="E861" s="2" t="s">
+    </row>
+    <row r="864" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C864" s="3" t="s">
         <v>599</v>
       </c>
-    </row>
-    <row r="863" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A863" s="17" t="s">
+      <c r="D864" s="3" t="s">
         <v>600</v>
       </c>
-      <c r="B863" s="18"/>
-      <c r="C863" s="18"/>
-      <c r="D863" s="18"/>
-      <c r="E863" s="18"/>
-      <c r="F863" s="18"/>
-      <c r="G863" s="18"/>
-      <c r="H863" s="18"/>
-      <c r="I863" s="18"/>
-      <c r="J863" s="18"/>
-      <c r="K863" s="19"/>
-    </row>
-    <row r="864" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B864" s="2" t="s">
+      <c r="E864" s="2" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="865" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B865" s="2" t="s">
+    <row r="866" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A866" s="17" t="s">
         <v>602</v>
       </c>
-    </row>
-    <row r="866" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B866" s="2" t="s">
-        <v>603</v>
-      </c>
+      <c r="B866" s="18"/>
+      <c r="C866" s="18"/>
+      <c r="D866" s="18"/>
+      <c r="E866" s="18"/>
+      <c r="F866" s="18"/>
+      <c r="G866" s="18"/>
+      <c r="H866" s="18"/>
+      <c r="I866" s="18"/>
+      <c r="J866" s="18"/>
+      <c r="K866" s="19"/>
     </row>
     <row r="867" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B867" s="2" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="868" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B868" s="2" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="869" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B869" s="2" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="870" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B870" s="20" t="s">
+    <row r="870" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B870" s="2" t="s">
         <v>606</v>
       </c>
-      <c r="C870" s="20"/>
-      <c r="D870" s="21"/>
-      <c r="E870" s="20"/>
-      <c r="F870" s="20"/>
-      <c r="G870" s="20"/>
-      <c r="H870" s="20"/>
-      <c r="I870" s="20"/>
-      <c r="J870" s="20"/>
-      <c r="K870" s="22"/>
     </row>
     <row r="871" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C871" s="2" t="s">
+      <c r="B871" s="2" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="872" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D872" s="3" t="s">
-        <v>67</v>
-      </c>
+    <row r="873" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B873" s="20" t="s">
+        <v>608</v>
+      </c>
+      <c r="C873" s="20"/>
+      <c r="D873" s="21"/>
+      <c r="E873" s="20"/>
+      <c r="F873" s="20"/>
+      <c r="G873" s="20"/>
+      <c r="H873" s="20"/>
+      <c r="I873" s="20"/>
+      <c r="J873" s="20"/>
+      <c r="K873" s="22"/>
     </row>
     <row r="874" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C874" s="2" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="875" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D875" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="877" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C877" s="2" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="878" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D878" s="3" t="s">
         <v>69</v>
-      </c>
-    </row>
-    <row r="876" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="877" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C877" s="2" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="878" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D878" s="3" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="879" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="880" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B880" s="20" t="s">
-        <v>610</v>
-      </c>
-      <c r="C880" s="20"/>
-      <c r="D880" s="21"/>
-      <c r="E880" s="20"/>
-      <c r="F880" s="20"/>
-      <c r="G880" s="20"/>
-      <c r="H880" s="20"/>
-      <c r="I880" s="20"/>
-      <c r="J880" s="20"/>
-      <c r="K880" s="22"/>
-    </row>
-    <row r="881" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C881" s="2" t="s">
+      <c r="C880" s="2" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="882" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D882" s="3" t="s">
+    <row r="881" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D881" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="882" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="883" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B883" s="20" t="s">
         <v>612</v>
       </c>
+      <c r="C883" s="20"/>
+      <c r="D883" s="21"/>
+      <c r="E883" s="20"/>
+      <c r="F883" s="20"/>
+      <c r="G883" s="20"/>
+      <c r="H883" s="20"/>
+      <c r="I883" s="20"/>
+      <c r="J883" s="20"/>
+      <c r="K883" s="22"/>
     </row>
     <row r="884" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C884" s="2" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="885" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C885" s="2" t="s">
+    <row r="885" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D885" s="3" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="886" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D886" s="3" t="s">
+    <row r="887" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C887" s="2" t="s">
         <v>615</v>
       </c>
     </row>
     <row r="888" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B888" s="20" t="s">
+      <c r="C888" s="2" t="s">
         <v>616</v>
       </c>
-      <c r="C888" s="20"/>
-      <c r="D888" s="21"/>
-      <c r="E888" s="20"/>
-      <c r="F888" s="20"/>
-      <c r="G888" s="20"/>
-      <c r="H888" s="20"/>
-      <c r="I888" s="20"/>
-      <c r="J888" s="20"/>
-      <c r="K888" s="22"/>
-    </row>
-    <row r="889" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="889" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C889" s="2" t="s">
         <v>617</v>
       </c>
@@ -10345,17 +10891,845 @@
         <v>618</v>
       </c>
     </row>
-    <row r="892" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C892" s="2" t="s">
+    <row r="892" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B892" s="20" t="s">
         <v>619</v>
       </c>
+      <c r="C892" s="20"/>
+      <c r="D892" s="21"/>
+      <c r="E892" s="20"/>
+      <c r="F892" s="20"/>
+      <c r="G892" s="20"/>
+      <c r="H892" s="20"/>
+      <c r="I892" s="20"/>
+      <c r="J892" s="20"/>
+      <c r="K892" s="22"/>
     </row>
     <row r="893" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D893" s="3" t="s">
+      <c r="C893" s="2" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="894" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D894" s="3" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="896" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C896" s="2" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="897" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D897" s="3" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="899" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B899" s="20" t="s">
+        <v>623</v>
+      </c>
+      <c r="C899" s="20"/>
+      <c r="D899" s="21"/>
+      <c r="E899" s="20"/>
+      <c r="F899" s="20"/>
+      <c r="G899" s="20"/>
+      <c r="H899" s="20"/>
+      <c r="I899" s="20"/>
+      <c r="J899" s="20"/>
+      <c r="K899" s="22"/>
+    </row>
+    <row r="900" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C900" s="2" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="901" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C901" s="2" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="902" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C902" s="2" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="903" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D903" s="3" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="904" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D904" s="3" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="905" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D905" s="3" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="906" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="907" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C907" s="2" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="908" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C908" s="2" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="909" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C909" s="2" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="910" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C910" s="2" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="911" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D911" s="3" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="912" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D912" s="3" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="914" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B914" s="20" t="s">
+        <v>636</v>
+      </c>
+      <c r="C914" s="20"/>
+      <c r="D914" s="21"/>
+      <c r="E914" s="20"/>
+      <c r="F914" s="20"/>
+      <c r="G914" s="20"/>
+      <c r="H914" s="20"/>
+      <c r="I914" s="20"/>
+      <c r="J914" s="20"/>
+      <c r="K914" s="22"/>
+    </row>
+    <row r="915" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C915" s="2" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="916" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D916" s="3" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="917" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="918" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C918" s="2" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="919" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D919" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="920" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="921" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C921" s="2" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="922" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D922" s="3" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="923" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="924" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C924" s="2" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="925" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C925" s="2" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="926" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C926" s="2" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="927" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D927" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="929" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C929" s="2" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="930" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D930" s="3" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="932" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C932" s="2" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="933" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C933" s="2" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="934" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C934" s="2" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="935" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D935" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="937" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B937" s="20" t="s">
+        <v>651</v>
+      </c>
+      <c r="C937" s="20"/>
+      <c r="D937" s="21"/>
+      <c r="E937" s="20"/>
+      <c r="F937" s="20"/>
+      <c r="G937" s="20"/>
+      <c r="H937" s="20"/>
+      <c r="I937" s="20"/>
+      <c r="J937" s="20"/>
+      <c r="K937" s="22"/>
+    </row>
+    <row r="938" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C938" s="2" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="939" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C939" s="2" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="940" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C940" s="2" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="941" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C941" s="2" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="942" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C942" s="2" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="943" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C943" s="2" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="944" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F944" s="2" t="s">
+        <v>658</v>
+      </c>
+      <c r="J944" s="2" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="945" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C945" s="32"/>
+      <c r="D945" s="33"/>
+      <c r="E945" s="32"/>
+      <c r="F945" s="32"/>
+      <c r="G945" s="34"/>
+      <c r="H945" s="35"/>
+      <c r="I945" s="35"/>
+      <c r="J945" s="35"/>
+    </row>
+    <row r="946" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J946" s="2" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="948" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C948" s="2" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="949" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D949" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="950" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D950" s="3" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="952" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C952" s="2" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="953" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D953" s="3" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="955" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C955" s="2" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="956" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C956" s="2" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="957" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D957" s="3" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="958" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D958" s="3" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="959" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D959" s="3" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="961" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C961" s="2" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="962" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C962" s="2" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="963" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D963" s="3" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="965" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B965" s="20" t="s">
+        <v>672</v>
+      </c>
+      <c r="C965" s="20"/>
+      <c r="D965" s="21"/>
+      <c r="E965" s="20"/>
+      <c r="F965" s="20"/>
+      <c r="G965" s="20"/>
+      <c r="H965" s="20"/>
+      <c r="I965" s="20"/>
+      <c r="J965" s="20"/>
+      <c r="K965" s="22"/>
+    </row>
+    <row r="966" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C966" s="2" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="967" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C967" s="2" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="968" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D968" s="3" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="969" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D969" s="3" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="971" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C971" s="2" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="973" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B973" s="20" t="s">
+        <v>678</v>
+      </c>
+      <c r="C973" s="20"/>
+      <c r="D973" s="21"/>
+      <c r="E973" s="20"/>
+      <c r="F973" s="20"/>
+      <c r="G973" s="20"/>
+      <c r="H973" s="20"/>
+      <c r="I973" s="20"/>
+      <c r="J973" s="20"/>
+      <c r="K973" s="22"/>
+    </row>
+    <row r="974" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C974" s="2" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="975" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C975" s="2" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="976" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D976" s="3" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="979" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A979" s="17" t="s">
+        <v>682</v>
+      </c>
+      <c r="B979" s="18"/>
+      <c r="C979" s="18"/>
+      <c r="D979" s="18"/>
+      <c r="E979" s="18"/>
+      <c r="F979" s="18"/>
+      <c r="G979" s="18"/>
+      <c r="H979" s="18"/>
+      <c r="I979" s="18"/>
+      <c r="J979" s="18"/>
+      <c r="K979" s="19"/>
+    </row>
+    <row r="980" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B980" s="2" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="982" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B982" s="20" t="s">
+        <v>684</v>
+      </c>
+      <c r="C982" s="20"/>
+      <c r="D982" s="21"/>
+      <c r="E982" s="20"/>
+      <c r="F982" s="20"/>
+      <c r="G982" s="20"/>
+      <c r="H982" s="20"/>
+      <c r="I982" s="20"/>
+      <c r="J982" s="20"/>
+      <c r="K982" s="22"/>
+    </row>
+    <row r="983" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C983" s="2" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="984" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D984" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="986" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C986" s="2" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="987" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D987" s="3" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="989" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C989" s="2" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="990" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C990" s="2" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="991" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C991" s="2" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="992" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D992" s="3" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="993" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C993" s="0"/>
+    </row>
+    <row r="994" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C994" s="2" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="995" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D995" s="3" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="997" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B997" s="20" t="s">
+        <v>694</v>
+      </c>
+      <c r="C997" s="20"/>
+      <c r="D997" s="21"/>
+      <c r="E997" s="20"/>
+      <c r="F997" s="20"/>
+      <c r="G997" s="20"/>
+      <c r="H997" s="20"/>
+      <c r="I997" s="20"/>
+      <c r="J997" s="20"/>
+      <c r="K997" s="22"/>
+    </row>
+    <row r="998" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C998" s="2" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="999" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D999" s="3" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="1001" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C1001" s="2" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="1002" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1002" s="3" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="1004" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1004" s="20" t="s">
+        <v>699</v>
+      </c>
+      <c r="C1004" s="20"/>
+      <c r="D1004" s="21"/>
+      <c r="E1004" s="20"/>
+      <c r="F1004" s="20"/>
+      <c r="G1004" s="20"/>
+      <c r="H1004" s="20"/>
+      <c r="I1004" s="20"/>
+      <c r="J1004" s="20"/>
+      <c r="K1004" s="22"/>
+    </row>
+    <row r="1005" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C1005" s="2" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="1006" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C1006" s="2" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="1007" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1007" s="3" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="1009" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1009" s="20" t="s">
+        <v>703</v>
+      </c>
+      <c r="C1009" s="20"/>
+      <c r="D1009" s="21"/>
+      <c r="E1009" s="20"/>
+      <c r="F1009" s="20"/>
+      <c r="G1009" s="20"/>
+      <c r="H1009" s="20"/>
+      <c r="I1009" s="20"/>
+      <c r="J1009" s="20"/>
+      <c r="K1009" s="22"/>
+    </row>
+    <row r="1010" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C1010" s="2" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="1011" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C1011" s="2" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="1012" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C1012" s="2" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="1013" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1013" s="3" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="1015" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1015" s="20" t="s">
+        <v>708</v>
+      </c>
+      <c r="C1015" s="20"/>
+      <c r="D1015" s="21"/>
+      <c r="E1015" s="20"/>
+      <c r="F1015" s="20"/>
+      <c r="G1015" s="20"/>
+      <c r="H1015" s="20"/>
+      <c r="I1015" s="20"/>
+      <c r="J1015" s="20"/>
+      <c r="K1015" s="22"/>
+    </row>
+    <row r="1016" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C1016" s="2" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="1017" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1017" s="3" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="1019" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C1019" s="2" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="1020" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1020" s="3" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="1022" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1022" s="20" t="s">
+        <v>713</v>
+      </c>
+      <c r="C1022" s="20"/>
+      <c r="D1022" s="21"/>
+      <c r="E1022" s="20"/>
+      <c r="F1022" s="20"/>
+      <c r="G1022" s="20"/>
+      <c r="H1022" s="20"/>
+      <c r="I1022" s="20"/>
+      <c r="J1022" s="20"/>
+      <c r="K1022" s="22"/>
+    </row>
+    <row r="1023" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C1023" s="2" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="1024" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C1024" s="2" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="1025" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1025" s="3" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="1027" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C1027" s="2" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="1028" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C1028" s="2" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="1029" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1029" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="1031" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C1031" s="2" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="1032" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C1032" s="2" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="1033" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1033" s="3" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="1034" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1034" s="3" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="1036" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1036" s="20" t="s">
+        <v>723</v>
+      </c>
+      <c r="C1036" s="20"/>
+      <c r="D1036" s="21"/>
+      <c r="E1036" s="20"/>
+      <c r="F1036" s="20"/>
+      <c r="G1036" s="20"/>
+      <c r="H1036" s="20"/>
+      <c r="I1036" s="20"/>
+      <c r="J1036" s="20"/>
+      <c r="K1036" s="22"/>
+    </row>
+    <row r="1037" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C1037" s="2" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="1038" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1038" s="3" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="1040" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C1040" s="2" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="1041" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1041" s="3" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="1042" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1042" s="3" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="1045" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1045" s="17" t="s">
+        <v>729</v>
+      </c>
+      <c r="B1045" s="18"/>
+      <c r="C1045" s="18"/>
+      <c r="D1045" s="18"/>
+      <c r="E1045" s="18"/>
+      <c r="F1045" s="18"/>
+      <c r="G1045" s="18"/>
+      <c r="H1045" s="18"/>
+      <c r="I1045" s="18"/>
+      <c r="J1045" s="18"/>
+      <c r="K1045" s="19"/>
+    </row>
+    <row r="1046" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1046" s="2" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="1047" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1047" s="2" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="1048" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1048" s="2" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="1049" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1049" s="2" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="1050" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1050" s="2" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="1051" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1051" s="2" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="1052" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C1052" s="3" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="1054" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C1054" s="2" t="s">
+        <v>737</v>
+      </c>
+      <c r="D1054" s="3" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="1055" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1055" s="3" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="1057" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1057" s="2" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="1058" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C1058" s="3" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="1059" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C1059" s="3"/>
+    </row>
+    <row r="1060" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C1060" s="2" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="1061" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C1061" s="2" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="1062" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E1062" s="2" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="1063" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E1063" s="2" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="1064" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1065" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C1065" s="2" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="1066" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C1066" s="2" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="1067" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E1067" s="2" t="s">
+        <v>748</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.511805555555555" footer="0.511805555555555"/>
@@ -10375,11 +11749,11 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -10398,11 +11772,11 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/git.xlsx
+++ b/git.xlsx
@@ -22,12 +22,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="749">
-  <si>
-    <t xml:space="preserve">CÁC LỆNH GIT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CẤU HÌNH VÀ KHỞI TẠO REPO</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="760">
+  <si>
+    <t xml:space="preserve">I - CÁC LỆNH GIT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 - CẤU HÌNH VÀ KHỞI TẠO REPO</t>
   </si>
   <si>
     <t xml:space="preserve">thiết lập tên người dùng</t>
@@ -54,7 +54,7 @@
     <t xml:space="preserve">git init --bare</t>
   </si>
   <si>
-    <t xml:space="preserve">LÀM VIỆC VỚI LOCAL REPOSITORY</t>
+    <t xml:space="preserve">2 - LÀM VIỆC VỚI LOCAL REPOSITORY</t>
   </si>
   <si>
     <t xml:space="preserve">trạng thái của Local Repository</t>
@@ -219,7 +219,7 @@
     <t xml:space="preserve">git clean -d -fx .</t>
   </si>
   <si>
-    <t xml:space="preserve">LÀM VIỆC VỚI REMOTE REPOSITORY</t>
+    <t xml:space="preserve">3 - LÀM VIỆC VỚI REMOTE REPOSITORY</t>
   </si>
   <si>
     <t xml:space="preserve">xem danh sách các Remote đang liên kết</t>
@@ -285,7 +285,7 @@
     <t xml:space="preserve">git config --global credential.helper cache</t>
   </si>
   <si>
-    <t xml:space="preserve">LÀM VIỆC VỚI TAG</t>
+    <t xml:space="preserve">4 - LÀM VIỆC VỚI TAG</t>
   </si>
   <si>
     <t xml:space="preserve">xem danh sách tag</t>
@@ -348,7 +348,7 @@
     <t xml:space="preserve">git tag -d &lt;tag_name&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">LÀM VIỆC VỚI BRANCH</t>
+    <t xml:space="preserve">5 - LÀM VIỆC VỚI BRANCH</t>
   </si>
   <si>
     <t xml:space="preserve">liệt kê các nhánh trong Local</t>
@@ -423,7 +423,7 @@
     <t xml:space="preserve">git branch -D &lt;branch_name&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">XÓA TOÀN BỘ LỊCH SỬ COMMIT</t>
+    <t xml:space="preserve">6 - XÓA TOÀN BỘ LỊCH SỬ COMMIT</t>
   </si>
   <si>
     <t xml:space="preserve">git checkout master</t>
@@ -444,10 +444,10 @@
     <t xml:space="preserve">git push -f origin master</t>
   </si>
   <si>
-    <t xml:space="preserve">BA TRẠNG THÁI CỦA FILE VỚI GIT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">modified</t>
+    <t xml:space="preserve">II - BA TRẠNG THÁI CỦA FILE VỚI GIT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 - modified</t>
   </si>
   <si>
     <t xml:space="preserve">ở trạng thái này, dữ liệu (file) có thay đổi nhưng chưa lưu trong</t>
@@ -456,7 +456,7 @@
     <t xml:space="preserve">database</t>
   </si>
   <si>
-    <t xml:space="preserve">staged</t>
+    <t xml:space="preserve">2 - staged</t>
   </si>
   <si>
     <t xml:space="preserve">ở trạng thái này, dữ liệu (file) đã được đánh dấu (tracked) sau </t>
@@ -468,7 +468,7 @@
     <t xml:space="preserve">vào database ( .git directory)</t>
   </si>
   <si>
-    <t xml:space="preserve">committed</t>
+    <t xml:space="preserve">3 - committed</t>
   </si>
   <si>
     <t xml:space="preserve">ở trạng thái này, dữ liệu (file) đã được lưu trữ sự thay đổi an</t>
@@ -477,10 +477,10 @@
     <t xml:space="preserve">toàn trong database ( .git directory)</t>
   </si>
   <si>
-    <t xml:space="preserve">BA KHU VỰC LÀM VIỆC TRONG GIT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Working tree</t>
+    <t xml:space="preserve">III - BA KHU VỰC LÀM VIỆC TRONG GIT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 - Working tree</t>
   </si>
   <si>
     <t xml:space="preserve">là thư mục làm việc trực tiếp, chứa bản sao phiên bản cụ thể của </t>
@@ -489,10 +489,13 @@
     <t xml:space="preserve">dự án</t>
   </si>
   <si>
+    <t xml:space="preserve">2 - Staging Area</t>
+  </si>
+  <si>
     <t xml:space="preserve">là 1 file, nằm trong thư mục .git, chứa thông tin chờ commit</t>
   </si>
   <si>
-    <t xml:space="preserve">.git Directory (Local Repository)</t>
+    <t xml:space="preserve">3 - .git Directory (Local Repository)</t>
   </si>
   <si>
     <t xml:space="preserve">nơi Git lưu Database các file metadata</t>
@@ -513,7 +516,7 @@
     <t xml:space="preserve">commit lên từ Staging Area</t>
   </si>
   <si>
-    <t xml:space="preserve">CÀI ĐẶT GIT</t>
+    <t xml:space="preserve">IV - CÀI ĐẶT GIT</t>
   </si>
   <si>
     <t xml:space="preserve">LINUX</t>
@@ -543,10 +546,10 @@
     <t xml:space="preserve">download file execute Git, run file</t>
   </si>
   <si>
-    <t xml:space="preserve">THIẾT LẬP THAM SỐ LẦN ĐẦU KHỞI ĐỘNG GIT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kiểm tra phiên bản</t>
+    <t xml:space="preserve">V - THIẾT LẬP THAM SỐ LẦN ĐẦU KHỞI ĐỘNG GIT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 - Kiểm tra phiên bản</t>
   </si>
   <si>
     <t xml:space="preserve">Khởi động CMD, Git Bash, PowerShell or Terminal…</t>
@@ -561,7 +564,7 @@
     <t xml:space="preserve">git --help</t>
   </si>
   <si>
-    <t xml:space="preserve">Cấu hình Git</t>
+    <t xml:space="preserve">2 - Cấu hình Git</t>
   </si>
   <si>
     <t xml:space="preserve">cấu hình với mọi user (file cấu hình nằm tại /etc/gitconfig) với</t>
@@ -588,7 +591,7 @@
     <t xml:space="preserve">thư mục .git của Repository .git/config).</t>
   </si>
   <si>
-    <t xml:space="preserve">Những thông số cơ bản áp dụng đối với User</t>
+    <t xml:space="preserve">3 - Những thông số cơ bản áp dụng đối với User</t>
   </si>
   <si>
     <t xml:space="preserve">User Name</t>
@@ -606,10 +609,10 @@
     <t xml:space="preserve">git config --list</t>
   </si>
   <si>
-    <t xml:space="preserve">KHỞI TẠO LOCAL REPOSITORY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">non-bare Repo</t>
+    <t xml:space="preserve">VI - KHỞI TẠO LOCAL REPOSITORY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 - non-bare Repo</t>
   </si>
   <si>
     <t xml:space="preserve">trong thư mục làm việc, thực thi lệnh git init, 1 folder .git sẽ</t>
@@ -624,7 +627,7 @@
     <t xml:space="preserve">chứa thông tin trỏ đến commit hiện tại).</t>
   </si>
   <si>
-    <t xml:space="preserve">non-bare Cloned Repo</t>
+    <t xml:space="preserve">2 - non-bare Cloned Repo</t>
   </si>
   <si>
     <t xml:space="preserve">khởi tạo 1 Local Repo từ 1 Repo khác (có thể từ Remote Repo), sau</t>
@@ -639,7 +642,7 @@
     <t xml:space="preserve">git clone &lt;remote_URL&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">bare Repo</t>
+    <t xml:space="preserve">3 - bare Repo</t>
   </si>
   <si>
     <t xml:space="preserve">loại Repo này chỉ có thể truy cập, lưu trữ nhưng không soạn thảo,</t>
@@ -657,7 +660,7 @@
     <t xml:space="preserve">dữ liệu Git lên</t>
   </si>
   <si>
-    <t xml:space="preserve">CẬP NHẬT THAY ĐỔI CỦA REPO</t>
+    <t xml:space="preserve">VII - CẬP NHẬT THAY ĐỔI CỦA REPO</t>
   </si>
   <si>
     <t xml:space="preserve">Thực hiện lệnh tạo snapshot, lưu thông tin thay đổi vào vùng Staging để</t>
@@ -669,6 +672,9 @@
     <t xml:space="preserve">là lệnh quyết định lưu lại snapshot</t>
   </si>
   <si>
+    <t xml:space="preserve">1 - git add</t>
+  </si>
+  <si>
     <t xml:space="preserve">dùng để thêm file, folder mới vào vùng Staging hoặc cập nhật sự thay</t>
   </si>
   <si>
@@ -684,7 +690,7 @@
     <t xml:space="preserve">sẽ quản lý bản snapshot này sau khi được commit từ vùng Staging</t>
   </si>
   <si>
-    <t xml:space="preserve">git add + tham số file, folder cụ thể</t>
+    <t xml:space="preserve">2 - git add + tham số file, folder cụ thể</t>
   </si>
   <si>
     <t xml:space="preserve">cập nhật folder cụ thể</t>
@@ -711,7 +717,7 @@
     <t xml:space="preserve">vào vùng Staging</t>
   </si>
   <si>
-    <t xml:space="preserve">git add + tham số hệ thống Git</t>
+    <t xml:space="preserve">3 - git add + tham số hệ thống Git</t>
   </si>
   <si>
     <t xml:space="preserve">cập nhật mọi file có sự thay đổi (new file, modified file, deleted</t>
@@ -747,7 +753,7 @@
     <t xml:space="preserve">folder được liệt kê trong file .gitignore</t>
   </si>
   <si>
-    <t xml:space="preserve">TRẠNG THÁI CỦA LOCAL REPO</t>
+    <t xml:space="preserve">VIII - TRẠNG THÁI CỦA LOCAL REPO</t>
   </si>
   <si>
     <r>
@@ -801,6 +807,9 @@
     <t xml:space="preserve">3. trong Working tree (unstaged) và trong Repository (committed)</t>
   </si>
   <si>
+    <t xml:space="preserve">1 - git status</t>
+  </si>
+  <si>
     <t xml:space="preserve">hiển thị thông tin trạng thái chi tiết</t>
   </si>
   <si>
@@ -872,7 +881,7 @@
     <t xml:space="preserve">updated but unmerged (đã cập nhật, nhưng chưa merge)</t>
   </si>
   <si>
-    <t xml:space="preserve">COMMIT CHO GIT QUẢN LÝ (LƯU BẢN SNAPSHOT HIỆN TẠI)</t>
+    <t xml:space="preserve">IX - COMMIT CHO GIT QUẢN LÝ (LƯU BẢN SNAPSHOT HIỆN TẠI)</t>
   </si>
   <si>
     <t xml:space="preserve">Thực hiện git commit để lưu snapshot được tạo ra sau khi thực hiện git add</t>
@@ -881,7 +890,7 @@
     <t xml:space="preserve">vào Staging</t>
   </si>
   <si>
-    <t xml:space="preserve">git commit và các tham số</t>
+    <t xml:space="preserve">1 - git commit và các tham số</t>
   </si>
   <si>
     <t xml:space="preserve">tham số -m"nội dung phiên commit"</t>
@@ -908,10 +917,10 @@
     <t xml:space="preserve">git commit --amend -m"nội dung phiên commit"</t>
   </si>
   <si>
-    <t xml:space="preserve">UNDO TRẠNG THÁI FILE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">git reset HEAD - undo file tại commit cuối</t>
+    <t xml:space="preserve">X - UNDO TRẠNG THÁI FILE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 - git reset HEAD - undo file tại commit cuối</t>
   </si>
   <si>
     <t xml:space="preserve">dùng để hủy commit cuối undo trạng thái của file trước khi commit</t>
@@ -920,25 +929,31 @@
     <t xml:space="preserve">dùng để hủy add thay đổi vào vùng Staging</t>
   </si>
   <si>
+    <t xml:space="preserve">2 - git reset --soft HEAD~1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hủy commit cuối nhưng giữ lại bản snapshot đã add vào Staging</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dùng để muốn giữ lại sự thay đổi của file trong Staging</t>
+  </si>
+  <si>
     <t xml:space="preserve">git reset --soft HEAD~1</t>
   </si>
   <si>
-    <t xml:space="preserve">hủy commit cuối nhưng giữ lại bản snapshot đã add vào Staging</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dùng để muốn giữ lại sự thay đổi của file trong Staging</t>
+    <t xml:space="preserve">3 - git reset --hard HEAD~1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hủy commit cuối và bản snapshot đã add vào Staging</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dùng để hủy hoàn toàn commit trả file về trạng thái trước khi add</t>
   </si>
   <si>
     <t xml:space="preserve">git reset --hard HEAD~1</t>
   </si>
   <si>
-    <t xml:space="preserve">hủy commit cuối và bản snapshot đã add vào Staging</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dùng để hủy hoàn toàn commit trả file về trạng thái trước khi add</t>
-  </si>
-  <si>
-    <t xml:space="preserve">undo Staging status</t>
+    <t xml:space="preserve">4 - undo Staging status</t>
   </si>
   <si>
     <t xml:space="preserve">undo lệnh git add (hủy cập nhật các file vừa mới cập nhật vào vùng </t>
@@ -959,7 +974,7 @@
     <t xml:space="preserve">git reset -- &lt;file_name.ext&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">.gitignore</t>
+    <t xml:space="preserve">XI - .gitignore</t>
   </si>
   <si>
     <t xml:space="preserve">file .gitignore chứa những mẫu Pattern, do người dùng tự định nghĩa, mà Git</t>
@@ -1091,7 +1106,7 @@
     <t xml:space="preserve">Staging Area trừ folder2</t>
   </si>
   <si>
-    <t xml:space="preserve">LOG - LỊCH SỬ CÁC PHIÊN COMMIT</t>
+    <t xml:space="preserve">XII - LOG - LỊCH SỬ CÁC PHIÊN COMMIT</t>
   </si>
   <si>
     <r>
@@ -1150,6 +1165,9 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">1 - git log</t>
+  </si>
+  <si>
     <t xml:space="preserve">hiển thị danh sách các phiên commit từ mới đến cũ</t>
   </si>
   <si>
@@ -1219,7 +1237,7 @@
     <t xml:space="preserve">: đến vị trí N phía trên</t>
   </si>
   <si>
-    <t xml:space="preserve">git log + tham số</t>
+    <t xml:space="preserve">2 - git log + tham số</t>
   </si>
   <si>
     <t xml:space="preserve">hiển thị với chỉ định số lượng phiên commit cuối mới nhất</t>
@@ -1261,7 +1279,7 @@
     <t xml:space="preserve">git log --stat -&lt;number&gt; --oneline</t>
   </si>
   <si>
-    <t xml:space="preserve">lọc lịch sử commit</t>
+    <t xml:space="preserve">3 - lọc lịch sử commit</t>
   </si>
   <si>
     <t xml:space="preserve">hiển thị commit trước, sau hoặc 1 khoảng thời thời gian ngày</t>
@@ -1586,7 +1604,7 @@
     <t xml:space="preserve">gitk</t>
   </si>
   <si>
-    <t xml:space="preserve">SO SÁNH SỰ THAY ĐỔI TRÊN GIT</t>
+    <t xml:space="preserve">XIII - SO SÁNH SỰ THAY ĐỔI TRÊN GIT</t>
   </si>
   <si>
     <r>
@@ -1631,6 +1649,9 @@
     <t xml:space="preserve">các Branch</t>
   </si>
   <si>
+    <t xml:space="preserve">1 - git diff</t>
+  </si>
+  <si>
     <t xml:space="preserve">hiển thị sự thay đổi giữa Working tree và Commit cuối khi vùng</t>
   </si>
   <si>
@@ -1643,22 +1664,31 @@
     <t xml:space="preserve">Staging đã được cập nhật (git add) nhưng chưa git commit</t>
   </si>
   <si>
+    <t xml:space="preserve">2 - git diff --staged</t>
+  </si>
+  <si>
     <t xml:space="preserve">so sánh giữa vùng Staging và Commit cuối</t>
   </si>
   <si>
+    <t xml:space="preserve">3 - git diff &lt;hash_commit1&gt; &lt;hash_commit2&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">so sánh giữa 2 commit bằng hash code của phiên commit</t>
+  </si>
+  <si>
     <t xml:space="preserve">git diff &lt;hash_commit1&gt; &lt;hash_commit2&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">so sánh giữa 2 commit bằng hash code của phiên commit</t>
+    <t xml:space="preserve">4 - git diff &lt;branch_name1&gt; &lt;branch_name2&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">so sánh giữa 2 branch bằng tên của branch</t>
   </si>
   <si>
     <t xml:space="preserve">git diff &lt;branch_name1&gt; &lt;branch_name2&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">so sánh giữa 2 branch bằng tên của branch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CLONE 1 REMOTE REPOSITORY VỀ LOCAL</t>
+    <t xml:space="preserve">XIV - CLONE 1 REMOTE REPOSITORY VỀ LOCAL</t>
   </si>
   <si>
     <r>
@@ -1756,7 +1786,7 @@
     <t xml:space="preserve">thể kiểm tra tên của remote này bằng lệnh</t>
   </si>
   <si>
-    <t xml:space="preserve">git clone</t>
+    <t xml:space="preserve">1 - git clone</t>
   </si>
   <si>
     <t xml:space="preserve">clone từ thư mục này sang thư mục khác (nếu đang trong thư mục cần</t>
@@ -1860,7 +1890,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">SWITCH &amp; RESTORE</t>
+    <t xml:space="preserve">XV - SWITCH &amp; RESTORE</t>
   </si>
   <si>
     <r>
@@ -1922,7 +1952,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">chuyển nhánh với git checkout</t>
+    <t xml:space="preserve">1 - chuyển nhánh với git checkout</t>
   </si>
   <si>
     <t xml:space="preserve">nếu muốn chuyển đến 1 branch khác để làm việc với Working tree tương</t>
@@ -1940,7 +1970,7 @@
     <t xml:space="preserve">chuyển đến</t>
   </si>
   <si>
-    <t xml:space="preserve">chuyển HEAD pointer đến phiên commit chỉ định</t>
+    <t xml:space="preserve">2 - chuyển HEAD pointer đến phiên commit chỉ định</t>
   </si>
   <si>
     <t xml:space="preserve">dùng để kiểm tra nội dung của Working tree tại phiên commit chỉ định</t>
@@ -1955,7 +1985,7 @@
     <t xml:space="preserve">chuyển về commit cuối chỉ cần chỉ định tên nhánh với git checkout</t>
   </si>
   <si>
-    <t xml:space="preserve">phục hồi nội dung với git checkout</t>
+    <t xml:space="preserve">3 - phục hồi nội dung với git checkout</t>
   </si>
   <si>
     <t xml:space="preserve">trong quá trình làm việc đôi khi ta cần undo lại nội dung của file về</t>
@@ -2003,7 +2033,7 @@
     <t xml:space="preserve">git checkout -- .</t>
   </si>
   <si>
-    <t xml:space="preserve">chuyển nhánh với git switch</t>
+    <t xml:space="preserve">4 - chuyển nhánh với git switch</t>
   </si>
   <si>
     <t xml:space="preserve">git switch &lt;branch_name&gt;</t>
@@ -2043,6 +2073,9 @@
   </si>
   <si>
     <t xml:space="preserve">git switch --detach &lt;hash_commit&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 - git restore</t>
   </si>
   <si>
     <t xml:space="preserve">để unstage 1 file chỉ định (hoặc nhiều file bằng cách dùng dấu *) file</t>
@@ -2113,7 +2146,7 @@
     <t xml:space="preserve">git restore --source &lt;branch_name&gt;~&lt;n&gt; &lt;*.ext&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">BRANCH - NHÁNH TRONG GIT</t>
+    <t xml:space="preserve">XVI - BRANCH - NHÁNH TRONG GIT</t>
   </si>
   <si>
     <t xml:space="preserve">tìm hiểu về khái niệm phân nhánh (branch), gộp nhánh (merge, rebase) trong </t>
@@ -2122,7 +2155,7 @@
     <t xml:space="preserve">Git, chuyển nhánh làm việc, con trỏ HEAD, và các lệnh quản lý nhánh</t>
   </si>
   <si>
-    <t xml:space="preserve">BRANCH VÀ HEAD pointer</t>
+    <t xml:space="preserve">1 - BRANCH VÀ HEAD pointer</t>
   </si>
   <si>
     <t xml:space="preserve">trong Git branch là nhánh rẽ hướng phát triển code, với mục đích không</t>
@@ -2179,7 +2212,7 @@
     <t xml:space="preserve">xóa 1 nhánh chưa được gộp</t>
   </si>
   <si>
-    <t xml:space="preserve">CONFLICT - XUNG ĐỘT KHI GỘP NHÁNH</t>
+    <t xml:space="preserve">2 - CONFLICT - XUNG ĐỘT KHI GỘP NHÁNH</t>
   </si>
   <si>
     <t xml:space="preserve">trong quá trình gộp nhánh có thể xảy ra xung đột và chỉ xảy ra xung</t>
@@ -2236,7 +2269,7 @@
     <t xml:space="preserve">sau khi thoát thì ta có thể sẵn sàng để commit Working tree cho Git</t>
   </si>
   <si>
-    <t xml:space="preserve">REBASE - GỘP NHÁNH VỚI REBASE</t>
+    <t xml:space="preserve">3 - REBASE - GỘP NHÁNH VỚI REBASE</t>
   </si>
   <si>
     <t xml:space="preserve">rebase là quá trình gộp nội dung của 1 nhánh nào đó vào nhánh cần gộp,</t>
@@ -2290,7 +2323,7 @@
     <t xml:space="preserve">git rebase --abort</t>
   </si>
   <si>
-    <t xml:space="preserve">MỘT SỐ LỆNH QUẢN LÝ NHÁNH</t>
+    <t xml:space="preserve">4 - MỘT SỐ LỆNH QUẢN LÝ NHÁNH</t>
   </si>
   <si>
     <t xml:space="preserve">liệt kê nhánh</t>
@@ -2311,7 +2344,7 @@
     <t xml:space="preserve">xóa nhánh dù nhánh xóa chưa được merge</t>
   </si>
   <si>
-    <t xml:space="preserve">REBASE VỚI COMMIT</t>
+    <t xml:space="preserve">5 - REBASE VỚI COMMIT</t>
   </si>
   <si>
     <t xml:space="preserve">nếu cần thay đổi nội dung commit, xóa, ghi đè ... với 1 số commit cuối</t>
@@ -2422,7 +2455,7 @@
     <t xml:space="preserve">: giữ lại commit + thay đổi nội dung commit</t>
   </si>
   <si>
-    <t xml:space="preserve">REMOTE REPOSITORY</t>
+    <t xml:space="preserve">XVII - REMOTE REPOSITORY</t>
   </si>
   <si>
     <t xml:space="preserve">tạo, xem thông tin, xóa các liên kết giữa Local Repo và Remote Repo trong Git</t>
@@ -2440,7 +2473,7 @@
     <t xml:space="preserve">liệu lên Remote, hay kéo dữ liệu về Local</t>
   </si>
   <si>
-    <t xml:space="preserve">XEM THÔNG TIN REMOTE</t>
+    <t xml:space="preserve">1 - XEM THÔNG TIN REMOTE</t>
   </si>
   <si>
     <t xml:space="preserve">liệt kê các Remote đang liên kết với Local</t>
@@ -2452,7 +2485,7 @@
     <t xml:space="preserve">xem thông tin 1 Remote cụ thể</t>
   </si>
   <si>
-    <t xml:space="preserve">LIÊN KẾT VỚI REMOTE</t>
+    <t xml:space="preserve">2 - LIÊN KẾT VỚI REMOTE</t>
   </si>
   <si>
     <t xml:space="preserve">liên kết với 1 Remote Repo (URL là https hoặc ssh) và đặt tên Remote</t>
@@ -2473,7 +2506,7 @@
     <t xml:space="preserve">git clone &lt;URL_remote&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">CHỈNH SỬA REMOTE</t>
+    <t xml:space="preserve">3 - CHỈNH SỬA REMOTE</t>
   </si>
   <si>
     <t xml:space="preserve">xóa liên kết với Remote bất kỳ</t>
@@ -2485,7 +2518,7 @@
     <t xml:space="preserve">đổi tên của Remote</t>
   </si>
   <si>
-    <t xml:space="preserve">PUSH DỮ LIỆU LÊN REMOTE</t>
+    <t xml:space="preserve">4 - PUSH DỮ LIỆU LÊN REMOTE</t>
   </si>
   <si>
     <r>
@@ -2554,7 +2587,7 @@
     <t xml:space="preserve">git push &lt;remote_name&gt; &lt;local_branch&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">LÀM VIỆC VỚI NHÁNH TRÊN REMOTE</t>
+    <t xml:space="preserve">5 - LÀM VIỆC VỚI NHÁNH TRÊN REMOTE</t>
   </si>
   <si>
     <t xml:space="preserve">liệt kê nhánh và tags trên Remote chỉ định</t>
@@ -2599,7 +2632,7 @@
     <t xml:space="preserve">git push --force &lt;remote_name&gt; &lt;branch_name&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">GIT FETCH - ĐỒNG BỘ REMOTE &amp; LOCAL</t>
+    <t xml:space="preserve">6 - GIT FETCH - ĐỒNG BỘ REMOTE &amp; LOCAL</t>
   </si>
   <si>
     <r>
@@ -2712,7 +2745,7 @@
     <t xml:space="preserve">git merge &lt;remote_name&gt;/&lt;remote_branch&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">GIT PULL - KÉO DỮ LIỆU TỪ REMOTE VỀ LOCAL</t>
+    <t xml:space="preserve">7 - GIT PULL - KÉO DỮ LIỆU TỪ REMOTE VỀ LOCAL</t>
   </si>
   <si>
     <r>
@@ -2780,7 +2813,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">GIT REBASE - VIẾT LẠI LỊCH SỬ LÀM VIỆC Ở LOCAL</t>
+    <t xml:space="preserve">8 - GIT REBASE - VIẾT LẠI LỊCH SỬ LÀM VIỆC Ở LOCAL</t>
   </si>
   <si>
     <t xml:space="preserve">cập nhật toàn bộ các nhánh trên Remote là BASE của các nhánh đang làm</t>
@@ -2792,7 +2825,7 @@
     <t xml:space="preserve">git pull --rebase &lt;remote_name&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">TAGGING ( GẮN THẺ )</t>
+    <t xml:space="preserve">XVIII - TAGGING ( GẮN THẺ )</t>
   </si>
   <si>
     <t xml:space="preserve">tag thường được sử dụng để đánh dấu phiên bản phát hành (release version)</t>
@@ -2933,7 +2966,7 @@
     <t xml:space="preserve">git push [remote_Name] :refs/tags/[tag_Name]</t>
   </si>
   <si>
-    <t xml:space="preserve">X - ALIAS ( bí danh )</t>
+    <t xml:space="preserve">XIX - ALIAS ( bí danh )</t>
   </si>
   <si>
     <t xml:space="preserve">alias có nghĩa là bí danh, trong Git đây là 1 tip giúp tiết kiệm thời gian gõ </t>
@@ -3455,15 +3488,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>3240</xdr:colOff>
+      <xdr:colOff>3600</xdr:colOff>
       <xdr:row>232</xdr:row>
       <xdr:rowOff>360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>546120</xdr:colOff>
+      <xdr:colOff>545760</xdr:colOff>
       <xdr:row>248</xdr:row>
-      <xdr:rowOff>71640</xdr:rowOff>
+      <xdr:rowOff>70920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3476,8 +3509,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="646920" y="46291680"/>
-          <a:ext cx="6337800" cy="3271680"/>
+          <a:off x="647280" y="46282320"/>
+          <a:ext cx="6337080" cy="3270960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3492,15 +3525,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>2880</xdr:colOff>
+      <xdr:colOff>3240</xdr:colOff>
       <xdr:row>370</xdr:row>
       <xdr:rowOff>360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>559800</xdr:colOff>
+      <xdr:colOff>559440</xdr:colOff>
       <xdr:row>397</xdr:row>
-      <xdr:rowOff>48600</xdr:rowOff>
+      <xdr:rowOff>48240</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3513,8 +3546,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="646560" y="73628280"/>
-          <a:ext cx="6351840" cy="5191920"/>
+          <a:off x="646920" y="73618920"/>
+          <a:ext cx="6351120" cy="5191200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3536,8 +3569,8 @@
   </sheetPr>
   <dimension ref="A1:L1067"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1050" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H1065" activeCellId="0" sqref="H1065"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1053" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C1043" activeCellId="0" sqref="C1043"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3620,19 +3653,19 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="11" t="s">
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="11"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="13"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="10"/>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C16" s="2" t="s">
@@ -4462,7 +4495,7 @@
     </row>
     <row r="227" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B227" s="11" t="s">
-        <v>43</v>
+        <v>155</v>
       </c>
       <c r="C227" s="11"/>
       <c r="D227" s="12"/>
@@ -4476,12 +4509,12 @@
     </row>
     <row r="228" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C228" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B230" s="11" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C230" s="11"/>
       <c r="D230" s="12"/>
@@ -4495,37 +4528,37 @@
     </row>
     <row r="231" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C231" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B250" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C251" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C252" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C253" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D254" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B256" s="5"/>
       <c r="C256" s="5"/>
@@ -4540,52 +4573,52 @@
     </row>
     <row r="257" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B257" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C258" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D259" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C261" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D262" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C264" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D265" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="267" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B267" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C268" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="4" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B270" s="5"/>
       <c r="C270" s="5"/>
@@ -4600,7 +4633,7 @@
     </row>
     <row r="271" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B271" s="11" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C271" s="11"/>
       <c r="D271" s="12"/>
@@ -4614,27 +4647,27 @@
     </row>
     <row r="272" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C272" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="273" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D273" s="3" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="275" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C275" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="276" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D276" s="3" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="278" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B278" s="11" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C278" s="11"/>
       <c r="D278" s="12"/>
@@ -4648,48 +4681,48 @@
     </row>
     <row r="279" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C279" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="280" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C280" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D280" s="3" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="282" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C282" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="283" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C283" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="284" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C284" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D284" s="3" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="286" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C286" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="287" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C287" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="289" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B289" s="11" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C289" s="11"/>
       <c r="D289" s="12"/>
@@ -4703,7 +4736,7 @@
     </row>
     <row r="290" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C290" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="291" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4713,27 +4746,27 @@
     </row>
     <row r="293" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C293" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="294" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D294" s="3" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="296" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C296" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="297" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D297" s="3" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="299" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="4" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B299" s="5"/>
       <c r="C299" s="5"/>
@@ -4748,7 +4781,7 @@
     </row>
     <row r="300" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B300" s="11" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C300" s="11"/>
       <c r="D300" s="12"/>
@@ -4762,22 +4795,22 @@
     </row>
     <row r="301" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C301" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="302" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C302" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="303" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C303" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="304" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C304" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="305" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4787,7 +4820,7 @@
     </row>
     <row r="307" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B307" s="11" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C307" s="11"/>
       <c r="D307" s="12"/>
@@ -4801,27 +4834,27 @@
     </row>
     <row r="308" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C308" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="309" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C309" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="310" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C310" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="311" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D311" s="3" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="313" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B313" s="11" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C313" s="11"/>
       <c r="D313" s="12"/>
@@ -4835,27 +4868,27 @@
     </row>
     <row r="314" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C314" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="315" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C315" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="316" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C316" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="317" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C317" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="318" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C318" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="319" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4865,7 +4898,7 @@
     </row>
     <row r="321" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="4" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B321" s="5"/>
       <c r="C321" s="5"/>
@@ -4880,22 +4913,22 @@
     </row>
     <row r="322" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B322" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="323" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B323" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="324" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B324" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="326" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B326" s="11" t="s">
-        <v>18</v>
+        <v>216</v>
       </c>
       <c r="C326" s="11"/>
       <c r="D326" s="12"/>
@@ -4909,32 +4942,32 @@
     </row>
     <row r="327" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C327" s="2" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="328" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C328" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="329" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C329" s="2" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="330" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C330" s="2" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="331" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C331" s="2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="333" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B333" s="11" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C333" s="11"/>
       <c r="D333" s="12"/>
@@ -4970,48 +5003,48 @@
     <row r="339" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="340" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C340" s="2" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="341" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D341" s="3" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="342" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="343" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C343" s="2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="344" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C344" s="2" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="345" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C345" s="2" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="346" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C346" s="2" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="347" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C347" s="2" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="348" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C348" s="2" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="350" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B350" s="11" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="C350" s="11"/>
       <c r="D350" s="12"/>
@@ -5025,12 +5058,12 @@
     </row>
     <row r="351" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C351" s="2" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="352" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C352" s="2" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="353" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5040,13 +5073,13 @@
     </row>
     <row r="354" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D354" s="3" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="355" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="356" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C356" s="2" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="357" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5068,39 +5101,39 @@
     <row r="361" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="362" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C362" s="2" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="363" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D363" s="3" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="364" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="365" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C365" s="2" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="366" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C366" s="2" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="367" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D367" s="3" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="368" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="369" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C369" s="2" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="370" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C370" s="2" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="371" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5482,7 +5515,7 @@
     </row>
     <row r="400" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A400" s="17" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B400" s="18"/>
       <c r="C400" s="18"/>
@@ -5498,7 +5531,7 @@
     <row r="401" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A401" s="14"/>
       <c r="B401" s="15" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="C401" s="15"/>
       <c r="D401" s="16"/>
@@ -5513,7 +5546,7 @@
     <row r="402" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A402" s="14"/>
       <c r="B402" s="15" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C402" s="15"/>
       <c r="D402" s="16"/>
@@ -5529,7 +5562,7 @@
       <c r="A403" s="14"/>
       <c r="B403" s="15"/>
       <c r="C403" s="15" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D403" s="16"/>
       <c r="E403" s="15"/>
@@ -5545,7 +5578,7 @@
       <c r="B404" s="15"/>
       <c r="C404" s="15"/>
       <c r="D404" s="15" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="E404" s="15"/>
       <c r="F404" s="15"/>
@@ -5559,7 +5592,7 @@
       <c r="A405" s="14"/>
       <c r="B405" s="15"/>
       <c r="C405" s="15" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D405" s="16"/>
       <c r="E405" s="15"/>
@@ -5575,7 +5608,7 @@
       <c r="B406" s="15"/>
       <c r="C406" s="15"/>
       <c r="D406" s="15" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E406" s="15"/>
       <c r="F406" s="15"/>
@@ -5589,7 +5622,7 @@
       <c r="A407" s="14"/>
       <c r="B407" s="15"/>
       <c r="C407" s="15" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D407" s="16"/>
       <c r="E407" s="15"/>
@@ -5605,7 +5638,7 @@
       <c r="B408" s="15"/>
       <c r="C408" s="15"/>
       <c r="D408" s="15" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E408" s="15"/>
       <c r="F408" s="15"/>
@@ -5631,7 +5664,7 @@
     <row r="410" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A410" s="14"/>
       <c r="B410" s="20" t="s">
-        <v>12</v>
+        <v>251</v>
       </c>
       <c r="C410" s="20"/>
       <c r="D410" s="21"/>
@@ -5647,7 +5680,7 @@
       <c r="A411" s="14"/>
       <c r="B411" s="15"/>
       <c r="C411" s="15" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="D411" s="16"/>
       <c r="E411" s="15"/>
@@ -5690,7 +5723,7 @@
       <c r="A414" s="14"/>
       <c r="B414" s="15"/>
       <c r="C414" s="15" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="D414" s="16"/>
       <c r="E414" s="15"/>
@@ -5733,7 +5766,7 @@
       <c r="A417" s="14"/>
       <c r="B417" s="15"/>
       <c r="C417" s="15" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="D417" s="16"/>
       <c r="E417" s="15"/>
@@ -5749,10 +5782,10 @@
       <c r="B418" s="15"/>
       <c r="C418" s="15"/>
       <c r="D418" s="16" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="E418" s="15" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="F418" s="15"/>
       <c r="G418" s="15"/>
@@ -5766,10 +5799,10 @@
       <c r="B419" s="15"/>
       <c r="C419" s="15"/>
       <c r="D419" s="16" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="E419" s="15" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="F419" s="15"/>
       <c r="G419" s="15"/>
@@ -5783,10 +5816,10 @@
       <c r="B420" s="15"/>
       <c r="C420" s="15"/>
       <c r="D420" s="16" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="E420" s="15" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="F420" s="15"/>
       <c r="G420" s="15"/>
@@ -5800,10 +5833,10 @@
       <c r="B421" s="15"/>
       <c r="C421" s="15"/>
       <c r="D421" s="16" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="E421" s="15" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="F421" s="15"/>
       <c r="G421" s="15"/>
@@ -5817,10 +5850,10 @@
       <c r="B422" s="15"/>
       <c r="C422" s="15"/>
       <c r="D422" s="16" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="E422" s="15" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="F422" s="15"/>
       <c r="G422" s="15"/>
@@ -5834,10 +5867,10 @@
       <c r="B423" s="15"/>
       <c r="C423" s="15"/>
       <c r="D423" s="16" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="E423" s="15" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="F423" s="15"/>
       <c r="G423" s="15"/>
@@ -5851,10 +5884,10 @@
       <c r="B424" s="15"/>
       <c r="C424" s="15"/>
       <c r="D424" s="16" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="E424" s="15" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="F424" s="15"/>
       <c r="G424" s="15"/>
@@ -5878,7 +5911,7 @@
     </row>
     <row r="426" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A426" s="17" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="B426" s="18"/>
       <c r="C426" s="18"/>
@@ -5894,7 +5927,7 @@
     <row r="427" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A427" s="14"/>
       <c r="B427" s="15" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="C427" s="15"/>
       <c r="D427" s="16"/>
@@ -5909,7 +5942,7 @@
     <row r="428" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A428" s="14"/>
       <c r="B428" s="15" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="C428" s="15"/>
       <c r="D428" s="16"/>
@@ -5937,7 +5970,7 @@
     <row r="430" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A430" s="14"/>
       <c r="B430" s="20" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="C430" s="20"/>
       <c r="D430" s="21"/>
@@ -5953,7 +5986,7 @@
       <c r="A431" s="14"/>
       <c r="B431" s="15"/>
       <c r="C431" s="15" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="D431" s="16"/>
       <c r="E431" s="15"/>
@@ -5969,7 +6002,7 @@
       <c r="B432" s="15"/>
       <c r="C432" s="15"/>
       <c r="D432" s="16" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="E432" s="15"/>
       <c r="F432" s="15"/>
@@ -5996,7 +6029,7 @@
       <c r="A434" s="14"/>
       <c r="B434" s="15"/>
       <c r="C434" s="15" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="D434" s="16"/>
       <c r="E434" s="15"/>
@@ -6011,7 +6044,7 @@
       <c r="A435" s="14"/>
       <c r="B435" s="15"/>
       <c r="C435" s="15" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="D435" s="16"/>
       <c r="E435" s="15"/>
@@ -6027,7 +6060,7 @@
       <c r="B436" s="15"/>
       <c r="C436" s="15"/>
       <c r="D436" s="16" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="E436" s="15"/>
       <c r="F436" s="15"/>
@@ -6054,7 +6087,7 @@
       <c r="A438" s="14"/>
       <c r="B438" s="15"/>
       <c r="C438" s="15" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="D438" s="16"/>
       <c r="E438" s="15"/>
@@ -6069,7 +6102,7 @@
       <c r="A439" s="14"/>
       <c r="B439" s="15"/>
       <c r="C439" s="15" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="D439" s="16"/>
       <c r="E439" s="15"/>
@@ -6085,7 +6118,7 @@
       <c r="B440" s="15"/>
       <c r="C440" s="15"/>
       <c r="D440" s="16" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E440" s="15"/>
       <c r="F440" s="15"/>
@@ -6110,7 +6143,7 @@
     </row>
     <row r="442" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A442" s="17" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="B442" s="18"/>
       <c r="C442" s="18"/>
@@ -6126,7 +6159,7 @@
     <row r="443" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A443" s="14"/>
       <c r="B443" s="20" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="C443" s="20"/>
       <c r="D443" s="21"/>
@@ -6142,7 +6175,7 @@
       <c r="A444" s="14"/>
       <c r="B444" s="15"/>
       <c r="C444" s="15" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="D444" s="16"/>
       <c r="E444" s="15"/>
@@ -6157,7 +6190,7 @@
       <c r="A445" s="14"/>
       <c r="B445" s="15"/>
       <c r="C445" s="15" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="D445" s="16"/>
       <c r="E445" s="15"/>
@@ -6184,7 +6217,7 @@
     <row r="447" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A447" s="14"/>
       <c r="B447" s="20" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="C447" s="20"/>
       <c r="D447" s="21"/>
@@ -6200,7 +6233,7 @@
       <c r="A448" s="14"/>
       <c r="B448" s="15"/>
       <c r="C448" s="15" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="D448" s="16"/>
       <c r="E448" s="15"/>
@@ -6215,7 +6248,7 @@
       <c r="A449" s="14"/>
       <c r="B449" s="15"/>
       <c r="C449" s="15" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="D449" s="16"/>
       <c r="E449" s="15"/>
@@ -6231,7 +6264,7 @@
       <c r="B450" s="15"/>
       <c r="C450" s="15"/>
       <c r="D450" s="16" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="E450" s="15"/>
       <c r="F450" s="15"/>
@@ -6257,7 +6290,7 @@
     <row r="452" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A452" s="14"/>
       <c r="B452" s="20" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="C452" s="20"/>
       <c r="D452" s="21"/>
@@ -6273,7 +6306,7 @@
       <c r="A453" s="14"/>
       <c r="B453" s="15"/>
       <c r="C453" s="15" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="D453" s="16"/>
       <c r="E453" s="15"/>
@@ -6288,7 +6321,7 @@
       <c r="A454" s="14"/>
       <c r="B454" s="15"/>
       <c r="C454" s="15" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="D454" s="16"/>
       <c r="E454" s="15"/>
@@ -6303,7 +6336,7 @@
       <c r="A455" s="14"/>
       <c r="B455" s="15"/>
       <c r="C455" s="15" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="D455" s="16"/>
       <c r="E455" s="15"/>
@@ -6319,7 +6352,7 @@
       <c r="B456" s="15"/>
       <c r="C456" s="15"/>
       <c r="D456" s="16" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="E456" s="15"/>
       <c r="F456" s="15"/>
@@ -6345,7 +6378,7 @@
     <row r="458" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A458" s="14"/>
       <c r="B458" s="20" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="C458" s="20"/>
       <c r="D458" s="21"/>
@@ -6361,7 +6394,7 @@
       <c r="A459" s="14"/>
       <c r="B459" s="15"/>
       <c r="C459" s="15" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="D459" s="16"/>
       <c r="E459" s="15"/>
@@ -6376,7 +6409,7 @@
       <c r="A460" s="14"/>
       <c r="B460" s="15"/>
       <c r="C460" s="15" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="D460" s="16"/>
       <c r="E460" s="15"/>
@@ -6392,7 +6425,7 @@
       <c r="B461" s="15"/>
       <c r="C461" s="15"/>
       <c r="D461" s="16" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="E461" s="15"/>
       <c r="F461" s="15"/>
@@ -6419,7 +6452,7 @@
       <c r="A463" s="14"/>
       <c r="B463" s="15"/>
       <c r="C463" s="15" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="D463" s="16"/>
       <c r="E463" s="15"/>
@@ -6434,7 +6467,7 @@
       <c r="A464" s="14"/>
       <c r="B464" s="15"/>
       <c r="C464" s="15" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="D464" s="16"/>
       <c r="E464" s="15"/>
@@ -6450,7 +6483,7 @@
       <c r="B465" s="15"/>
       <c r="C465" s="15"/>
       <c r="D465" s="16" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="E465" s="15"/>
       <c r="F465" s="15"/>
@@ -6475,7 +6508,7 @@
     </row>
     <row r="467" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A467" s="17" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="B467" s="18"/>
       <c r="C467" s="18"/>
@@ -6491,7 +6524,7 @@
     <row r="468" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A468" s="14"/>
       <c r="B468" s="15" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="C468" s="15"/>
       <c r="D468" s="16"/>
@@ -6506,7 +6539,7 @@
     <row r="469" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A469" s="14"/>
       <c r="B469" s="15" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="C469" s="15"/>
       <c r="D469" s="16"/>
@@ -6521,7 +6554,7 @@
     <row r="470" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A470" s="14"/>
       <c r="B470" s="15" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="C470" s="15"/>
       <c r="D470" s="16"/>
@@ -6549,7 +6582,7 @@
     <row r="472" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A472" s="14"/>
       <c r="B472" s="23" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="C472" s="24"/>
       <c r="D472" s="16"/>
@@ -6565,7 +6598,7 @@
       <c r="A473" s="14"/>
       <c r="B473" s="24"/>
       <c r="C473" s="25" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="D473" s="16"/>
       <c r="E473" s="15"/>
@@ -6580,7 +6613,7 @@
       <c r="A474" s="14"/>
       <c r="B474" s="24"/>
       <c r="C474" s="25" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="D474" s="16"/>
       <c r="E474" s="15"/>
@@ -6607,7 +6640,7 @@
     <row r="476" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A476" s="14"/>
       <c r="B476" s="23" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="C476" s="26"/>
       <c r="D476" s="26"/>
@@ -6623,7 +6656,7 @@
       <c r="A477" s="14"/>
       <c r="B477" s="26"/>
       <c r="C477" s="26" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="D477" s="26"/>
       <c r="E477" s="26"/>
@@ -6638,7 +6671,7 @@
       <c r="A478" s="14"/>
       <c r="B478" s="26"/>
       <c r="C478" s="26" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="D478" s="26"/>
       <c r="E478" s="26"/>
@@ -6654,7 +6687,7 @@
       <c r="B479" s="26"/>
       <c r="C479" s="26"/>
       <c r="D479" s="27" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="E479" s="26"/>
       <c r="F479" s="26"/>
@@ -6668,7 +6701,7 @@
       <c r="A480" s="14"/>
       <c r="B480" s="26"/>
       <c r="C480" s="26" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="D480" s="26"/>
       <c r="E480" s="26"/>
@@ -6683,7 +6716,7 @@
       <c r="A481" s="14"/>
       <c r="B481" s="26"/>
       <c r="C481" s="26" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="D481" s="26"/>
       <c r="E481" s="26"/>
@@ -6699,7 +6732,7 @@
       <c r="B482" s="26"/>
       <c r="C482" s="26"/>
       <c r="D482" s="27" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="E482" s="26"/>
       <c r="F482" s="26"/>
@@ -6713,7 +6746,7 @@
       <c r="A483" s="14"/>
       <c r="B483" s="26"/>
       <c r="C483" s="26" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="D483" s="26"/>
       <c r="E483" s="26"/>
@@ -6729,7 +6762,7 @@
       <c r="B484" s="26"/>
       <c r="C484" s="26"/>
       <c r="D484" s="27" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="E484" s="26"/>
       <c r="F484" s="26"/>
@@ -6755,7 +6788,7 @@
     <row r="486" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A486" s="14"/>
       <c r="B486" s="23" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="C486" s="26"/>
       <c r="D486" s="26"/>
@@ -6770,7 +6803,7 @@
     <row r="487" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A487" s="14"/>
       <c r="B487" s="23" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="C487" s="26"/>
       <c r="D487" s="26"/>
@@ -6785,7 +6818,7 @@
     <row r="488" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A488" s="14"/>
       <c r="B488" s="23" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="C488" s="26"/>
       <c r="D488" s="26"/>
@@ -6801,7 +6834,7 @@
       <c r="A489" s="14"/>
       <c r="B489" s="26"/>
       <c r="C489" s="26" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="D489" s="26"/>
       <c r="E489" s="26"/>
@@ -6817,7 +6850,7 @@
       <c r="B490" s="26"/>
       <c r="C490" s="26"/>
       <c r="D490" s="27" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="E490" s="26"/>
       <c r="F490" s="26"/>
@@ -6844,7 +6877,7 @@
       <c r="A492" s="14"/>
       <c r="B492" s="26"/>
       <c r="C492" s="26" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="D492" s="26"/>
       <c r="E492" s="26"/>
@@ -6859,7 +6892,7 @@
       <c r="A493" s="14"/>
       <c r="B493" s="26"/>
       <c r="C493" s="26" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="D493" s="26"/>
       <c r="E493" s="26"/>
@@ -6875,7 +6908,7 @@
       <c r="B494" s="26"/>
       <c r="C494" s="26"/>
       <c r="D494" s="27" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="E494" s="26"/>
       <c r="F494" s="26"/>
@@ -6902,7 +6935,7 @@
       <c r="A496" s="14"/>
       <c r="B496" s="26"/>
       <c r="C496" s="26" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="D496" s="26"/>
       <c r="E496" s="26"/>
@@ -6918,7 +6951,7 @@
       <c r="B497" s="26"/>
       <c r="C497" s="26"/>
       <c r="D497" s="27" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="E497" s="26"/>
       <c r="F497" s="26"/>
@@ -6944,7 +6977,7 @@
     <row r="499" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A499" s="14"/>
       <c r="B499" s="23" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="C499" s="26"/>
       <c r="D499" s="26"/>
@@ -6960,11 +6993,11 @@
       <c r="A500" s="14"/>
       <c r="B500" s="26"/>
       <c r="C500" s="23" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="D500" s="28"/>
       <c r="E500" s="26" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="F500" s="26"/>
       <c r="G500" s="26"/>
@@ -6977,11 +7010,11 @@
       <c r="A501" s="14"/>
       <c r="B501" s="26"/>
       <c r="C501" s="23" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="D501" s="28"/>
       <c r="E501" s="26" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="F501" s="26"/>
       <c r="G501" s="26"/>
@@ -6996,7 +7029,7 @@
       <c r="C502" s="23"/>
       <c r="D502" s="28"/>
       <c r="E502" s="26" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="F502" s="26"/>
       <c r="G502" s="26"/>
@@ -7012,7 +7045,7 @@
       <c r="D503" s="28"/>
       <c r="E503" s="26"/>
       <c r="F503" s="25" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="G503" s="26"/>
       <c r="H503" s="24"/>
@@ -7024,11 +7057,11 @@
       <c r="A504" s="14"/>
       <c r="B504" s="26"/>
       <c r="C504" s="23" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="D504" s="26"/>
       <c r="E504" s="26" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="F504" s="26"/>
       <c r="G504" s="26"/>
@@ -7041,11 +7074,11 @@
       <c r="A505" s="14"/>
       <c r="B505" s="26"/>
       <c r="C505" s="23" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="D505" s="26"/>
       <c r="E505" s="26" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="F505" s="26"/>
       <c r="G505" s="26"/>
@@ -7061,7 +7094,7 @@
       <c r="D506" s="26"/>
       <c r="E506" s="26"/>
       <c r="F506" s="25" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="G506" s="26"/>
       <c r="H506" s="24"/>
@@ -7073,11 +7106,11 @@
       <c r="A507" s="14"/>
       <c r="B507" s="26"/>
       <c r="C507" s="23" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="D507" s="26"/>
       <c r="E507" s="26" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="F507" s="26"/>
       <c r="G507" s="26"/>
@@ -7093,7 +7126,7 @@
       <c r="D508" s="26"/>
       <c r="E508" s="26"/>
       <c r="F508" s="25" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="G508" s="26"/>
       <c r="H508" s="24"/>
@@ -7108,7 +7141,7 @@
       <c r="D509" s="26"/>
       <c r="E509" s="26"/>
       <c r="F509" s="25" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="G509" s="26"/>
       <c r="H509" s="24"/>
@@ -7120,12 +7153,12 @@
       <c r="A510" s="14"/>
       <c r="B510" s="26"/>
       <c r="C510" s="23" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="D510" s="26"/>
       <c r="E510" s="26"/>
       <c r="F510" s="26" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="G510" s="0"/>
       <c r="H510" s="24"/>
@@ -7140,7 +7173,7 @@
       <c r="D511" s="26"/>
       <c r="E511" s="26"/>
       <c r="F511" s="26" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="G511" s="26"/>
       <c r="H511" s="24"/>
@@ -7163,7 +7196,7 @@
     </row>
     <row r="513" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A513" s="17" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="B513" s="18"/>
       <c r="C513" s="18"/>
@@ -7179,7 +7212,7 @@
     <row r="514" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A514" s="14"/>
       <c r="B514" s="15" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="C514" s="15"/>
       <c r="D514" s="16"/>
@@ -7194,7 +7227,7 @@
     <row r="515" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A515" s="14"/>
       <c r="B515" s="15" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="C515" s="15"/>
       <c r="D515" s="16"/>
@@ -7222,7 +7255,7 @@
     <row r="517" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A517" s="14"/>
       <c r="B517" s="20" t="s">
-        <v>35</v>
+        <v>347</v>
       </c>
       <c r="C517" s="20"/>
       <c r="D517" s="21"/>
@@ -7238,7 +7271,7 @@
       <c r="A518" s="14"/>
       <c r="B518" s="15"/>
       <c r="C518" s="15" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="D518" s="16"/>
       <c r="E518" s="15"/>
@@ -7253,7 +7286,7 @@
       <c r="A519" s="14"/>
       <c r="B519" s="15"/>
       <c r="C519" s="15" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="D519" s="16"/>
       <c r="E519" s="15"/>
@@ -7296,7 +7329,7 @@
       <c r="A522" s="14"/>
       <c r="B522" s="15"/>
       <c r="C522" s="15" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="D522" s="16"/>
       <c r="E522" s="15"/>
@@ -7311,7 +7344,7 @@
       <c r="A523" s="14"/>
       <c r="B523" s="15"/>
       <c r="C523" s="15" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="D523" s="16"/>
       <c r="E523" s="15"/>
@@ -7326,7 +7359,7 @@
       <c r="A524" s="14"/>
       <c r="B524" s="15"/>
       <c r="C524" s="15" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="D524" s="16"/>
       <c r="E524" s="15"/>
@@ -7342,10 +7375,10 @@
       <c r="B525" s="15"/>
       <c r="C525" s="15"/>
       <c r="D525" s="29" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="E525" s="30" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="F525" s="15"/>
       <c r="G525" s="15"/>
@@ -7359,10 +7392,10 @@
       <c r="B526" s="15"/>
       <c r="C526" s="15"/>
       <c r="D526" s="29" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="E526" s="30" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="F526" s="15"/>
       <c r="G526" s="15"/>
@@ -7376,10 +7409,10 @@
       <c r="B527" s="15"/>
       <c r="C527" s="15"/>
       <c r="D527" s="29" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="E527" s="30" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="F527" s="15"/>
       <c r="G527" s="15"/>
@@ -7393,10 +7426,10 @@
       <c r="B528" s="15"/>
       <c r="C528" s="15"/>
       <c r="D528" s="29" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="E528" s="30" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="F528" s="15"/>
       <c r="G528" s="15"/>
@@ -7410,10 +7443,10 @@
       <c r="B529" s="15"/>
       <c r="C529" s="15"/>
       <c r="D529" s="29" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="E529" s="30" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="F529" s="15"/>
       <c r="G529" s="15"/>
@@ -7427,10 +7460,10 @@
       <c r="B530" s="15"/>
       <c r="C530" s="15"/>
       <c r="D530" s="29" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="E530" s="30" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="F530" s="15"/>
       <c r="G530" s="15"/>
@@ -7444,10 +7477,10 @@
       <c r="B531" s="15"/>
       <c r="C531" s="15"/>
       <c r="D531" s="29" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="E531" s="30" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="F531" s="15"/>
       <c r="G531" s="15"/>
@@ -7461,10 +7494,10 @@
       <c r="B532" s="15"/>
       <c r="C532" s="15"/>
       <c r="D532" s="29" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="E532" s="30" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="F532" s="15"/>
       <c r="G532" s="15"/>
@@ -7478,10 +7511,10 @@
       <c r="B533" s="15"/>
       <c r="C533" s="15"/>
       <c r="D533" s="29" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="E533" s="30" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="F533" s="15"/>
       <c r="G533" s="15"/>
@@ -7506,7 +7539,7 @@
     <row r="535" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A535" s="14"/>
       <c r="B535" s="20" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="C535" s="20"/>
       <c r="D535" s="21"/>
@@ -7522,7 +7555,7 @@
       <c r="A536" s="14"/>
       <c r="B536" s="15"/>
       <c r="C536" s="15" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="D536" s="16"/>
       <c r="E536" s="15"/>
@@ -7538,7 +7571,7 @@
       <c r="B537" s="15"/>
       <c r="C537" s="15"/>
       <c r="D537" s="16" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="E537" s="15"/>
       <c r="F537" s="15"/>
@@ -7565,7 +7598,7 @@
       <c r="A539" s="14"/>
       <c r="B539" s="15"/>
       <c r="C539" s="15" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="D539" s="16"/>
       <c r="E539" s="15"/>
@@ -7580,7 +7613,7 @@
       <c r="A540" s="14"/>
       <c r="B540" s="15"/>
       <c r="C540" s="15" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="D540" s="16"/>
       <c r="E540" s="15"/>
@@ -7596,7 +7629,7 @@
       <c r="B541" s="15"/>
       <c r="C541" s="15"/>
       <c r="D541" s="16" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="E541" s="15"/>
       <c r="F541" s="15"/>
@@ -7623,7 +7656,7 @@
       <c r="A543" s="14"/>
       <c r="B543" s="15"/>
       <c r="C543" s="15" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="D543" s="16"/>
       <c r="E543" s="15"/>
@@ -7638,7 +7671,7 @@
       <c r="A544" s="14"/>
       <c r="B544" s="15"/>
       <c r="C544" s="15" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="D544" s="16"/>
       <c r="E544" s="15"/>
@@ -7654,7 +7687,7 @@
       <c r="B545" s="15"/>
       <c r="C545" s="15"/>
       <c r="D545" s="16" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="E545" s="15"/>
       <c r="F545" s="15"/>
@@ -7669,7 +7702,7 @@
       <c r="B546" s="15"/>
       <c r="C546" s="15"/>
       <c r="D546" s="16" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="E546" s="15"/>
       <c r="F546" s="15"/>
@@ -7696,7 +7729,7 @@
       <c r="A548" s="14"/>
       <c r="B548" s="15"/>
       <c r="C548" s="15" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="D548" s="16"/>
       <c r="E548" s="15"/>
@@ -7711,7 +7744,7 @@
       <c r="A549" s="14"/>
       <c r="B549" s="15"/>
       <c r="C549" s="15" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="D549" s="16"/>
       <c r="E549" s="15"/>
@@ -7727,7 +7760,7 @@
       <c r="B550" s="15"/>
       <c r="C550" s="15"/>
       <c r="D550" s="16" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="E550" s="15"/>
       <c r="F550" s="15"/>
@@ -7742,7 +7775,7 @@
       <c r="B551" s="15"/>
       <c r="C551" s="15"/>
       <c r="D551" s="16" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="E551" s="15"/>
       <c r="F551" s="15"/>
@@ -7768,7 +7801,7 @@
     <row r="553" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A553" s="14"/>
       <c r="B553" s="20" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="C553" s="20"/>
       <c r="D553" s="21"/>
@@ -7784,7 +7817,7 @@
       <c r="A554" s="14"/>
       <c r="B554" s="15"/>
       <c r="C554" s="15" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="D554" s="16"/>
       <c r="E554" s="15"/>
@@ -7799,7 +7832,7 @@
       <c r="A555" s="14"/>
       <c r="B555" s="15"/>
       <c r="C555" s="15" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="D555" s="16"/>
       <c r="E555" s="15"/>
@@ -7815,7 +7848,7 @@
       <c r="B556" s="15"/>
       <c r="C556" s="15"/>
       <c r="D556" s="16" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="E556" s="15"/>
       <c r="F556" s="15"/>
@@ -7830,7 +7863,7 @@
       <c r="B557" s="15"/>
       <c r="C557" s="15"/>
       <c r="D557" s="16" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="E557" s="15"/>
       <c r="F557" s="15"/>
@@ -7845,7 +7878,7 @@
       <c r="B558" s="15"/>
       <c r="C558" s="15"/>
       <c r="D558" s="16" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="E558" s="15"/>
       <c r="F558" s="15"/>
@@ -7872,7 +7905,7 @@
       <c r="A560" s="14"/>
       <c r="B560" s="15"/>
       <c r="C560" s="15" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="D560" s="16"/>
       <c r="E560" s="15"/>
@@ -7887,7 +7920,7 @@
       <c r="A561" s="14"/>
       <c r="B561" s="15"/>
       <c r="C561" s="15" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="D561" s="16"/>
       <c r="E561" s="15"/>
@@ -7902,7 +7935,7 @@
       <c r="A562" s="14"/>
       <c r="B562" s="15"/>
       <c r="C562" s="15" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="D562" s="16"/>
       <c r="E562" s="15"/>
@@ -7918,7 +7951,7 @@
       <c r="B563" s="15"/>
       <c r="C563" s="15"/>
       <c r="D563" s="16" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="E563" s="15"/>
       <c r="F563" s="15"/>
@@ -7933,7 +7966,7 @@
       <c r="B564" s="15"/>
       <c r="C564" s="15"/>
       <c r="D564" s="16" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="E564" s="15"/>
       <c r="F564" s="15"/>
@@ -7960,7 +7993,7 @@
       <c r="A566" s="14"/>
       <c r="B566" s="15"/>
       <c r="C566" s="15" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="D566" s="16"/>
       <c r="E566" s="15"/>
@@ -7976,7 +8009,7 @@
       <c r="B567" s="15"/>
       <c r="C567" s="15"/>
       <c r="D567" s="16" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="E567" s="15"/>
       <c r="F567" s="15"/>
@@ -8003,7 +8036,7 @@
       <c r="A569" s="14"/>
       <c r="B569" s="15"/>
       <c r="C569" s="15" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="D569" s="16"/>
       <c r="E569" s="15"/>
@@ -8019,7 +8052,7 @@
       <c r="B570" s="15"/>
       <c r="C570" s="15"/>
       <c r="D570" s="16" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="E570" s="15"/>
       <c r="F570" s="15"/>
@@ -8046,7 +8079,7 @@
       <c r="A572" s="14"/>
       <c r="B572" s="15"/>
       <c r="C572" s="15" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="D572" s="16"/>
       <c r="E572" s="15"/>
@@ -8062,7 +8095,7 @@
       <c r="B573" s="15"/>
       <c r="C573" s="15"/>
       <c r="D573" s="16" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="E573" s="15"/>
       <c r="F573" s="15"/>
@@ -8089,7 +8122,7 @@
       <c r="A575" s="14"/>
       <c r="B575" s="15"/>
       <c r="C575" s="15" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="D575" s="16"/>
       <c r="E575" s="15"/>
@@ -8104,7 +8137,7 @@
       <c r="A576" s="14"/>
       <c r="B576" s="15"/>
       <c r="C576" s="16" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="D576" s="16"/>
       <c r="E576" s="15"/>
@@ -8120,7 +8153,7 @@
       <c r="B577" s="15"/>
       <c r="C577" s="15"/>
       <c r="D577" s="16" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="E577" s="15"/>
       <c r="F577" s="15"/>
@@ -8135,7 +8168,7 @@
       <c r="B578" s="15"/>
       <c r="C578" s="15"/>
       <c r="D578" s="16" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="E578" s="15"/>
       <c r="F578" s="15"/>
@@ -8162,7 +8195,7 @@
       <c r="A580" s="14"/>
       <c r="B580" s="15"/>
       <c r="C580" s="15" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="D580" s="16"/>
       <c r="E580" s="15"/>
@@ -8177,7 +8210,7 @@
       <c r="A581" s="14"/>
       <c r="B581" s="15"/>
       <c r="C581" s="16" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="D581" s="16"/>
       <c r="E581" s="15"/>
@@ -8192,7 +8225,7 @@
       <c r="A582" s="14"/>
       <c r="B582" s="15"/>
       <c r="C582" s="15" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="D582" s="16"/>
       <c r="E582" s="15"/>
@@ -8208,10 +8241,10 @@
       <c r="B583" s="15"/>
       <c r="C583" s="15"/>
       <c r="D583" s="16" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="E583" s="15" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="F583" s="15"/>
       <c r="G583" s="15"/>
@@ -8225,10 +8258,10 @@
       <c r="B584" s="15"/>
       <c r="C584" s="15"/>
       <c r="D584" s="16" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="E584" s="15" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="F584" s="15"/>
       <c r="G584" s="15"/>
@@ -8242,10 +8275,10 @@
       <c r="B585" s="15"/>
       <c r="C585" s="15"/>
       <c r="D585" s="16" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="E585" s="15" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="F585" s="15"/>
       <c r="G585" s="15"/>
@@ -8259,10 +8292,10 @@
       <c r="B586" s="15"/>
       <c r="C586" s="15"/>
       <c r="D586" s="16" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="E586" s="15" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="F586" s="15"/>
       <c r="G586" s="15"/>
@@ -8288,7 +8321,7 @@
       <c r="A588" s="14"/>
       <c r="B588" s="15"/>
       <c r="C588" s="15" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="D588" s="16"/>
       <c r="E588" s="15"/>
@@ -8304,7 +8337,7 @@
       <c r="B589" s="15"/>
       <c r="C589" s="15"/>
       <c r="D589" s="16" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="E589" s="15"/>
       <c r="F589" s="15"/>
@@ -8331,7 +8364,7 @@
       <c r="A591" s="14"/>
       <c r="B591" s="15"/>
       <c r="C591" s="15" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="D591" s="16"/>
       <c r="E591" s="15"/>
@@ -8347,7 +8380,7 @@
       <c r="B592" s="15"/>
       <c r="C592" s="15"/>
       <c r="D592" s="16" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="E592" s="15"/>
       <c r="F592" s="15"/>
@@ -8374,7 +8407,7 @@
       <c r="A594" s="14"/>
       <c r="B594" s="15"/>
       <c r="C594" s="15" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="D594" s="16"/>
       <c r="E594" s="15"/>
@@ -8390,7 +8423,7 @@
       <c r="B595" s="15"/>
       <c r="C595" s="15"/>
       <c r="D595" s="16" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="E595" s="15"/>
       <c r="F595" s="15"/>
@@ -8415,7 +8448,7 @@
     </row>
     <row r="597" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A597" s="17" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="B597" s="18"/>
       <c r="C597" s="18"/>
@@ -8431,7 +8464,7 @@
     <row r="598" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A598" s="14"/>
       <c r="B598" s="15" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="C598" s="15"/>
       <c r="D598" s="16"/>
@@ -8447,7 +8480,7 @@
       <c r="A599" s="14"/>
       <c r="B599" s="15"/>
       <c r="C599" s="15" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="D599" s="16"/>
       <c r="E599" s="15"/>
@@ -8462,7 +8495,7 @@
       <c r="A600" s="14"/>
       <c r="B600" s="15"/>
       <c r="C600" s="15" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="D600" s="16"/>
       <c r="E600" s="15"/>
@@ -8477,7 +8510,7 @@
       <c r="A601" s="14"/>
       <c r="B601" s="15"/>
       <c r="C601" s="15" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="D601" s="16"/>
       <c r="E601" s="15"/>
@@ -8504,7 +8537,7 @@
     <row r="603" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A603" s="14"/>
       <c r="B603" s="20" t="s">
-        <v>44</v>
+        <v>428</v>
       </c>
       <c r="C603" s="20"/>
       <c r="D603" s="21"/>
@@ -8520,7 +8553,7 @@
       <c r="A604" s="14"/>
       <c r="B604" s="15"/>
       <c r="C604" s="15" t="s">
-        <v>422</v>
+        <v>429</v>
       </c>
       <c r="D604" s="16"/>
       <c r="E604" s="15"/>
@@ -8535,7 +8568,7 @@
       <c r="A605" s="14"/>
       <c r="B605" s="15"/>
       <c r="C605" s="15" t="s">
-        <v>423</v>
+        <v>430</v>
       </c>
       <c r="D605" s="16"/>
       <c r="E605" s="15"/>
@@ -8550,7 +8583,7 @@
       <c r="A606" s="14"/>
       <c r="B606" s="15"/>
       <c r="C606" s="15" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="D606" s="16"/>
       <c r="E606" s="15"/>
@@ -8565,7 +8598,7 @@
       <c r="A607" s="14"/>
       <c r="B607" s="15"/>
       <c r="C607" s="15" t="s">
-        <v>425</v>
+        <v>432</v>
       </c>
       <c r="D607" s="16"/>
       <c r="E607" s="15"/>
@@ -8607,7 +8640,7 @@
     <row r="610" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A610" s="14"/>
       <c r="B610" s="20" t="s">
-        <v>46</v>
+        <v>433</v>
       </c>
       <c r="C610" s="20"/>
       <c r="D610" s="21"/>
@@ -8623,7 +8656,7 @@
       <c r="A611" s="14"/>
       <c r="B611" s="15"/>
       <c r="C611" s="15" t="s">
-        <v>426</v>
+        <v>434</v>
       </c>
       <c r="D611" s="16"/>
       <c r="E611" s="15"/>
@@ -8665,7 +8698,7 @@
     <row r="614" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A614" s="14"/>
       <c r="B614" s="20" t="s">
-        <v>427</v>
+        <v>435</v>
       </c>
       <c r="C614" s="20"/>
       <c r="D614" s="21"/>
@@ -8681,7 +8714,7 @@
       <c r="A615" s="14"/>
       <c r="B615" s="15"/>
       <c r="C615" s="15" t="s">
-        <v>428</v>
+        <v>436</v>
       </c>
       <c r="D615" s="16"/>
       <c r="E615" s="15"/>
@@ -8697,7 +8730,7 @@
       <c r="B616" s="15"/>
       <c r="C616" s="15"/>
       <c r="D616" s="16" t="s">
-        <v>427</v>
+        <v>437</v>
       </c>
       <c r="E616" s="15"/>
       <c r="F616" s="15"/>
@@ -8723,7 +8756,7 @@
     <row r="618" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A618" s="14"/>
       <c r="B618" s="20" t="s">
-        <v>429</v>
+        <v>438</v>
       </c>
       <c r="C618" s="20"/>
       <c r="D618" s="21"/>
@@ -8739,7 +8772,7 @@
       <c r="A619" s="14"/>
       <c r="B619" s="15"/>
       <c r="C619" s="15" t="s">
-        <v>430</v>
+        <v>439</v>
       </c>
       <c r="D619" s="16"/>
       <c r="E619" s="15"/>
@@ -8755,7 +8788,7 @@
       <c r="B620" s="15"/>
       <c r="C620" s="15"/>
       <c r="D620" s="16" t="s">
-        <v>429</v>
+        <v>440</v>
       </c>
       <c r="E620" s="15"/>
       <c r="F620" s="15"/>
@@ -8780,7 +8813,7 @@
     </row>
     <row r="622" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A622" s="17" t="s">
-        <v>431</v>
+        <v>441</v>
       </c>
       <c r="B622" s="18"/>
       <c r="C622" s="18"/>
@@ -8796,7 +8829,7 @@
     <row r="623" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A623" s="14"/>
       <c r="B623" s="15" t="s">
-        <v>432</v>
+        <v>442</v>
       </c>
       <c r="C623" s="15"/>
       <c r="D623" s="16"/>
@@ -8812,7 +8845,7 @@
       <c r="A624" s="14"/>
       <c r="B624" s="15"/>
       <c r="C624" s="15" t="s">
-        <v>433</v>
+        <v>443</v>
       </c>
       <c r="D624" s="16"/>
       <c r="E624" s="15"/>
@@ -8827,7 +8860,7 @@
       <c r="A625" s="14"/>
       <c r="B625" s="15"/>
       <c r="C625" s="15" t="s">
-        <v>434</v>
+        <v>444</v>
       </c>
       <c r="D625" s="16"/>
       <c r="E625" s="15"/>
@@ -8842,7 +8875,7 @@
       <c r="A626" s="14"/>
       <c r="B626" s="15"/>
       <c r="C626" s="15" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
       <c r="D626" s="16"/>
       <c r="E626" s="15"/>
@@ -8857,7 +8890,7 @@
       <c r="A627" s="14"/>
       <c r="B627" s="15"/>
       <c r="C627" s="15" t="s">
-        <v>436</v>
+        <v>446</v>
       </c>
       <c r="D627" s="16"/>
       <c r="E627" s="15"/>
@@ -8884,7 +8917,7 @@
     <row r="629" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A629" s="14"/>
       <c r="B629" s="15" t="s">
-        <v>437</v>
+        <v>447</v>
       </c>
       <c r="C629" s="15"/>
       <c r="D629" s="16"/>
@@ -8899,7 +8932,7 @@
     <row r="630" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A630" s="14"/>
       <c r="B630" s="16" t="s">
-        <v>438</v>
+        <v>448</v>
       </c>
       <c r="C630" s="15"/>
       <c r="D630" s="16"/>
@@ -8914,7 +8947,7 @@
     <row r="631" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A631" s="14"/>
       <c r="B631" s="15" t="s">
-        <v>439</v>
+        <v>449</v>
       </c>
       <c r="C631" s="15"/>
       <c r="D631" s="15"/>
@@ -8957,7 +8990,7 @@
     <row r="634" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A634" s="14"/>
       <c r="B634" s="20" t="s">
-        <v>440</v>
+        <v>450</v>
       </c>
       <c r="C634" s="20"/>
       <c r="D634" s="21"/>
@@ -8973,7 +9006,7 @@
       <c r="A635" s="14"/>
       <c r="B635" s="15"/>
       <c r="C635" s="15" t="s">
-        <v>441</v>
+        <v>451</v>
       </c>
       <c r="D635" s="16"/>
       <c r="E635" s="15"/>
@@ -8988,7 +9021,7 @@
       <c r="A636" s="14"/>
       <c r="B636" s="15"/>
       <c r="C636" s="15" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
       <c r="D636" s="16"/>
       <c r="E636" s="15"/>
@@ -9004,7 +9037,7 @@
       <c r="B637" s="15"/>
       <c r="C637" s="15"/>
       <c r="D637" s="16" t="s">
-        <v>443</v>
+        <v>453</v>
       </c>
       <c r="E637" s="15"/>
       <c r="F637" s="15"/>
@@ -9019,7 +9052,7 @@
       <c r="B638" s="15"/>
       <c r="C638" s="15"/>
       <c r="D638" s="16" t="s">
-        <v>444</v>
+        <v>454</v>
       </c>
       <c r="E638" s="15"/>
       <c r="F638" s="15"/>
@@ -9033,7 +9066,7 @@
       <c r="A639" s="14"/>
       <c r="B639" s="15"/>
       <c r="C639" s="15" t="s">
-        <v>445</v>
+        <v>455</v>
       </c>
       <c r="D639" s="16"/>
       <c r="E639" s="15"/>
@@ -9048,7 +9081,7 @@
       <c r="A640" s="14"/>
       <c r="B640" s="15"/>
       <c r="C640" s="15" t="s">
-        <v>446</v>
+        <v>456</v>
       </c>
       <c r="D640" s="16"/>
       <c r="E640" s="15"/>
@@ -9064,7 +9097,7 @@
       <c r="B641" s="15"/>
       <c r="C641" s="15"/>
       <c r="D641" s="16" t="s">
-        <v>447</v>
+        <v>457</v>
       </c>
       <c r="E641" s="15"/>
       <c r="F641" s="15"/>
@@ -9076,63 +9109,63 @@
     </row>
     <row r="643" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C643" s="2" t="s">
-        <v>448</v>
+        <v>458</v>
       </c>
     </row>
     <row r="644" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D644" s="3" t="s">
-        <v>449</v>
+        <v>459</v>
       </c>
     </row>
     <row r="645" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D645" s="3" t="s">
-        <v>450</v>
+        <v>460</v>
       </c>
     </row>
     <row r="646" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="647" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C647" s="2" t="s">
-        <v>451</v>
+        <v>461</v>
       </c>
     </row>
     <row r="648" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D648" s="3" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="649" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D649" s="3" t="s">
-        <v>452</v>
+        <v>462</v>
       </c>
     </row>
     <row r="651" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C651" s="2" t="s">
-        <v>453</v>
+        <v>463</v>
       </c>
     </row>
     <row r="652" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C652" s="2" t="s">
-        <v>454</v>
+        <v>464</v>
       </c>
     </row>
     <row r="653" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D653" s="3" t="s">
-        <v>455</v>
+        <v>465</v>
       </c>
     </row>
     <row r="655" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C655" s="2" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="656" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C656" s="3" t="s">
-        <v>457</v>
+        <v>467</v>
       </c>
     </row>
     <row r="658" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A658" s="17" t="s">
-        <v>458</v>
+        <v>468</v>
       </c>
       <c r="B658" s="18"/>
       <c r="C658" s="18"/>
@@ -9147,22 +9180,22 @@
     </row>
     <row r="659" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B659" s="2" t="s">
-        <v>459</v>
+        <v>469</v>
       </c>
     </row>
     <row r="660" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B660" s="2" t="s">
-        <v>460</v>
+        <v>470</v>
       </c>
     </row>
     <row r="661" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B661" s="2" t="s">
-        <v>461</v>
+        <v>471</v>
       </c>
     </row>
     <row r="663" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B663" s="20" t="s">
-        <v>462</v>
+        <v>472</v>
       </c>
       <c r="C663" s="20"/>
       <c r="D663" s="21"/>
@@ -9176,32 +9209,32 @@
     </row>
     <row r="664" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C664" s="2" t="s">
-        <v>463</v>
+        <v>473</v>
       </c>
     </row>
     <row r="665" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C665" s="2" t="s">
-        <v>464</v>
+        <v>474</v>
       </c>
     </row>
     <row r="666" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D666" s="3" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="668" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C668" s="2" t="s">
-        <v>466</v>
+        <v>476</v>
       </c>
     </row>
     <row r="669" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C669" s="2" t="s">
-        <v>467</v>
+        <v>477</v>
       </c>
     </row>
     <row r="671" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B671" s="20" t="s">
-        <v>468</v>
+        <v>478</v>
       </c>
       <c r="C671" s="20"/>
       <c r="D671" s="21"/>
@@ -9215,23 +9248,23 @@
     </row>
     <row r="672" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C672" s="2" t="s">
-        <v>469</v>
+        <v>479</v>
       </c>
     </row>
     <row r="673" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C673" s="2" t="s">
-        <v>470</v>
+        <v>480</v>
       </c>
     </row>
     <row r="674" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D674" s="3" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="675" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="676" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C676" s="2" t="s">
-        <v>472</v>
+        <v>482</v>
       </c>
     </row>
     <row r="677" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9242,7 +9275,7 @@
     <row r="678" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="679" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B679" s="20" t="s">
-        <v>473</v>
+        <v>483</v>
       </c>
       <c r="C679" s="20"/>
       <c r="D679" s="21"/>
@@ -9258,7 +9291,7 @@
       <c r="A680" s="14"/>
       <c r="B680" s="15"/>
       <c r="C680" s="15" t="s">
-        <v>474</v>
+        <v>484</v>
       </c>
       <c r="D680" s="16"/>
       <c r="E680" s="15"/>
@@ -9273,7 +9306,7 @@
       <c r="A681" s="14"/>
       <c r="B681" s="15"/>
       <c r="C681" s="15" t="s">
-        <v>475</v>
+        <v>485</v>
       </c>
       <c r="D681" s="16"/>
       <c r="E681" s="15"/>
@@ -9288,7 +9321,7 @@
       <c r="A682" s="14"/>
       <c r="B682" s="15"/>
       <c r="C682" s="15" t="s">
-        <v>476</v>
+        <v>486</v>
       </c>
       <c r="D682" s="16"/>
       <c r="E682" s="15"/>
@@ -9316,7 +9349,7 @@
       <c r="A684" s="14"/>
       <c r="B684" s="15"/>
       <c r="C684" s="15" t="s">
-        <v>477</v>
+        <v>487</v>
       </c>
       <c r="D684" s="16"/>
       <c r="E684" s="15"/>
@@ -9332,7 +9365,7 @@
       <c r="B685" s="15"/>
       <c r="C685" s="15"/>
       <c r="D685" s="16" t="s">
-        <v>478</v>
+        <v>488</v>
       </c>
       <c r="E685" s="15"/>
       <c r="F685" s="15"/>
@@ -9347,7 +9380,7 @@
       <c r="B686" s="15"/>
       <c r="C686" s="15"/>
       <c r="D686" s="16" t="s">
-        <v>479</v>
+        <v>489</v>
       </c>
       <c r="E686" s="15"/>
       <c r="F686" s="15"/>
@@ -9374,7 +9407,7 @@
       <c r="A688" s="14"/>
       <c r="B688" s="15"/>
       <c r="C688" s="15" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
       <c r="D688" s="16"/>
       <c r="E688" s="15"/>
@@ -9389,7 +9422,7 @@
       <c r="A689" s="14"/>
       <c r="B689" s="15"/>
       <c r="C689" s="15" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
       <c r="D689" s="16"/>
       <c r="E689" s="15"/>
@@ -9405,7 +9438,7 @@
       <c r="B690" s="15"/>
       <c r="C690" s="15"/>
       <c r="D690" s="16" t="s">
-        <v>482</v>
+        <v>492</v>
       </c>
       <c r="E690" s="15"/>
       <c r="F690" s="15"/>
@@ -9420,7 +9453,7 @@
       <c r="B691" s="15"/>
       <c r="C691" s="15"/>
       <c r="D691" s="16" t="s">
-        <v>483</v>
+        <v>493</v>
       </c>
       <c r="E691" s="15"/>
       <c r="F691" s="15"/>
@@ -9447,7 +9480,7 @@
       <c r="A693" s="14"/>
       <c r="B693" s="15"/>
       <c r="C693" s="15" t="s">
-        <v>484</v>
+        <v>494</v>
       </c>
       <c r="D693" s="16"/>
       <c r="E693" s="15"/>
@@ -9462,7 +9495,7 @@
       <c r="A694" s="14"/>
       <c r="B694" s="15"/>
       <c r="C694" s="31" t="s">
-        <v>485</v>
+        <v>495</v>
       </c>
       <c r="D694" s="16"/>
       <c r="E694" s="15"/>
@@ -9477,7 +9510,7 @@
       <c r="A695" s="14"/>
       <c r="B695" s="15"/>
       <c r="C695" s="15" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
       <c r="D695" s="16"/>
       <c r="E695" s="15"/>
@@ -9508,7 +9541,7 @@
       <c r="B697" s="15"/>
       <c r="C697" s="15"/>
       <c r="D697" s="16" t="s">
-        <v>487</v>
+        <v>497</v>
       </c>
       <c r="E697" s="15"/>
       <c r="F697" s="15"/>
@@ -9523,7 +9556,7 @@
       <c r="B698" s="15"/>
       <c r="C698" s="15"/>
       <c r="D698" s="16" t="s">
-        <v>488</v>
+        <v>498</v>
       </c>
       <c r="E698" s="15"/>
       <c r="F698" s="15"/>
@@ -9549,7 +9582,7 @@
     <row r="700" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A700" s="14"/>
       <c r="B700" s="20" t="s">
-        <v>489</v>
+        <v>499</v>
       </c>
       <c r="C700" s="20"/>
       <c r="D700" s="21"/>
@@ -9581,7 +9614,7 @@
       <c r="B702" s="15"/>
       <c r="C702" s="15"/>
       <c r="D702" s="16" t="s">
-        <v>490</v>
+        <v>500</v>
       </c>
       <c r="E702" s="15"/>
       <c r="F702" s="15"/>
@@ -9608,7 +9641,7 @@
       <c r="A704" s="14"/>
       <c r="B704" s="15"/>
       <c r="C704" s="15" t="s">
-        <v>491</v>
+        <v>501</v>
       </c>
       <c r="D704" s="16"/>
       <c r="E704" s="15"/>
@@ -9623,7 +9656,7 @@
       <c r="A705" s="14"/>
       <c r="B705" s="15"/>
       <c r="C705" s="15" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
       <c r="D705" s="16"/>
       <c r="E705" s="15"/>
@@ -9639,7 +9672,7 @@
       <c r="B706" s="15"/>
       <c r="C706" s="15"/>
       <c r="D706" s="16" t="s">
-        <v>493</v>
+        <v>503</v>
       </c>
       <c r="E706" s="15"/>
       <c r="F706" s="15"/>
@@ -9666,7 +9699,7 @@
       <c r="A708" s="14"/>
       <c r="B708" s="15"/>
       <c r="C708" s="15" t="s">
-        <v>494</v>
+        <v>504</v>
       </c>
       <c r="D708" s="16"/>
       <c r="E708" s="15"/>
@@ -9681,7 +9714,7 @@
       <c r="A709" s="14"/>
       <c r="B709" s="15"/>
       <c r="C709" s="31" t="s">
-        <v>495</v>
+        <v>505</v>
       </c>
       <c r="D709" s="16"/>
       <c r="E709" s="15"/>
@@ -9697,7 +9730,7 @@
       <c r="B710" s="15"/>
       <c r="C710" s="15"/>
       <c r="D710" s="16" t="s">
-        <v>496</v>
+        <v>506</v>
       </c>
       <c r="E710" s="15"/>
       <c r="F710" s="15"/>
@@ -9724,7 +9757,7 @@
       <c r="A712" s="14"/>
       <c r="B712" s="15"/>
       <c r="C712" s="15" t="s">
-        <v>497</v>
+        <v>507</v>
       </c>
       <c r="D712" s="16"/>
       <c r="E712" s="15"/>
@@ -9755,7 +9788,7 @@
       <c r="B714" s="15"/>
       <c r="C714" s="15"/>
       <c r="D714" s="16" t="s">
-        <v>498</v>
+        <v>508</v>
       </c>
       <c r="E714" s="15"/>
       <c r="F714" s="15"/>
@@ -9782,7 +9815,7 @@
       <c r="A716" s="14"/>
       <c r="B716" s="15"/>
       <c r="C716" s="2" t="s">
-        <v>469</v>
+        <v>479</v>
       </c>
       <c r="D716" s="16"/>
       <c r="E716" s="15"/>
@@ -9797,7 +9830,7 @@
       <c r="A717" s="14"/>
       <c r="B717" s="15"/>
       <c r="C717" s="2" t="s">
-        <v>499</v>
+        <v>509</v>
       </c>
       <c r="D717" s="16"/>
       <c r="E717" s="15"/>
@@ -9812,7 +9845,7 @@
       <c r="A718" s="14"/>
       <c r="B718" s="15"/>
       <c r="C718" s="2" t="s">
-        <v>500</v>
+        <v>510</v>
       </c>
       <c r="D718" s="16"/>
       <c r="E718" s="15"/>
@@ -9827,7 +9860,7 @@
       <c r="A719" s="14"/>
       <c r="B719" s="15"/>
       <c r="C719" s="2" t="s">
-        <v>501</v>
+        <v>511</v>
       </c>
       <c r="D719" s="16"/>
       <c r="E719" s="15"/>
@@ -9843,7 +9876,7 @@
       <c r="B720" s="15"/>
       <c r="C720" s="15"/>
       <c r="D720" s="16" t="s">
-        <v>502</v>
+        <v>512</v>
       </c>
       <c r="E720" s="15"/>
       <c r="F720" s="15"/>
@@ -9869,7 +9902,7 @@
     <row r="722" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A722" s="14"/>
       <c r="B722" s="20" t="s">
-        <v>56</v>
+        <v>513</v>
       </c>
       <c r="C722" s="20"/>
       <c r="D722" s="21"/>
@@ -9885,7 +9918,7 @@
       <c r="A723" s="14"/>
       <c r="B723" s="15"/>
       <c r="C723" s="15" t="s">
-        <v>503</v>
+        <v>514</v>
       </c>
       <c r="D723" s="16"/>
       <c r="E723" s="15"/>
@@ -9900,7 +9933,7 @@
       <c r="A724" s="14"/>
       <c r="B724" s="15"/>
       <c r="C724" s="15" t="s">
-        <v>504</v>
+        <v>515</v>
       </c>
       <c r="D724" s="16"/>
       <c r="E724" s="15"/>
@@ -9916,7 +9949,7 @@
       <c r="B725" s="15"/>
       <c r="C725" s="15"/>
       <c r="D725" s="16" t="s">
-        <v>482</v>
+        <v>492</v>
       </c>
       <c r="E725" s="15"/>
       <c r="F725" s="15"/>
@@ -9931,7 +9964,7 @@
       <c r="B726" s="15"/>
       <c r="C726" s="15"/>
       <c r="D726" s="16" t="s">
-        <v>505</v>
+        <v>516</v>
       </c>
       <c r="E726" s="15"/>
       <c r="F726" s="15"/>
@@ -9958,7 +9991,7 @@
       <c r="A728" s="14"/>
       <c r="B728" s="15"/>
       <c r="C728" s="15" t="s">
-        <v>506</v>
+        <v>517</v>
       </c>
       <c r="D728" s="16"/>
       <c r="E728" s="15"/>
@@ -9973,7 +10006,7 @@
       <c r="A729" s="14"/>
       <c r="B729" s="15"/>
       <c r="C729" s="15" t="s">
-        <v>507</v>
+        <v>518</v>
       </c>
       <c r="D729" s="16"/>
       <c r="E729" s="15"/>
@@ -9988,7 +10021,7 @@
       <c r="A730" s="14"/>
       <c r="B730" s="15"/>
       <c r="C730" s="15" t="s">
-        <v>508</v>
+        <v>519</v>
       </c>
       <c r="D730" s="16"/>
       <c r="E730" s="15"/>
@@ -10003,7 +10036,7 @@
       <c r="A731" s="14"/>
       <c r="B731" s="15"/>
       <c r="C731" s="15" t="s">
-        <v>509</v>
+        <v>520</v>
       </c>
       <c r="D731" s="16"/>
       <c r="E731" s="15"/>
@@ -10034,7 +10067,7 @@
       <c r="B733" s="15"/>
       <c r="C733" s="15"/>
       <c r="D733" s="16" t="s">
-        <v>510</v>
+        <v>521</v>
       </c>
       <c r="E733" s="15"/>
       <c r="F733" s="15"/>
@@ -10061,7 +10094,7 @@
       <c r="A735" s="14"/>
       <c r="B735" s="15"/>
       <c r="C735" s="15" t="s">
-        <v>511</v>
+        <v>522</v>
       </c>
       <c r="D735" s="16"/>
       <c r="E735" s="15"/>
@@ -10076,7 +10109,7 @@
       <c r="A736" s="14"/>
       <c r="B736" s="15"/>
       <c r="C736" s="15" t="s">
-        <v>512</v>
+        <v>523</v>
       </c>
       <c r="D736" s="16"/>
       <c r="E736" s="15"/>
@@ -10092,7 +10125,7 @@
       <c r="B737" s="15"/>
       <c r="C737" s="15"/>
       <c r="D737" s="16" t="s">
-        <v>513</v>
+        <v>524</v>
       </c>
       <c r="E737" s="15"/>
       <c r="F737" s="15"/>
@@ -10107,7 +10140,7 @@
       <c r="B738" s="15"/>
       <c r="C738" s="15"/>
       <c r="D738" s="16" t="s">
-        <v>514</v>
+        <v>525</v>
       </c>
       <c r="E738" s="15"/>
       <c r="F738" s="15"/>
@@ -10134,7 +10167,7 @@
       <c r="A740" s="14"/>
       <c r="B740" s="15"/>
       <c r="C740" s="15" t="s">
-        <v>511</v>
+        <v>522</v>
       </c>
       <c r="D740" s="16"/>
       <c r="E740" s="15"/>
@@ -10149,7 +10182,7 @@
       <c r="A741" s="14"/>
       <c r="B741" s="15"/>
       <c r="C741" s="15" t="s">
-        <v>515</v>
+        <v>526</v>
       </c>
       <c r="D741" s="16"/>
       <c r="E741" s="15"/>
@@ -10164,7 +10197,7 @@
       <c r="A742" s="14"/>
       <c r="B742" s="15"/>
       <c r="C742" s="15" t="s">
-        <v>516</v>
+        <v>527</v>
       </c>
       <c r="D742" s="16"/>
       <c r="E742" s="15"/>
@@ -10180,7 +10213,7 @@
       <c r="B743" s="15"/>
       <c r="C743" s="15"/>
       <c r="D743" s="16" t="s">
-        <v>517</v>
+        <v>528</v>
       </c>
       <c r="E743" s="15"/>
       <c r="F743" s="15"/>
@@ -10195,7 +10228,7 @@
       <c r="B744" s="15"/>
       <c r="C744" s="15"/>
       <c r="D744" s="16" t="s">
-        <v>518</v>
+        <v>529</v>
       </c>
       <c r="E744" s="15"/>
       <c r="F744" s="15"/>
@@ -10220,7 +10253,7 @@
     </row>
     <row r="746" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A746" s="17" t="s">
-        <v>519</v>
+        <v>530</v>
       </c>
       <c r="B746" s="18"/>
       <c r="C746" s="18"/>
@@ -10235,17 +10268,17 @@
     </row>
     <row r="747" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B747" s="2" t="s">
-        <v>520</v>
+        <v>531</v>
       </c>
     </row>
     <row r="748" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B748" s="2" t="s">
-        <v>521</v>
+        <v>532</v>
       </c>
     </row>
     <row r="750" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B750" s="20" t="s">
-        <v>522</v>
+        <v>533</v>
       </c>
       <c r="C750" s="20"/>
       <c r="D750" s="21"/>
@@ -10259,27 +10292,27 @@
     </row>
     <row r="751" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C751" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
     </row>
     <row r="752" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C752" s="2" t="s">
-        <v>524</v>
+        <v>535</v>
       </c>
     </row>
     <row r="753" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C753" s="2" t="s">
-        <v>525</v>
+        <v>536</v>
       </c>
     </row>
     <row r="754" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C754" s="2" t="s">
-        <v>526</v>
+        <v>537</v>
       </c>
     </row>
     <row r="756" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C756" s="2" t="s">
-        <v>527</v>
+        <v>538</v>
       </c>
     </row>
     <row r="757" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10289,27 +10322,27 @@
     </row>
     <row r="759" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C759" s="2" t="s">
-        <v>528</v>
+        <v>539</v>
       </c>
     </row>
     <row r="760" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C760" s="2" t="s">
-        <v>529</v>
+        <v>540</v>
       </c>
     </row>
     <row r="761" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D761" s="3" t="s">
-        <v>530</v>
+        <v>541</v>
       </c>
     </row>
     <row r="763" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C763" s="2" t="s">
-        <v>531</v>
+        <v>542</v>
       </c>
     </row>
     <row r="764" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D764" s="3" t="s">
-        <v>490</v>
+        <v>500</v>
       </c>
     </row>
     <row r="765" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10319,12 +10352,12 @@
     </row>
     <row r="767" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C767" s="2" t="s">
-        <v>532</v>
+        <v>543</v>
       </c>
     </row>
     <row r="768" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D768" s="3" t="s">
-        <v>496</v>
+        <v>506</v>
       </c>
     </row>
     <row r="769" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10334,38 +10367,38 @@
     </row>
     <row r="771" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C771" s="2" t="s">
-        <v>533</v>
+        <v>544</v>
       </c>
     </row>
     <row r="772" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C772" s="2" t="s">
-        <v>534</v>
+        <v>545</v>
       </c>
     </row>
     <row r="773" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D773" s="3" t="s">
-        <v>535</v>
+        <v>546</v>
       </c>
     </row>
     <row r="774" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D774" s="3" t="s">
-        <v>536</v>
+        <v>547</v>
       </c>
     </row>
     <row r="776" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C776" s="2" t="s">
-        <v>537</v>
+        <v>548</v>
       </c>
       <c r="D776" s="0"/>
     </row>
     <row r="777" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D777" s="3" t="s">
-        <v>538</v>
+        <v>549</v>
       </c>
     </row>
     <row r="779" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C779" s="2" t="s">
-        <v>539</v>
+        <v>550</v>
       </c>
     </row>
     <row r="780" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10375,7 +10408,7 @@
     </row>
     <row r="782" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C782" s="2" t="s">
-        <v>540</v>
+        <v>551</v>
       </c>
     </row>
     <row r="783" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10385,7 +10418,7 @@
     </row>
     <row r="785" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B785" s="20" t="s">
-        <v>541</v>
+        <v>552</v>
       </c>
       <c r="C785" s="20"/>
       <c r="D785" s="21"/>
@@ -10399,22 +10432,22 @@
     </row>
     <row r="786" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C786" s="2" t="s">
-        <v>542</v>
+        <v>553</v>
       </c>
     </row>
     <row r="787" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C787" s="2" t="s">
-        <v>543</v>
+        <v>554</v>
       </c>
     </row>
     <row r="788" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C788" s="2" t="s">
-        <v>544</v>
+        <v>555</v>
       </c>
     </row>
     <row r="790" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C790" s="2" t="s">
-        <v>545</v>
+        <v>556</v>
       </c>
     </row>
     <row r="791" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10424,27 +10457,27 @@
     </row>
     <row r="793" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C793" s="2" t="s">
-        <v>546</v>
+        <v>557</v>
       </c>
     </row>
     <row r="794" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C794" s="2" t="s">
-        <v>547</v>
+        <v>558</v>
       </c>
     </row>
     <row r="795" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C795" s="2" t="s">
-        <v>548</v>
+        <v>559</v>
       </c>
     </row>
     <row r="797" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C797" s="2" t="s">
-        <v>549</v>
+        <v>560</v>
       </c>
     </row>
     <row r="798" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C798" s="2" t="s">
-        <v>550</v>
+        <v>561</v>
       </c>
     </row>
     <row r="799" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10454,52 +10487,52 @@
     </row>
     <row r="800" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C800" s="2" t="s">
-        <v>551</v>
+        <v>562</v>
       </c>
     </row>
     <row r="801" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D801" s="3" t="s">
-        <v>552</v>
+        <v>563</v>
       </c>
     </row>
     <row r="802" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C802" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
     </row>
     <row r="803" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D803" s="3" t="s">
-        <v>554</v>
+        <v>565</v>
       </c>
     </row>
     <row r="804" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C804" s="2" t="s">
-        <v>555</v>
+        <v>566</v>
       </c>
     </row>
     <row r="805" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D805" s="3" t="s">
-        <v>556</v>
+        <v>567</v>
       </c>
     </row>
     <row r="806" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C806" s="2" t="s">
-        <v>557</v>
+        <v>568</v>
       </c>
     </row>
     <row r="807" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D807" s="3" t="s">
-        <v>558</v>
+        <v>569</v>
       </c>
     </row>
     <row r="808" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C808" s="2" t="s">
-        <v>559</v>
+        <v>570</v>
       </c>
     </row>
     <row r="810" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B810" s="20" t="s">
-        <v>560</v>
+        <v>571</v>
       </c>
       <c r="C810" s="20"/>
       <c r="D810" s="21"/>
@@ -10513,43 +10546,43 @@
     </row>
     <row r="811" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C811" s="2" t="s">
-        <v>561</v>
+        <v>572</v>
       </c>
     </row>
     <row r="812" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C812" s="2" t="s">
-        <v>562</v>
+        <v>573</v>
       </c>
     </row>
     <row r="813" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C813" s="2" t="s">
-        <v>563</v>
+        <v>574</v>
       </c>
     </row>
     <row r="814" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C814" s="3" t="s">
-        <v>564</v>
+        <v>575</v>
       </c>
     </row>
     <row r="815" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C815" s="3" t="s">
-        <v>565</v>
+        <v>576</v>
       </c>
     </row>
     <row r="816" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C816" s="3" t="s">
-        <v>566</v>
+        <v>577</v>
       </c>
     </row>
     <row r="817" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C817" s="3" t="s">
-        <v>567</v>
+        <v>578</v>
       </c>
     </row>
     <row r="818" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C818" s="3"/>
       <c r="D818" s="3" t="s">
-        <v>568</v>
+        <v>579</v>
       </c>
     </row>
     <row r="819" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10557,27 +10590,27 @@
     </row>
     <row r="820" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C820" s="2" t="s">
-        <v>569</v>
+        <v>580</v>
       </c>
     </row>
     <row r="821" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D821" s="3" t="s">
-        <v>570</v>
+        <v>581</v>
       </c>
     </row>
     <row r="823" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C823" s="2" t="s">
-        <v>571</v>
+        <v>582</v>
       </c>
     </row>
     <row r="824" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C824" s="2" t="s">
-        <v>572</v>
+        <v>583</v>
       </c>
     </row>
     <row r="825" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C825" s="2" t="s">
-        <v>573</v>
+        <v>584</v>
       </c>
     </row>
     <row r="826" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10587,27 +10620,27 @@
     </row>
     <row r="827" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D827" s="3" t="s">
-        <v>574</v>
+        <v>585</v>
       </c>
     </row>
     <row r="829" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C829" s="2" t="s">
-        <v>575</v>
+        <v>586</v>
       </c>
     </row>
     <row r="830" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C830" s="2" t="s">
-        <v>576</v>
+        <v>587</v>
       </c>
     </row>
     <row r="831" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D831" s="3" t="s">
-        <v>577</v>
+        <v>588</v>
       </c>
     </row>
     <row r="833" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B833" s="20" t="s">
-        <v>578</v>
+        <v>589</v>
       </c>
       <c r="C833" s="20"/>
       <c r="D833" s="21"/>
@@ -10621,7 +10654,7 @@
     </row>
     <row r="834" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C834" s="2" t="s">
-        <v>579</v>
+        <v>590</v>
       </c>
     </row>
     <row r="835" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10631,7 +10664,7 @@
     </row>
     <row r="837" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C837" s="2" t="s">
-        <v>580</v>
+        <v>591</v>
       </c>
     </row>
     <row r="838" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10641,7 +10674,7 @@
     </row>
     <row r="840" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C840" s="2" t="s">
-        <v>581</v>
+        <v>592</v>
       </c>
     </row>
     <row r="841" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10651,7 +10684,7 @@
     </row>
     <row r="843" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C843" s="2" t="s">
-        <v>582</v>
+        <v>593</v>
       </c>
     </row>
     <row r="844" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10661,7 +10694,7 @@
     </row>
     <row r="846" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C846" s="2" t="s">
-        <v>583</v>
+        <v>594</v>
       </c>
     </row>
     <row r="847" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10671,7 +10704,7 @@
     </row>
     <row r="849" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C849" s="2" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
     </row>
     <row r="850" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10681,7 +10714,7 @@
     </row>
     <row r="852" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B852" s="20" t="s">
-        <v>585</v>
+        <v>596</v>
       </c>
       <c r="C852" s="20"/>
       <c r="D852" s="21"/>
@@ -10695,75 +10728,75 @@
     </row>
     <row r="853" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C853" s="2" t="s">
-        <v>586</v>
+        <v>597</v>
       </c>
     </row>
     <row r="854" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C854" s="2" t="s">
-        <v>587</v>
+        <v>598</v>
       </c>
     </row>
     <row r="855" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D855" s="3" t="s">
-        <v>588</v>
+        <v>599</v>
       </c>
     </row>
     <row r="857" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C857" s="2" t="s">
-        <v>589</v>
+        <v>600</v>
       </c>
     </row>
     <row r="858" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C858" s="2" t="s">
-        <v>590</v>
+        <v>601</v>
       </c>
     </row>
     <row r="859" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D859" s="3" t="s">
-        <v>591</v>
+        <v>602</v>
       </c>
     </row>
     <row r="861" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C861" s="2" t="s">
-        <v>592</v>
+        <v>603</v>
       </c>
     </row>
     <row r="862" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C862" s="3" t="s">
-        <v>593</v>
+        <v>604</v>
       </c>
       <c r="D862" s="3" t="s">
-        <v>594</v>
+        <v>605</v>
       </c>
       <c r="E862" s="2" t="s">
-        <v>595</v>
+        <v>606</v>
       </c>
     </row>
     <row r="863" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C863" s="3" t="s">
-        <v>596</v>
+        <v>607</v>
       </c>
       <c r="D863" s="3" t="s">
-        <v>597</v>
+        <v>608</v>
       </c>
       <c r="E863" s="2" t="s">
-        <v>598</v>
+        <v>609</v>
       </c>
     </row>
     <row r="864" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C864" s="3" t="s">
-        <v>599</v>
+        <v>610</v>
       </c>
       <c r="D864" s="3" t="s">
-        <v>600</v>
+        <v>611</v>
       </c>
       <c r="E864" s="2" t="s">
-        <v>601</v>
+        <v>612</v>
       </c>
     </row>
     <row r="866" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A866" s="17" t="s">
-        <v>602</v>
+        <v>613</v>
       </c>
       <c r="B866" s="18"/>
       <c r="C866" s="18"/>
@@ -10778,32 +10811,32 @@
     </row>
     <row r="867" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B867" s="2" t="s">
-        <v>603</v>
+        <v>614</v>
       </c>
     </row>
     <row r="868" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B868" s="2" t="s">
-        <v>604</v>
+        <v>615</v>
       </c>
     </row>
     <row r="869" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B869" s="2" t="s">
-        <v>605</v>
+        <v>616</v>
       </c>
     </row>
     <row r="870" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B870" s="2" t="s">
-        <v>606</v>
+        <v>617</v>
       </c>
     </row>
     <row r="871" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B871" s="2" t="s">
-        <v>607</v>
+        <v>618</v>
       </c>
     </row>
     <row r="873" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B873" s="20" t="s">
-        <v>608</v>
+        <v>619</v>
       </c>
       <c r="C873" s="20"/>
       <c r="D873" s="21"/>
@@ -10817,7 +10850,7 @@
     </row>
     <row r="874" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C874" s="2" t="s">
-        <v>609</v>
+        <v>620</v>
       </c>
     </row>
     <row r="875" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10827,7 +10860,7 @@
     </row>
     <row r="877" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C877" s="2" t="s">
-        <v>610</v>
+        <v>621</v>
       </c>
     </row>
     <row r="878" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10838,7 +10871,7 @@
     <row r="879" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="880" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C880" s="2" t="s">
-        <v>611</v>
+        <v>622</v>
       </c>
     </row>
     <row r="881" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10849,7 +10882,7 @@
     <row r="882" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="883" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B883" s="20" t="s">
-        <v>612</v>
+        <v>623</v>
       </c>
       <c r="C883" s="20"/>
       <c r="D883" s="21"/>
@@ -10863,37 +10896,37 @@
     </row>
     <row r="884" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C884" s="2" t="s">
-        <v>613</v>
+        <v>624</v>
       </c>
     </row>
     <row r="885" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D885" s="3" t="s">
-        <v>614</v>
+        <v>625</v>
       </c>
     </row>
     <row r="887" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C887" s="2" t="s">
-        <v>615</v>
+        <v>626</v>
       </c>
     </row>
     <row r="888" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C888" s="2" t="s">
-        <v>616</v>
+        <v>627</v>
       </c>
     </row>
     <row r="889" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C889" s="2" t="s">
-        <v>617</v>
+        <v>628</v>
       </c>
     </row>
     <row r="890" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D890" s="3" t="s">
-        <v>618</v>
+        <v>629</v>
       </c>
     </row>
     <row r="892" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B892" s="20" t="s">
-        <v>619</v>
+        <v>630</v>
       </c>
       <c r="C892" s="20"/>
       <c r="D892" s="21"/>
@@ -10907,17 +10940,17 @@
     </row>
     <row r="893" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C893" s="2" t="s">
-        <v>620</v>
+        <v>631</v>
       </c>
     </row>
     <row r="894" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D894" s="3" t="s">
-        <v>621</v>
+        <v>632</v>
       </c>
     </row>
     <row r="896" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C896" s="2" t="s">
-        <v>622</v>
+        <v>633</v>
       </c>
     </row>
     <row r="897" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10927,7 +10960,7 @@
     </row>
     <row r="899" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B899" s="20" t="s">
-        <v>623</v>
+        <v>634</v>
       </c>
       <c r="C899" s="20"/>
       <c r="D899" s="21"/>
@@ -10941,68 +10974,68 @@
     </row>
     <row r="900" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C900" s="2" t="s">
-        <v>624</v>
+        <v>635</v>
       </c>
     </row>
     <row r="901" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C901" s="2" t="s">
-        <v>625</v>
+        <v>636</v>
       </c>
     </row>
     <row r="902" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C902" s="2" t="s">
-        <v>626</v>
+        <v>637</v>
       </c>
     </row>
     <row r="903" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D903" s="3" t="s">
-        <v>627</v>
+        <v>638</v>
       </c>
     </row>
     <row r="904" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D904" s="3" t="s">
-        <v>628</v>
+        <v>639</v>
       </c>
     </row>
     <row r="905" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D905" s="3" t="s">
-        <v>629</v>
+        <v>640</v>
       </c>
     </row>
     <row r="906" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="907" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C907" s="2" t="s">
-        <v>630</v>
+        <v>641</v>
       </c>
     </row>
     <row r="908" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C908" s="2" t="s">
-        <v>631</v>
+        <v>642</v>
       </c>
     </row>
     <row r="909" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C909" s="2" t="s">
-        <v>632</v>
+        <v>643</v>
       </c>
     </row>
     <row r="910" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C910" s="2" t="s">
-        <v>633</v>
+        <v>644</v>
       </c>
     </row>
     <row r="911" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D911" s="3" t="s">
-        <v>634</v>
+        <v>645</v>
       </c>
     </row>
     <row r="912" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D912" s="3" t="s">
-        <v>635</v>
+        <v>646</v>
       </c>
     </row>
     <row r="914" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B914" s="20" t="s">
-        <v>636</v>
+        <v>647</v>
       </c>
       <c r="C914" s="20"/>
       <c r="D914" s="21"/>
@@ -11016,18 +11049,18 @@
     </row>
     <row r="915" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C915" s="2" t="s">
-        <v>637</v>
+        <v>648</v>
       </c>
     </row>
     <row r="916" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D916" s="3" t="s">
-        <v>638</v>
+        <v>649</v>
       </c>
     </row>
     <row r="917" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="918" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C918" s="2" t="s">
-        <v>639</v>
+        <v>650</v>
       </c>
     </row>
     <row r="919" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11038,28 +11071,28 @@
     <row r="920" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="921" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C921" s="2" t="s">
-        <v>640</v>
+        <v>651</v>
       </c>
     </row>
     <row r="922" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D922" s="3" t="s">
-        <v>641</v>
+        <v>652</v>
       </c>
     </row>
     <row r="923" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="924" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C924" s="2" t="s">
-        <v>642</v>
+        <v>653</v>
       </c>
     </row>
     <row r="925" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C925" s="2" t="s">
-        <v>643</v>
+        <v>654</v>
       </c>
     </row>
     <row r="926" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C926" s="2" t="s">
-        <v>644</v>
+        <v>655</v>
       </c>
     </row>
     <row r="927" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11069,37 +11102,37 @@
     </row>
     <row r="929" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C929" s="2" t="s">
-        <v>645</v>
+        <v>656</v>
       </c>
     </row>
     <row r="930" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D930" s="3" t="s">
-        <v>646</v>
+        <v>657</v>
       </c>
     </row>
     <row r="932" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C932" s="2" t="s">
-        <v>647</v>
+        <v>658</v>
       </c>
     </row>
     <row r="933" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C933" s="2" t="s">
-        <v>648</v>
+        <v>659</v>
       </c>
     </row>
     <row r="934" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C934" s="2" t="s">
-        <v>649</v>
+        <v>660</v>
       </c>
     </row>
     <row r="935" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D935" s="3" t="s">
-        <v>650</v>
+        <v>661</v>
       </c>
     </row>
     <row r="937" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B937" s="20" t="s">
-        <v>651</v>
+        <v>662</v>
       </c>
       <c r="C937" s="20"/>
       <c r="D937" s="21"/>
@@ -11113,40 +11146,40 @@
     </row>
     <row r="938" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C938" s="2" t="s">
-        <v>652</v>
+        <v>663</v>
       </c>
     </row>
     <row r="939" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C939" s="2" t="s">
-        <v>653</v>
+        <v>664</v>
       </c>
     </row>
     <row r="940" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C940" s="2" t="s">
-        <v>654</v>
+        <v>665</v>
       </c>
     </row>
     <row r="941" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C941" s="2" t="s">
-        <v>655</v>
+        <v>666</v>
       </c>
     </row>
     <row r="942" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C942" s="2" t="s">
-        <v>656</v>
+        <v>667</v>
       </c>
     </row>
     <row r="943" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C943" s="2" t="s">
-        <v>657</v>
+        <v>668</v>
       </c>
     </row>
     <row r="944" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F944" s="2" t="s">
-        <v>658</v>
+        <v>669</v>
       </c>
       <c r="J944" s="2" t="s">
-        <v>659</v>
+        <v>670</v>
       </c>
     </row>
     <row r="945" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11161,12 +11194,12 @@
     </row>
     <row r="946" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J946" s="2" t="s">
-        <v>660</v>
+        <v>671</v>
       </c>
     </row>
     <row r="948" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C948" s="2" t="s">
-        <v>661</v>
+        <v>672</v>
       </c>
     </row>
     <row r="949" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11176,62 +11209,62 @@
     </row>
     <row r="950" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D950" s="3" t="s">
-        <v>662</v>
+        <v>673</v>
       </c>
     </row>
     <row r="952" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C952" s="2" t="s">
-        <v>663</v>
+        <v>674</v>
       </c>
     </row>
     <row r="953" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D953" s="3" t="s">
-        <v>664</v>
+        <v>675</v>
       </c>
     </row>
     <row r="955" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C955" s="2" t="s">
-        <v>665</v>
+        <v>676</v>
       </c>
     </row>
     <row r="956" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C956" s="2" t="s">
-        <v>666</v>
+        <v>677</v>
       </c>
     </row>
     <row r="957" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D957" s="3" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
     </row>
     <row r="958" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D958" s="3" t="s">
-        <v>667</v>
+        <v>678</v>
       </c>
     </row>
     <row r="959" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D959" s="3" t="s">
-        <v>668</v>
+        <v>679</v>
       </c>
     </row>
     <row r="961" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C961" s="2" t="s">
-        <v>669</v>
+        <v>680</v>
       </c>
     </row>
     <row r="962" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C962" s="2" t="s">
-        <v>670</v>
+        <v>681</v>
       </c>
     </row>
     <row r="963" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D963" s="3" t="s">
-        <v>671</v>
+        <v>682</v>
       </c>
     </row>
     <row r="965" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B965" s="20" t="s">
-        <v>672</v>
+        <v>683</v>
       </c>
       <c r="C965" s="20"/>
       <c r="D965" s="21"/>
@@ -11245,32 +11278,32 @@
     </row>
     <row r="966" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C966" s="2" t="s">
-        <v>673</v>
+        <v>684</v>
       </c>
     </row>
     <row r="967" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C967" s="2" t="s">
-        <v>674</v>
+        <v>685</v>
       </c>
     </row>
     <row r="968" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D968" s="3" t="s">
-        <v>675</v>
+        <v>686</v>
       </c>
     </row>
     <row r="969" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D969" s="3" t="s">
-        <v>676</v>
+        <v>687</v>
       </c>
     </row>
     <row r="971" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C971" s="2" t="s">
-        <v>677</v>
+        <v>688</v>
       </c>
     </row>
     <row r="973" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B973" s="20" t="s">
-        <v>678</v>
+        <v>689</v>
       </c>
       <c r="C973" s="20"/>
       <c r="D973" s="21"/>
@@ -11284,22 +11317,22 @@
     </row>
     <row r="974" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C974" s="2" t="s">
-        <v>679</v>
+        <v>690</v>
       </c>
     </row>
     <row r="975" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C975" s="2" t="s">
-        <v>680</v>
+        <v>691</v>
       </c>
     </row>
     <row r="976" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D976" s="3" t="s">
-        <v>681</v>
+        <v>692</v>
       </c>
     </row>
     <row r="979" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A979" s="17" t="s">
-        <v>682</v>
+        <v>693</v>
       </c>
       <c r="B979" s="18"/>
       <c r="C979" s="18"/>
@@ -11314,12 +11347,12 @@
     </row>
     <row r="980" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B980" s="2" t="s">
-        <v>683</v>
+        <v>694</v>
       </c>
     </row>
     <row r="982" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B982" s="20" t="s">
-        <v>684</v>
+        <v>695</v>
       </c>
       <c r="C982" s="20"/>
       <c r="D982" s="21"/>
@@ -11333,7 +11366,7 @@
     </row>
     <row r="983" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C983" s="2" t="s">
-        <v>685</v>
+        <v>696</v>
       </c>
     </row>
     <row r="984" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11343,32 +11376,32 @@
     </row>
     <row r="986" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C986" s="2" t="s">
-        <v>686</v>
+        <v>697</v>
       </c>
     </row>
     <row r="987" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D987" s="3" t="s">
-        <v>687</v>
+        <v>698</v>
       </c>
     </row>
     <row r="989" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C989" s="2" t="s">
-        <v>688</v>
+        <v>699</v>
       </c>
     </row>
     <row r="990" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C990" s="2" t="s">
-        <v>689</v>
+        <v>700</v>
       </c>
     </row>
     <row r="991" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C991" s="2" t="s">
-        <v>690</v>
+        <v>701</v>
       </c>
     </row>
     <row r="992" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D992" s="3" t="s">
-        <v>691</v>
+        <v>702</v>
       </c>
     </row>
     <row r="993" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11376,17 +11409,17 @@
     </row>
     <row r="994" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C994" s="2" t="s">
-        <v>692</v>
+        <v>703</v>
       </c>
     </row>
     <row r="995" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D995" s="3" t="s">
-        <v>693</v>
+        <v>704</v>
       </c>
     </row>
     <row r="997" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B997" s="20" t="s">
-        <v>694</v>
+        <v>705</v>
       </c>
       <c r="C997" s="20"/>
       <c r="D997" s="21"/>
@@ -11400,27 +11433,27 @@
     </row>
     <row r="998" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C998" s="2" t="s">
-        <v>695</v>
+        <v>706</v>
       </c>
     </row>
     <row r="999" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D999" s="3" t="s">
-        <v>696</v>
+        <v>707</v>
       </c>
     </row>
     <row r="1001" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C1001" s="2" t="s">
-        <v>697</v>
+        <v>708</v>
       </c>
     </row>
     <row r="1002" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D1002" s="3" t="s">
-        <v>698</v>
+        <v>709</v>
       </c>
     </row>
     <row r="1004" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1004" s="20" t="s">
-        <v>699</v>
+        <v>710</v>
       </c>
       <c r="C1004" s="20"/>
       <c r="D1004" s="21"/>
@@ -11434,22 +11467,22 @@
     </row>
     <row r="1005" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C1005" s="2" t="s">
-        <v>700</v>
+        <v>711</v>
       </c>
     </row>
     <row r="1006" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C1006" s="2" t="s">
-        <v>701</v>
+        <v>712</v>
       </c>
     </row>
     <row r="1007" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D1007" s="3" t="s">
-        <v>702</v>
+        <v>713</v>
       </c>
     </row>
     <row r="1009" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1009" s="20" t="s">
-        <v>703</v>
+        <v>714</v>
       </c>
       <c r="C1009" s="20"/>
       <c r="D1009" s="21"/>
@@ -11463,27 +11496,27 @@
     </row>
     <row r="1010" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C1010" s="2" t="s">
-        <v>704</v>
+        <v>715</v>
       </c>
     </row>
     <row r="1011" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C1011" s="2" t="s">
-        <v>705</v>
+        <v>716</v>
       </c>
     </row>
     <row r="1012" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C1012" s="2" t="s">
-        <v>706</v>
+        <v>717</v>
       </c>
     </row>
     <row r="1013" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D1013" s="3" t="s">
-        <v>707</v>
+        <v>718</v>
       </c>
     </row>
     <row r="1015" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1015" s="20" t="s">
-        <v>708</v>
+        <v>719</v>
       </c>
       <c r="C1015" s="20"/>
       <c r="D1015" s="21"/>
@@ -11497,27 +11530,27 @@
     </row>
     <row r="1016" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C1016" s="2" t="s">
-        <v>709</v>
+        <v>720</v>
       </c>
     </row>
     <row r="1017" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D1017" s="3" t="s">
-        <v>710</v>
+        <v>721</v>
       </c>
     </row>
     <row r="1019" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C1019" s="2" t="s">
-        <v>711</v>
+        <v>722</v>
       </c>
     </row>
     <row r="1020" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D1020" s="3" t="s">
-        <v>712</v>
+        <v>723</v>
       </c>
     </row>
     <row r="1022" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1022" s="20" t="s">
-        <v>713</v>
+        <v>724</v>
       </c>
       <c r="C1022" s="20"/>
       <c r="D1022" s="21"/>
@@ -11531,27 +11564,27 @@
     </row>
     <row r="1023" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C1023" s="2" t="s">
-        <v>714</v>
+        <v>725</v>
       </c>
     </row>
     <row r="1024" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C1024" s="2" t="s">
-        <v>715</v>
+        <v>726</v>
       </c>
     </row>
     <row r="1025" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D1025" s="3" t="s">
-        <v>716</v>
+        <v>727</v>
       </c>
     </row>
     <row r="1027" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C1027" s="2" t="s">
-        <v>717</v>
+        <v>728</v>
       </c>
     </row>
     <row r="1028" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C1028" s="2" t="s">
-        <v>718</v>
+        <v>729</v>
       </c>
     </row>
     <row r="1029" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11561,27 +11594,27 @@
     </row>
     <row r="1031" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C1031" s="2" t="s">
-        <v>719</v>
+        <v>730</v>
       </c>
     </row>
     <row r="1032" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C1032" s="2" t="s">
-        <v>720</v>
+        <v>731</v>
       </c>
     </row>
     <row r="1033" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D1033" s="3" t="s">
-        <v>721</v>
+        <v>732</v>
       </c>
     </row>
     <row r="1034" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D1034" s="3" t="s">
-        <v>722</v>
+        <v>733</v>
       </c>
     </row>
     <row r="1036" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1036" s="20" t="s">
-        <v>723</v>
+        <v>734</v>
       </c>
       <c r="C1036" s="20"/>
       <c r="D1036" s="21"/>
@@ -11595,32 +11628,32 @@
     </row>
     <row r="1037" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C1037" s="2" t="s">
-        <v>724</v>
+        <v>735</v>
       </c>
     </row>
     <row r="1038" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D1038" s="3" t="s">
-        <v>725</v>
+        <v>736</v>
       </c>
     </row>
     <row r="1040" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C1040" s="2" t="s">
-        <v>726</v>
+        <v>737</v>
       </c>
     </row>
     <row r="1041" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D1041" s="3" t="s">
-        <v>727</v>
+        <v>738</v>
       </c>
     </row>
     <row r="1042" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D1042" s="3" t="s">
-        <v>728</v>
+        <v>739</v>
       </c>
     </row>
     <row r="1045" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1045" s="17" t="s">
-        <v>729</v>
+        <v>740</v>
       </c>
       <c r="B1045" s="18"/>
       <c r="C1045" s="18"/>
@@ -11635,60 +11668,60 @@
     </row>
     <row r="1046" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1046" s="2" t="s">
-        <v>730</v>
+        <v>741</v>
       </c>
     </row>
     <row r="1047" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1047" s="2" t="s">
-        <v>731</v>
+        <v>742</v>
       </c>
     </row>
     <row r="1048" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1048" s="2" t="s">
-        <v>732</v>
+        <v>743</v>
       </c>
     </row>
     <row r="1049" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1049" s="2" t="s">
-        <v>733</v>
+        <v>744</v>
       </c>
     </row>
     <row r="1050" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1050" s="2" t="s">
-        <v>734</v>
+        <v>745</v>
       </c>
     </row>
     <row r="1051" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1051" s="2" t="s">
-        <v>735</v>
+        <v>746</v>
       </c>
     </row>
     <row r="1052" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C1052" s="3" t="s">
-        <v>736</v>
+        <v>747</v>
       </c>
     </row>
     <row r="1054" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C1054" s="2" t="s">
-        <v>737</v>
+        <v>748</v>
       </c>
       <c r="D1054" s="3" t="s">
-        <v>738</v>
+        <v>749</v>
       </c>
     </row>
     <row r="1055" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D1055" s="3" t="s">
-        <v>739</v>
+        <v>750</v>
       </c>
     </row>
     <row r="1057" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1057" s="2" t="s">
-        <v>740</v>
+        <v>751</v>
       </c>
     </row>
     <row r="1058" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C1058" s="3" t="s">
-        <v>741</v>
+        <v>752</v>
       </c>
     </row>
     <row r="1059" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11696,38 +11729,38 @@
     </row>
     <row r="1060" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C1060" s="2" t="s">
-        <v>742</v>
+        <v>753</v>
       </c>
     </row>
     <row r="1061" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C1061" s="2" t="s">
-        <v>743</v>
+        <v>754</v>
       </c>
     </row>
     <row r="1062" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E1062" s="2" t="s">
-        <v>744</v>
+        <v>755</v>
       </c>
     </row>
     <row r="1063" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E1063" s="2" t="s">
-        <v>745</v>
+        <v>756</v>
       </c>
     </row>
     <row r="1064" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1065" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C1065" s="2" t="s">
-        <v>746</v>
+        <v>757</v>
       </c>
     </row>
     <row r="1066" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C1066" s="2" t="s">
-        <v>747</v>
+        <v>758</v>
       </c>
     </row>
     <row r="1067" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E1067" s="2" t="s">
-        <v>748</v>
+        <v>759</v>
       </c>
     </row>
   </sheetData>
@@ -11753,7 +11786,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -11776,7 +11809,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/git.xlsx
+++ b/git.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="760">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="821" uniqueCount="763">
   <si>
     <t xml:space="preserve">I - CÁC LỆNH GIT</t>
   </si>
@@ -2332,6 +2332,12 @@
     <t xml:space="preserve">liệt kê nhánh + commit cuối của mỗi nhánh</t>
   </si>
   <si>
+    <t xml:space="preserve">đổi tên nhánh hiện tại con trỏ HEAD đang trỏ đến</t>
+  </si>
+  <si>
+    <t xml:space="preserve">git branch -M &lt;new_name&gt;</t>
+  </si>
+  <si>
     <t xml:space="preserve">các nhánh merge với nhánh hiện tại</t>
   </si>
   <si>
@@ -2964,6 +2970,9 @@
   </si>
   <si>
     <t xml:space="preserve">git push [remote_Name] :refs/tags/[tag_Name]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t xml:space="preserve">XIX - ALIAS ( bí danh )</t>
@@ -3488,7 +3497,7 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>3600</xdr:colOff>
+      <xdr:colOff>3960</xdr:colOff>
       <xdr:row>232</xdr:row>
       <xdr:rowOff>360</xdr:rowOff>
     </xdr:from>
@@ -3496,7 +3505,7 @@
       <xdr:col>10</xdr:col>
       <xdr:colOff>545760</xdr:colOff>
       <xdr:row>248</xdr:row>
-      <xdr:rowOff>70920</xdr:rowOff>
+      <xdr:rowOff>70560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3509,8 +3518,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="647280" y="46282320"/>
-          <a:ext cx="6337080" cy="3270960"/>
+          <a:off x="647640" y="46282320"/>
+          <a:ext cx="6336720" cy="3270600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3525,7 +3534,7 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>3240</xdr:colOff>
+      <xdr:colOff>3600</xdr:colOff>
       <xdr:row>370</xdr:row>
       <xdr:rowOff>360</xdr:rowOff>
     </xdr:from>
@@ -3533,7 +3542,7 @@
       <xdr:col>10</xdr:col>
       <xdr:colOff>559440</xdr:colOff>
       <xdr:row>397</xdr:row>
-      <xdr:rowOff>48240</xdr:rowOff>
+      <xdr:rowOff>47880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3546,8 +3555,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="646920" y="73618920"/>
-          <a:ext cx="6351120" cy="5191200"/>
+          <a:off x="647280" y="73618920"/>
+          <a:ext cx="6350760" cy="5190840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3567,10 +3576,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L1067"/>
+  <dimension ref="A1:L1070"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1053" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1043" activeCellId="0" sqref="C1043"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A903" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E849" activeCellId="0" sqref="E849"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10672,87 +10681,88 @@
         <v>112</v>
       </c>
     </row>
-    <row r="840" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="840" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C840" s="2" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="841" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="841" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D841" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
+        <v>593</v>
+      </c>
+    </row>
+    <row r="842" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="843" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C843" s="2" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="844" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D844" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="846" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C846" s="2" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="847" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D847" s="3" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
     </row>
     <row r="849" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C849" s="2" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="850" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D850" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="852" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C852" s="2" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="853" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D853" s="3" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="852" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B852" s="20" t="s">
-        <v>596</v>
-      </c>
-      <c r="C852" s="20"/>
-      <c r="D852" s="21"/>
-      <c r="E852" s="20"/>
-      <c r="F852" s="20"/>
-      <c r="G852" s="20"/>
-      <c r="H852" s="20"/>
-      <c r="I852" s="20"/>
-      <c r="J852" s="20"/>
-      <c r="K852" s="22"/>
-    </row>
-    <row r="853" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C853" s="2" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="854" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C854" s="2" t="s">
+    <row r="855" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B855" s="20" t="s">
         <v>598</v>
       </c>
-    </row>
-    <row r="855" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D855" s="3" t="s">
+      <c r="C855" s="20"/>
+      <c r="D855" s="21"/>
+      <c r="E855" s="20"/>
+      <c r="F855" s="20"/>
+      <c r="G855" s="20"/>
+      <c r="H855" s="20"/>
+      <c r="I855" s="20"/>
+      <c r="J855" s="20"/>
+      <c r="K855" s="22"/>
+    </row>
+    <row r="856" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C856" s="2" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="857" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="857" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C857" s="2" t="s">
         <v>600</v>
       </c>
     </row>
     <row r="858" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C858" s="2" t="s">
+      <c r="D858" s="3" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="859" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D859" s="3" t="s">
+    <row r="860" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C860" s="2" t="s">
         <v>602</v>
       </c>
     </row>
@@ -10761,192 +10771,192 @@
         <v>603</v>
       </c>
     </row>
-    <row r="862" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C862" s="3" t="s">
+    <row r="862" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D862" s="3" t="s">
         <v>604</v>
       </c>
-      <c r="D862" s="3" t="s">
+    </row>
+    <row r="864" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C864" s="2" t="s">
         <v>605</v>
       </c>
-      <c r="E862" s="2" t="s">
+    </row>
+    <row r="865" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C865" s="3" t="s">
         <v>606</v>
       </c>
-    </row>
-    <row r="863" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C863" s="3" t="s">
+      <c r="D865" s="3" t="s">
         <v>607</v>
       </c>
-      <c r="D863" s="3" t="s">
+      <c r="E865" s="2" t="s">
         <v>608</v>
       </c>
-      <c r="E863" s="2" t="s">
+    </row>
+    <row r="866" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C866" s="3" t="s">
         <v>609</v>
       </c>
-    </row>
-    <row r="864" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C864" s="3" t="s">
+      <c r="D866" s="3" t="s">
         <v>610</v>
       </c>
-      <c r="D864" s="3" t="s">
+      <c r="E866" s="2" t="s">
         <v>611</v>
       </c>
-      <c r="E864" s="2" t="s">
+    </row>
+    <row r="867" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C867" s="3" t="s">
         <v>612</v>
       </c>
-    </row>
-    <row r="866" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A866" s="17" t="s">
+      <c r="D867" s="3" t="s">
         <v>613</v>
       </c>
-      <c r="B866" s="18"/>
-      <c r="C866" s="18"/>
-      <c r="D866" s="18"/>
-      <c r="E866" s="18"/>
-      <c r="F866" s="18"/>
-      <c r="G866" s="18"/>
-      <c r="H866" s="18"/>
-      <c r="I866" s="18"/>
-      <c r="J866" s="18"/>
-      <c r="K866" s="19"/>
-    </row>
-    <row r="867" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B867" s="2" t="s">
+      <c r="E867" s="2" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="868" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B868" s="2" t="s">
+    <row r="869" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A869" s="17" t="s">
         <v>615</v>
       </c>
-    </row>
-    <row r="869" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B869" s="2" t="s">
-        <v>616</v>
-      </c>
+      <c r="B869" s="18"/>
+      <c r="C869" s="18"/>
+      <c r="D869" s="18"/>
+      <c r="E869" s="18"/>
+      <c r="F869" s="18"/>
+      <c r="G869" s="18"/>
+      <c r="H869" s="18"/>
+      <c r="I869" s="18"/>
+      <c r="J869" s="18"/>
+      <c r="K869" s="19"/>
     </row>
     <row r="870" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B870" s="2" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="871" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B871" s="2" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="872" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B872" s="2" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="873" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B873" s="20" t="s">
+    <row r="873" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B873" s="2" t="s">
         <v>619</v>
       </c>
-      <c r="C873" s="20"/>
-      <c r="D873" s="21"/>
-      <c r="E873" s="20"/>
-      <c r="F873" s="20"/>
-      <c r="G873" s="20"/>
-      <c r="H873" s="20"/>
-      <c r="I873" s="20"/>
-      <c r="J873" s="20"/>
-      <c r="K873" s="22"/>
     </row>
     <row r="874" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C874" s="2" t="s">
+      <c r="B874" s="2" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="875" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D875" s="3" t="s">
-        <v>67</v>
-      </c>
+    <row r="876" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B876" s="20" t="s">
+        <v>621</v>
+      </c>
+      <c r="C876" s="20"/>
+      <c r="D876" s="21"/>
+      <c r="E876" s="20"/>
+      <c r="F876" s="20"/>
+      <c r="G876" s="20"/>
+      <c r="H876" s="20"/>
+      <c r="I876" s="20"/>
+      <c r="J876" s="20"/>
+      <c r="K876" s="22"/>
     </row>
     <row r="877" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C877" s="2" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="878" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D878" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="880" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C880" s="2" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="881" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D881" s="3" t="s">
         <v>69</v>
-      </c>
-    </row>
-    <row r="879" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="880" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C880" s="2" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="881" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D881" s="3" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="882" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="883" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B883" s="20" t="s">
-        <v>623</v>
-      </c>
-      <c r="C883" s="20"/>
-      <c r="D883" s="21"/>
-      <c r="E883" s="20"/>
-      <c r="F883" s="20"/>
-      <c r="G883" s="20"/>
-      <c r="H883" s="20"/>
-      <c r="I883" s="20"/>
-      <c r="J883" s="20"/>
-      <c r="K883" s="22"/>
-    </row>
-    <row r="884" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C884" s="2" t="s">
+      <c r="C883" s="2" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="885" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D885" s="3" t="s">
+    <row r="884" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D884" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="885" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="886" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B886" s="20" t="s">
         <v>625</v>
       </c>
+      <c r="C886" s="20"/>
+      <c r="D886" s="21"/>
+      <c r="E886" s="20"/>
+      <c r="F886" s="20"/>
+      <c r="G886" s="20"/>
+      <c r="H886" s="20"/>
+      <c r="I886" s="20"/>
+      <c r="J886" s="20"/>
+      <c r="K886" s="22"/>
     </row>
     <row r="887" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C887" s="2" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="888" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C888" s="2" t="s">
+    <row r="888" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D888" s="3" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="889" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C889" s="2" t="s">
+    <row r="890" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C890" s="2" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="890" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D890" s="3" t="s">
+    <row r="891" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C891" s="2" t="s">
         <v>629</v>
       </c>
     </row>
     <row r="892" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B892" s="20" t="s">
+      <c r="C892" s="2" t="s">
         <v>630</v>
       </c>
-      <c r="C892" s="20"/>
-      <c r="D892" s="21"/>
-      <c r="E892" s="20"/>
-      <c r="F892" s="20"/>
-      <c r="G892" s="20"/>
-      <c r="H892" s="20"/>
-      <c r="I892" s="20"/>
-      <c r="J892" s="20"/>
-      <c r="K892" s="22"/>
     </row>
     <row r="893" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C893" s="2" t="s">
+      <c r="D893" s="3" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="894" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D894" s="3" t="s">
+    <row r="895" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B895" s="20" t="s">
         <v>632</v>
       </c>
+      <c r="C895" s="20"/>
+      <c r="D895" s="21"/>
+      <c r="E895" s="20"/>
+      <c r="F895" s="20"/>
+      <c r="G895" s="20"/>
+      <c r="H895" s="20"/>
+      <c r="I895" s="20"/>
+      <c r="J895" s="20"/>
+      <c r="K895" s="22"/>
     </row>
     <row r="896" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C896" s="2" t="s">
@@ -10955,109 +10965,108 @@
     </row>
     <row r="897" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D897" s="3" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="899" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C899" s="2" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="900" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D900" s="3" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="899" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B899" s="20" t="s">
-        <v>634</v>
-      </c>
-      <c r="C899" s="20"/>
-      <c r="D899" s="21"/>
-      <c r="E899" s="20"/>
-      <c r="F899" s="20"/>
-      <c r="G899" s="20"/>
-      <c r="H899" s="20"/>
-      <c r="I899" s="20"/>
-      <c r="J899" s="20"/>
-      <c r="K899" s="22"/>
-    </row>
-    <row r="900" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C900" s="2" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="901" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C901" s="2" t="s">
+    <row r="902" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B902" s="20" t="s">
         <v>636</v>
       </c>
-    </row>
-    <row r="902" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C902" s="2" t="s">
+      <c r="C902" s="20"/>
+      <c r="D902" s="21"/>
+      <c r="E902" s="20"/>
+      <c r="F902" s="20"/>
+      <c r="G902" s="20"/>
+      <c r="H902" s="20"/>
+      <c r="I902" s="20"/>
+      <c r="J902" s="20"/>
+      <c r="K902" s="22"/>
+    </row>
+    <row r="903" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C903" s="2" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="903" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D903" s="3" t="s">
+    <row r="904" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C904" s="2" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="904" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D904" s="3" t="s">
+    <row r="905" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C905" s="2" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="905" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D905" s="3" t="s">
+    <row r="906" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D906" s="3" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="906" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="907" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C907" s="2" t="s">
+      <c r="D907" s="3" t="s">
         <v>641</v>
       </c>
     </row>
     <row r="908" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C908" s="2" t="s">
+      <c r="D908" s="3" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="909" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C909" s="2" t="s">
-        <v>643</v>
-      </c>
-    </row>
+    <row r="909" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="910" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C910" s="2" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="911" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C911" s="2" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="911" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D911" s="3" t="s">
+    <row r="912" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C912" s="2" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="912" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D912" s="3" t="s">
+    <row r="913" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C913" s="2" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="914" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B914" s="20" t="s">
+    <row r="914" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D914" s="3" t="s">
         <v>647</v>
       </c>
-      <c r="C914" s="20"/>
-      <c r="D914" s="21"/>
-      <c r="E914" s="20"/>
-      <c r="F914" s="20"/>
-      <c r="G914" s="20"/>
-      <c r="H914" s="20"/>
-      <c r="I914" s="20"/>
-      <c r="J914" s="20"/>
-      <c r="K914" s="22"/>
-    </row>
-    <row r="915" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C915" s="2" t="s">
+    </row>
+    <row r="915" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D915" s="3" t="s">
         <v>648</v>
       </c>
     </row>
-    <row r="916" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D916" s="3" t="s">
+    <row r="917" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B917" s="20" t="s">
         <v>649</v>
       </c>
-    </row>
-    <row r="917" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="C917" s="20"/>
+      <c r="D917" s="21"/>
+      <c r="E917" s="20"/>
+      <c r="F917" s="20"/>
+      <c r="G917" s="20"/>
+      <c r="H917" s="20"/>
+      <c r="I917" s="20"/>
+      <c r="J917" s="20"/>
+      <c r="K917" s="22"/>
+    </row>
     <row r="918" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C918" s="2" t="s">
         <v>650</v>
@@ -11065,49 +11074,50 @@
     </row>
     <row r="919" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D919" s="3" t="s">
-        <v>82</v>
+        <v>651</v>
       </c>
     </row>
     <row r="920" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="921" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C921" s="2" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="922" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D922" s="3" t="s">
-        <v>652</v>
+        <v>82</v>
       </c>
     </row>
     <row r="923" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="924" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="924" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C924" s="2" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="925" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C925" s="2" t="s">
+    <row r="925" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D925" s="3" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="926" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C926" s="2" t="s">
+    <row r="926" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="927" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C927" s="2" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="927" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D927" s="3" t="s">
-        <v>123</v>
+    <row r="928" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C928" s="2" t="s">
+        <v>656</v>
       </c>
     </row>
     <row r="929" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C929" s="2" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
     </row>
     <row r="930" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D930" s="3" t="s">
-        <v>657</v>
+        <v>123</v>
       </c>
     </row>
     <row r="932" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11116,105 +11126,105 @@
       </c>
     </row>
     <row r="933" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C933" s="2" t="s">
+      <c r="D933" s="3" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="934" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C934" s="2" t="s">
+    <row r="935" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C935" s="2" t="s">
         <v>660</v>
       </c>
     </row>
-    <row r="935" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D935" s="3" t="s">
+    <row r="936" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C936" s="2" t="s">
         <v>661</v>
       </c>
     </row>
-    <row r="937" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B937" s="20" t="s">
+    <row r="937" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C937" s="2" t="s">
         <v>662</v>
       </c>
-      <c r="C937" s="20"/>
-      <c r="D937" s="21"/>
-      <c r="E937" s="20"/>
-      <c r="F937" s="20"/>
-      <c r="G937" s="20"/>
-      <c r="H937" s="20"/>
-      <c r="I937" s="20"/>
-      <c r="J937" s="20"/>
-      <c r="K937" s="22"/>
-    </row>
-    <row r="938" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C938" s="2" t="s">
+    </row>
+    <row r="938" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D938" s="3" t="s">
         <v>663</v>
       </c>
     </row>
-    <row r="939" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C939" s="2" t="s">
+    <row r="940" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B940" s="20" t="s">
         <v>664</v>
       </c>
-    </row>
-    <row r="940" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C940" s="2" t="s">
+      <c r="C940" s="20"/>
+      <c r="D940" s="21"/>
+      <c r="E940" s="20"/>
+      <c r="F940" s="20"/>
+      <c r="G940" s="20"/>
+      <c r="H940" s="20"/>
+      <c r="I940" s="20"/>
+      <c r="J940" s="20"/>
+      <c r="K940" s="22"/>
+    </row>
+    <row r="941" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C941" s="2" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="941" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C941" s="2" t="s">
+    <row r="942" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C942" s="2" t="s">
         <v>666</v>
-      </c>
-    </row>
-    <row r="942" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C942" s="2" t="s">
-        <v>667</v>
       </c>
     </row>
     <row r="943" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C943" s="2" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="944" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C944" s="2" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="944" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F944" s="2" t="s">
+    <row r="945" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C945" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="J944" s="2" t="s">
+    </row>
+    <row r="946" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C946" s="2" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="945" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C945" s="32"/>
-      <c r="D945" s="33"/>
-      <c r="E945" s="32"/>
-      <c r="F945" s="32"/>
-      <c r="G945" s="34"/>
-      <c r="H945" s="35"/>
-      <c r="I945" s="35"/>
-      <c r="J945" s="35"/>
-    </row>
-    <row r="946" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J946" s="2" t="s">
+    <row r="947" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F947" s="2" t="s">
         <v>671</v>
       </c>
-    </row>
-    <row r="948" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C948" s="2" t="s">
+      <c r="J947" s="2" t="s">
         <v>672</v>
       </c>
     </row>
+    <row r="948" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C948" s="32"/>
+      <c r="D948" s="33"/>
+      <c r="E948" s="32"/>
+      <c r="F948" s="32"/>
+      <c r="G948" s="34"/>
+      <c r="H948" s="35"/>
+      <c r="I948" s="35"/>
+      <c r="J948" s="35"/>
+    </row>
     <row r="949" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D949" s="3" t="s">
+      <c r="J949" s="2" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="951" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C951" s="2" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="952" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D952" s="3" t="s">
         <v>73</v>
-      </c>
-    </row>
-    <row r="950" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D950" s="3" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="952" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C952" s="2" t="s">
-        <v>674</v>
       </c>
     </row>
     <row r="953" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11228,160 +11238,160 @@
       </c>
     </row>
     <row r="956" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C956" s="2" t="s">
+      <c r="D956" s="3" t="s">
         <v>677</v>
       </c>
     </row>
-    <row r="957" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D957" s="3" t="s">
+    <row r="958" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C958" s="2" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="959" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C959" s="2" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="960" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D960" s="3" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="958" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D958" s="3" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="959" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D959" s="3" t="s">
-        <v>679</v>
-      </c>
-    </row>
     <row r="961" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C961" s="2" t="s">
+      <c r="D961" s="3" t="s">
         <v>680</v>
       </c>
     </row>
     <row r="962" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C962" s="2" t="s">
+      <c r="D962" s="3" t="s">
         <v>681</v>
       </c>
     </row>
-    <row r="963" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D963" s="3" t="s">
+    <row r="964" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C964" s="2" t="s">
         <v>682</v>
       </c>
     </row>
-    <row r="965" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B965" s="20" t="s">
+    <row r="965" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C965" s="2" t="s">
         <v>683</v>
       </c>
-      <c r="C965" s="20"/>
-      <c r="D965" s="21"/>
-      <c r="E965" s="20"/>
-      <c r="F965" s="20"/>
-      <c r="G965" s="20"/>
-      <c r="H965" s="20"/>
-      <c r="I965" s="20"/>
-      <c r="J965" s="20"/>
-      <c r="K965" s="22"/>
-    </row>
-    <row r="966" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C966" s="2" t="s">
+    </row>
+    <row r="966" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D966" s="3" t="s">
         <v>684</v>
       </c>
     </row>
-    <row r="967" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C967" s="2" t="s">
+    <row r="968" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B968" s="20" t="s">
         <v>685</v>
       </c>
-    </row>
-    <row r="968" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D968" s="3" t="s">
+      <c r="C968" s="20"/>
+      <c r="D968" s="21"/>
+      <c r="E968" s="20"/>
+      <c r="F968" s="20"/>
+      <c r="G968" s="20"/>
+      <c r="H968" s="20"/>
+      <c r="I968" s="20"/>
+      <c r="J968" s="20"/>
+      <c r="K968" s="22"/>
+    </row>
+    <row r="969" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C969" s="2" t="s">
         <v>686</v>
       </c>
     </row>
-    <row r="969" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D969" s="3" t="s">
+    <row r="970" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C970" s="2" t="s">
         <v>687</v>
       </c>
     </row>
     <row r="971" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C971" s="2" t="s">
+      <c r="D971" s="3" t="s">
         <v>688</v>
       </c>
     </row>
-    <row r="973" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B973" s="20" t="s">
+    <row r="972" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D972" s="3" t="s">
         <v>689</v>
       </c>
-      <c r="C973" s="20"/>
-      <c r="D973" s="21"/>
-      <c r="E973" s="20"/>
-      <c r="F973" s="20"/>
-      <c r="G973" s="20"/>
-      <c r="H973" s="20"/>
-      <c r="I973" s="20"/>
-      <c r="J973" s="20"/>
-      <c r="K973" s="22"/>
-    </row>
-    <row r="974" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="974" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C974" s="2" t="s">
         <v>690</v>
       </c>
     </row>
-    <row r="975" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C975" s="2" t="s">
+    <row r="976" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B976" s="20" t="s">
         <v>691</v>
       </c>
-    </row>
-    <row r="976" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D976" s="3" t="s">
+      <c r="C976" s="20"/>
+      <c r="D976" s="21"/>
+      <c r="E976" s="20"/>
+      <c r="F976" s="20"/>
+      <c r="G976" s="20"/>
+      <c r="H976" s="20"/>
+      <c r="I976" s="20"/>
+      <c r="J976" s="20"/>
+      <c r="K976" s="22"/>
+    </row>
+    <row r="977" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C977" s="2" t="s">
         <v>692</v>
       </c>
     </row>
-    <row r="979" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A979" s="17" t="s">
+    <row r="978" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C978" s="2" t="s">
         <v>693</v>
       </c>
-      <c r="B979" s="18"/>
-      <c r="C979" s="18"/>
-      <c r="D979" s="18"/>
-      <c r="E979" s="18"/>
-      <c r="F979" s="18"/>
-      <c r="G979" s="18"/>
-      <c r="H979" s="18"/>
-      <c r="I979" s="18"/>
-      <c r="J979" s="18"/>
-      <c r="K979" s="19"/>
-    </row>
-    <row r="980" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B980" s="2" t="s">
+    </row>
+    <row r="979" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D979" s="3" t="s">
         <v>694</v>
       </c>
     </row>
     <row r="982" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B982" s="20" t="s">
+      <c r="A982" s="17" t="s">
         <v>695</v>
       </c>
-      <c r="C982" s="20"/>
-      <c r="D982" s="21"/>
-      <c r="E982" s="20"/>
-      <c r="F982" s="20"/>
-      <c r="G982" s="20"/>
-      <c r="H982" s="20"/>
-      <c r="I982" s="20"/>
-      <c r="J982" s="20"/>
-      <c r="K982" s="22"/>
+      <c r="B982" s="18"/>
+      <c r="C982" s="18"/>
+      <c r="D982" s="18"/>
+      <c r="E982" s="18"/>
+      <c r="F982" s="18"/>
+      <c r="G982" s="18"/>
+      <c r="H982" s="18"/>
+      <c r="I982" s="18"/>
+      <c r="J982" s="18"/>
+      <c r="K982" s="19"/>
     </row>
     <row r="983" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C983" s="2" t="s">
+      <c r="B983" s="2" t="s">
         <v>696</v>
       </c>
     </row>
-    <row r="984" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D984" s="3" t="s">
-        <v>89</v>
-      </c>
+    <row r="985" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B985" s="20" t="s">
+        <v>697</v>
+      </c>
+      <c r="C985" s="20"/>
+      <c r="D985" s="21"/>
+      <c r="E985" s="20"/>
+      <c r="F985" s="20"/>
+      <c r="G985" s="20"/>
+      <c r="H985" s="20"/>
+      <c r="I985" s="20"/>
+      <c r="J985" s="20"/>
+      <c r="K985" s="22"/>
     </row>
     <row r="986" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C986" s="2" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
     </row>
     <row r="987" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D987" s="3" t="s">
-        <v>698</v>
+        <v>89</v>
       </c>
     </row>
     <row r="989" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11390,22 +11400,19 @@
       </c>
     </row>
     <row r="990" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C990" s="2" t="s">
+      <c r="D990" s="3" t="s">
         <v>700</v>
       </c>
     </row>
-    <row r="991" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C991" s="2" t="s">
+    <row r="992" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C992" s="2" t="s">
         <v>701</v>
       </c>
     </row>
-    <row r="992" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D992" s="3" t="s">
+    <row r="993" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C993" s="2" t="s">
         <v>702</v>
       </c>
-    </row>
-    <row r="993" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C993" s="0"/>
     </row>
     <row r="994" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C994" s="2" t="s">
@@ -11417,29 +11424,32 @@
         <v>704</v>
       </c>
     </row>
+    <row r="996" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C996" s="0"/>
+    </row>
     <row r="997" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B997" s="20" t="s">
+      <c r="C997" s="2" t="s">
         <v>705</v>
       </c>
-      <c r="C997" s="20"/>
-      <c r="D997" s="21"/>
-      <c r="E997" s="20"/>
-      <c r="F997" s="20"/>
-      <c r="G997" s="20"/>
-      <c r="H997" s="20"/>
-      <c r="I997" s="20"/>
-      <c r="J997" s="20"/>
-      <c r="K997" s="22"/>
-    </row>
-    <row r="998" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C998" s="2" t="s">
+    </row>
+    <row r="998" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D998" s="3" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="999" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D999" s="3" t="s">
+    <row r="1000" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1000" s="20" t="s">
         <v>707</v>
       </c>
+      <c r="C1000" s="20"/>
+      <c r="D1000" s="21"/>
+      <c r="E1000" s="20"/>
+      <c r="F1000" s="20"/>
+      <c r="G1000" s="20"/>
+      <c r="H1000" s="20"/>
+      <c r="I1000" s="20"/>
+      <c r="J1000" s="20"/>
+      <c r="K1000" s="22"/>
     </row>
     <row r="1001" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C1001" s="2" t="s">
@@ -11451,92 +11461,92 @@
         <v>709</v>
       </c>
     </row>
-    <row r="1004" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1004" s="20" t="s">
+    <row r="1004" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C1004" s="2" t="s">
         <v>710</v>
       </c>
-      <c r="C1004" s="20"/>
-      <c r="D1004" s="21"/>
-      <c r="E1004" s="20"/>
-      <c r="F1004" s="20"/>
-      <c r="G1004" s="20"/>
-      <c r="H1004" s="20"/>
-      <c r="I1004" s="20"/>
-      <c r="J1004" s="20"/>
-      <c r="K1004" s="22"/>
     </row>
     <row r="1005" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1005" s="2" t="s">
+      <c r="D1005" s="3" t="s">
         <v>711</v>
       </c>
     </row>
-    <row r="1006" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1006" s="2" t="s">
+    <row r="1007" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1007" s="20" t="s">
         <v>712</v>
       </c>
-    </row>
-    <row r="1007" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D1007" s="3" t="s">
+      <c r="C1007" s="20"/>
+      <c r="D1007" s="21"/>
+      <c r="E1007" s="20"/>
+      <c r="F1007" s="20"/>
+      <c r="G1007" s="20"/>
+      <c r="H1007" s="20"/>
+      <c r="I1007" s="20"/>
+      <c r="J1007" s="20"/>
+      <c r="K1007" s="22"/>
+    </row>
+    <row r="1008" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C1008" s="2" t="s">
         <v>713</v>
       </c>
     </row>
     <row r="1009" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1009" s="20" t="s">
+      <c r="C1009" s="2" t="s">
         <v>714</v>
       </c>
-      <c r="C1009" s="20"/>
-      <c r="D1009" s="21"/>
-      <c r="E1009" s="20"/>
-      <c r="F1009" s="20"/>
-      <c r="G1009" s="20"/>
-      <c r="H1009" s="20"/>
-      <c r="I1009" s="20"/>
-      <c r="J1009" s="20"/>
-      <c r="K1009" s="22"/>
     </row>
     <row r="1010" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1010" s="2" t="s">
+      <c r="D1010" s="3" t="s">
         <v>715</v>
       </c>
     </row>
-    <row r="1011" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1011" s="2" t="s">
+    <row r="1012" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1012" s="20" t="s">
         <v>716</v>
       </c>
-    </row>
-    <row r="1012" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1012" s="2" t="s">
+      <c r="C1012" s="20"/>
+      <c r="D1012" s="21"/>
+      <c r="E1012" s="20"/>
+      <c r="F1012" s="20"/>
+      <c r="G1012" s="20"/>
+      <c r="H1012" s="20"/>
+      <c r="I1012" s="20"/>
+      <c r="J1012" s="20"/>
+      <c r="K1012" s="22"/>
+    </row>
+    <row r="1013" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C1013" s="2" t="s">
         <v>717</v>
       </c>
     </row>
-    <row r="1013" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D1013" s="3" t="s">
+    <row r="1014" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C1014" s="2" t="s">
         <v>718</v>
       </c>
     </row>
     <row r="1015" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1015" s="20" t="s">
+      <c r="C1015" s="2" t="s">
         <v>719</v>
       </c>
-      <c r="C1015" s="20"/>
-      <c r="D1015" s="21"/>
-      <c r="E1015" s="20"/>
-      <c r="F1015" s="20"/>
-      <c r="G1015" s="20"/>
-      <c r="H1015" s="20"/>
-      <c r="I1015" s="20"/>
-      <c r="J1015" s="20"/>
-      <c r="K1015" s="22"/>
     </row>
     <row r="1016" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1016" s="2" t="s">
+      <c r="D1016" s="3" t="s">
         <v>720</v>
       </c>
     </row>
-    <row r="1017" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D1017" s="3" t="s">
+    <row r="1018" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1018" s="20" t="s">
         <v>721</v>
       </c>
+      <c r="C1018" s="20"/>
+      <c r="D1018" s="21"/>
+      <c r="E1018" s="20"/>
+      <c r="F1018" s="20"/>
+      <c r="G1018" s="20"/>
+      <c r="H1018" s="20"/>
+      <c r="I1018" s="20"/>
+      <c r="J1018" s="20"/>
+      <c r="K1018" s="22"/>
     </row>
     <row r="1019" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C1019" s="2" t="s">
@@ -11548,93 +11558,93 @@
         <v>723</v>
       </c>
     </row>
-    <row r="1022" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1022" s="20" t="s">
+    <row r="1022" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C1022" s="2" t="s">
         <v>724</v>
       </c>
-      <c r="C1022" s="20"/>
-      <c r="D1022" s="21"/>
-      <c r="E1022" s="20"/>
-      <c r="F1022" s="20"/>
-      <c r="G1022" s="20"/>
-      <c r="H1022" s="20"/>
-      <c r="I1022" s="20"/>
-      <c r="J1022" s="20"/>
-      <c r="K1022" s="22"/>
     </row>
     <row r="1023" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1023" s="2" t="s">
+      <c r="D1023" s="3" t="s">
         <v>725</v>
       </c>
     </row>
-    <row r="1024" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1024" s="2" t="s">
+    <row r="1025" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1025" s="20" t="s">
         <v>726</v>
       </c>
-    </row>
-    <row r="1025" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D1025" s="3" t="s">
+      <c r="C1025" s="20"/>
+      <c r="D1025" s="21"/>
+      <c r="E1025" s="20"/>
+      <c r="F1025" s="20"/>
+      <c r="G1025" s="20"/>
+      <c r="H1025" s="20"/>
+      <c r="I1025" s="20"/>
+      <c r="J1025" s="20"/>
+      <c r="K1025" s="22"/>
+    </row>
+    <row r="1026" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C1026" s="2" t="s">
         <v>727</v>
       </c>
     </row>
-    <row r="1027" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1027" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C1027" s="2" t="s">
         <v>728</v>
       </c>
     </row>
-    <row r="1028" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1028" s="2" t="s">
+    <row r="1028" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1028" s="3" t="s">
         <v>729</v>
       </c>
     </row>
-    <row r="1029" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D1029" s="3" t="s">
+    <row r="1030" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C1030" s="2" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="1031" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C1031" s="2" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="1032" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1032" s="3" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="1031" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1031" s="2" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="1032" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1032" s="2" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="1033" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D1033" s="3" t="s">
+    <row r="1034" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C1034" s="2" t="s">
         <v>732</v>
       </c>
     </row>
-    <row r="1034" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D1034" s="3" t="s">
+    <row r="1035" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C1035" s="2" t="s">
         <v>733</v>
       </c>
     </row>
-    <row r="1036" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1036" s="20" t="s">
+    <row r="1036" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1036" s="3" t="s">
         <v>734</v>
       </c>
-      <c r="C1036" s="20"/>
-      <c r="D1036" s="21"/>
-      <c r="E1036" s="20"/>
-      <c r="F1036" s="20"/>
-      <c r="G1036" s="20"/>
-      <c r="H1036" s="20"/>
-      <c r="I1036" s="20"/>
-      <c r="J1036" s="20"/>
-      <c r="K1036" s="22"/>
     </row>
     <row r="1037" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1037" s="2" t="s">
+      <c r="D1037" s="3" t="s">
         <v>735</v>
       </c>
     </row>
-    <row r="1038" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D1038" s="3" t="s">
+    <row r="1039" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1039" s="20" t="s">
         <v>736</v>
       </c>
+      <c r="C1039" s="20"/>
+      <c r="D1039" s="21"/>
+      <c r="E1039" s="20"/>
+      <c r="F1039" s="20"/>
+      <c r="G1039" s="20"/>
+      <c r="H1039" s="20"/>
+      <c r="I1039" s="20"/>
+      <c r="J1039" s="20"/>
+      <c r="K1039" s="22"/>
     </row>
     <row r="1040" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C1040" s="2" t="s">
@@ -11646,40 +11656,40 @@
         <v>738</v>
       </c>
     </row>
-    <row r="1042" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D1042" s="3" t="s">
+    <row r="1043" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C1043" s="2" t="s">
         <v>739</v>
       </c>
     </row>
-    <row r="1045" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1045" s="17" t="s">
+    <row r="1044" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1044" s="3" t="s">
         <v>740</v>
       </c>
-      <c r="B1045" s="18"/>
-      <c r="C1045" s="18"/>
-      <c r="D1045" s="18"/>
-      <c r="E1045" s="18"/>
-      <c r="F1045" s="18"/>
-      <c r="G1045" s="18"/>
-      <c r="H1045" s="18"/>
-      <c r="I1045" s="18"/>
-      <c r="J1045" s="18"/>
-      <c r="K1045" s="19"/>
+    </row>
+    <row r="1045" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1045" s="3" t="s">
+        <v>741</v>
+      </c>
     </row>
     <row r="1046" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1046" s="2" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="1047" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1047" s="2" t="s">
+      <c r="C1046" s="2" t="s">
         <v>742</v>
       </c>
     </row>
     <row r="1048" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1048" s="2" t="s">
+      <c r="A1048" s="17" t="s">
         <v>743</v>
       </c>
+      <c r="B1048" s="18"/>
+      <c r="C1048" s="18"/>
+      <c r="D1048" s="18"/>
+      <c r="E1048" s="18"/>
+      <c r="F1048" s="18"/>
+      <c r="G1048" s="18"/>
+      <c r="H1048" s="18"/>
+      <c r="I1048" s="18"/>
+      <c r="J1048" s="18"/>
+      <c r="K1048" s="19"/>
     </row>
     <row r="1049" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1049" s="2" t="s">
@@ -11691,76 +11701,91 @@
         <v>745</v>
       </c>
     </row>
-    <row r="1051" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1051" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1051" s="2" t="s">
         <v>746</v>
       </c>
     </row>
-    <row r="1052" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1052" s="3" t="s">
+    <row r="1052" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1052" s="2" t="s">
         <v>747</v>
       </c>
     </row>
+    <row r="1053" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1053" s="2" t="s">
+        <v>748</v>
+      </c>
+    </row>
     <row r="1054" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1054" s="2" t="s">
-        <v>748</v>
-      </c>
-      <c r="D1054" s="3" t="s">
+      <c r="B1054" s="2" t="s">
         <v>749</v>
       </c>
     </row>
-    <row r="1055" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D1055" s="3" t="s">
+    <row r="1055" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C1055" s="3" t="s">
         <v>750</v>
       </c>
     </row>
     <row r="1057" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1057" s="2" t="s">
+      <c r="C1057" s="2" t="s">
         <v>751</v>
       </c>
-    </row>
-    <row r="1058" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1058" s="3" t="s">
+      <c r="D1057" s="3" t="s">
         <v>752</v>
       </c>
     </row>
-    <row r="1059" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1059" s="3"/>
-    </row>
-    <row r="1060" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1060" s="2" t="s">
+    <row r="1058" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1058" s="3" t="s">
         <v>753</v>
       </c>
     </row>
-    <row r="1061" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1061" s="2" t="s">
+    <row r="1060" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1060" s="2" t="s">
         <v>754</v>
       </c>
     </row>
-    <row r="1062" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E1062" s="2" t="s">
+    <row r="1061" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C1061" s="3" t="s">
         <v>755</v>
       </c>
     </row>
-    <row r="1063" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E1063" s="2" t="s">
+    <row r="1062" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C1062" s="3"/>
+    </row>
+    <row r="1063" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C1063" s="2" t="s">
         <v>756</v>
       </c>
     </row>
-    <row r="1064" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1065" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1065" s="2" t="s">
+    <row r="1064" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C1064" s="2" t="s">
         <v>757</v>
       </c>
     </row>
+    <row r="1065" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E1065" s="2" t="s">
+        <v>758</v>
+      </c>
+    </row>
     <row r="1066" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1066" s="2" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="1067" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E1067" s="2" t="s">
+      <c r="E1066" s="2" t="s">
         <v>759</v>
+      </c>
+    </row>
+    <row r="1067" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1068" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C1068" s="2" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="1069" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C1069" s="2" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="1070" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E1070" s="2" t="s">
+        <v>762</v>
       </c>
     </row>
   </sheetData>
@@ -11786,7 +11811,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -11809,7 +11834,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
